--- a/test_plots.xlsx
+++ b/test_plots.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koeboonshyang/Documents/GitHub/MEng-V2I/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E47630-4DEA-DD41-90B7-6E70A0949933}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA23EEA1-03C8-A14A-96AB-5F042C14675C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30020" yWindow="-120" windowWidth="27640" windowHeight="16940" xr2:uid="{9E8C8AD0-C6A1-2947-A0F7-CABF9596D166}"/>
+    <workbookView xWindow="4280" yWindow="1580" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{9E8C8AD0-C6A1-2947-A0F7-CABF9596D166}"/>
   </bookViews>
   <sheets>
-    <sheet name="1min" sheetId="1" r:id="rId1"/>
+    <sheet name="1min_house1" sheetId="1" r:id="rId1"/>
+    <sheet name="5min_house1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>Time</t>
   </si>
@@ -113,6 +114,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Power vs Time (1 min)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -153,7 +184,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1min'!$B$1</c:f>
+              <c:f>'1min_house1'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -188,7 +219,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1min'!$A$2:$A$1441</c:f>
+              <c:f>'1min_house1'!$A$2:$A$1441</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
                 <c:ptCount val="1440"/>
@@ -4517,7 +4548,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1min'!$B$2:$B$1441</c:f>
+              <c:f>'1min_house1'!$B$2:$B$1441</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1440"/>
@@ -8730,7 +8761,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1min'!$C$1</c:f>
+              <c:f>'1min_house1'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8765,7 +8796,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1min'!$A$2:$A$1441</c:f>
+              <c:f>'1min_house1'!$A$2:$A$1441</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
                 <c:ptCount val="1440"/>
@@ -13094,7 +13125,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1min'!$C$2:$C$1441</c:f>
+              <c:f>'1min_house1'!$C$2:$C$1441</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1440"/>
@@ -14007,6 +14038,3148 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Power</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> vs Time (5 min)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5min_house1'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aggregate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'5min_house1'!$A$2:$A$289</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy\ h:mm</c:formatCode>
+                <c:ptCount val="288"/>
+                <c:pt idx="0">
+                  <c:v>41589</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41589.003472222219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41589.006944444445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41589.010416666664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41589.013888888891</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41589.017361111109</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41589.020833333336</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41589.024305555555</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41589.027777777781</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41589.03125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41589.034722222219</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41589.038194444445</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41589.041666666664</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41589.045138888891</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41589.048611111109</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41589.052083333336</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41589.055555555555</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41589.059027777781</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41589.0625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41589.065972222219</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41589.069444444445</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41589.072916666664</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41589.076388888891</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41589.079861111109</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41589.083333333336</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41589.086805555555</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41589.090277777781</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41589.09375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41589.097222222219</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41589.100694444445</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41589.104166666664</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41589.107638888891</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41589.111111111109</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41589.114583333336</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41589.118055555555</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41589.121527777781</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41589.125</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41589.128472222219</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41589.131944444445</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41589.135416666664</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41589.138888888891</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41589.142361111109</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41589.145833333336</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41589.149305555555</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41589.152777777781</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>41589.15625</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41589.159722222219</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41589.163194444445</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41589.166666666664</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41589.170138888891</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41589.173611111109</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>41589.177083333336</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41589.180555555555</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>41589.184027777781</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>41589.1875</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>41589.190972222219</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>41589.194444444445</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>41589.197916666664</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41589.201388888891</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41589.204861111109</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41589.208333333336</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>41589.211805555555</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>41589.215277777781</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>41589.21875</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>41589.222222222219</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>41589.225694444445</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>41589.229166666664</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>41589.232638888891</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>41589.236111111109</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>41589.239583333336</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>41589.243055555555</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>41589.246527777781</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>41589.25</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>41589.253472222219</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>41589.256944444445</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>41589.260416666664</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>41589.263888888891</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>41589.267361111109</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>41589.270833333336</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>41589.274305555555</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>41589.277777777781</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>41589.28125</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>41589.284722222219</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>41589.288194444445</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>41589.291666666664</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>41589.295138888891</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>41589.298611111109</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>41589.302083333336</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>41589.305555555555</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>41589.309027777781</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>41589.3125</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>41589.315972222219</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>41589.319444444445</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>41589.322916666664</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>41589.326388888891</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>41589.329861111109</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>41589.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>41589.336805555555</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>41589.340277777781</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>41589.34375</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>41589.347222222219</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>41589.350694444445</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>41589.354166666664</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>41589.357638888891</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>41589.361111111109</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>41589.364583333336</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>41589.368055555555</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>41589.371527777781</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>41589.375</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>41589.378472222219</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>41589.381944444445</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>41589.385416666664</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>41589.388888888891</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>41589.392361111109</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>41589.395833333336</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>41589.399305555555</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>41589.402777777781</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>41589.40625</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>41589.409722222219</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>41589.413194444445</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>41589.416666666664</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>41589.420138888891</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>41589.423611111109</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>41589.427083333336</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>41589.430555555555</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>41589.434027777781</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>41589.4375</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>41589.440972222219</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>41589.444444444445</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>41589.447916666664</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>41589.451388888891</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>41589.454861111109</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>41589.458333333336</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>41589.461805555555</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>41589.465277777781</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>41589.46875</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>41589.472222222219</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>41589.475694444445</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>41589.479166666664</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>41589.482638888891</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>41589.486111111109</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>41589.489583333336</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>41589.493055555555</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>41589.496527777781</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>41589.5</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>41589.503472222219</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>41589.506944444445</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>41589.510416666664</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>41589.513888888891</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>41589.517361111109</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>41589.520833333336</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>41589.524305555555</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>41589.527777777781</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>41589.53125</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>41589.534722222219</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>41589.538194444445</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>41589.541666666664</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>41589.545138888891</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>41589.548611111109</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>41589.552083333336</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>41589.555555555555</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>41589.559027777781</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>41589.5625</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>41589.565972222219</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>41589.569444444445</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>41589.572916666664</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>41589.576388888891</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>41589.579861111109</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>41589.583333333336</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>41589.586805555555</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>41589.590277777781</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>41589.59375</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>41589.597222222219</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>41589.600694444445</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>41589.604166666664</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>41589.607638888891</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>41589.611111111109</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>41589.614583333336</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>41589.618055555555</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>41589.621527777781</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>41589.625</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>41589.628472222219</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>41589.631944444445</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>41589.635416666664</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>41589.638888888891</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>41589.642361111109</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>41589.645833333336</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>41589.649305555555</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>41589.652777777781</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>41589.65625</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>41589.659722222219</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>41589.663194444445</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>41589.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>41589.670138888891</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>41589.673611111109</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>41589.677083333336</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>41589.680555555555</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>41589.684027777781</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>41589.6875</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>41589.690972222219</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>41589.694444444445</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>41589.697916666664</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>41589.701388888891</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>41589.704861111109</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>41589.708333333336</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>41589.711805555555</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>41589.715277777781</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>41589.71875</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>41589.722222222219</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>41589.725694444445</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>41589.729166666664</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>41589.732638888891</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>41589.736111111109</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>41589.739583333336</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>41589.743055555555</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>41589.746527777781</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>41589.75</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>41589.753472222219</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>41589.756944444445</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>41589.760416666664</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>41589.763888888891</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>41589.767361111109</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>41589.770833333336</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>41589.774305555555</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>41589.777777777781</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>41589.78125</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>41589.784722222219</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>41589.788194444445</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>41589.791666666664</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>41589.795138888891</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>41589.798611111109</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>41589.802083333336</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>41589.805555555555</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>41589.809027777781</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>41589.8125</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>41589.815972222219</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>41589.819444444445</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>41589.822916666664</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>41589.826388888891</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>41589.829861111109</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>41589.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>41589.836805555555</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>41589.840277777781</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>41589.84375</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>41589.847222222219</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>41589.850694444445</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>41589.854166666664</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>41589.857638888891</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>41589.861111111109</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>41589.864583333336</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>41589.868055555555</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>41589.871527777781</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>41589.875</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>41589.878472222219</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>41589.881944444445</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>41589.885416666664</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>41589.888888888891</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>41589.892361111109</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>41589.895833333336</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>41589.899305555555</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>41589.902777777781</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>41589.90625</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>41589.909722222219</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>41589.913194444445</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>41589.916666666664</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>41589.920138888891</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>41589.923611111109</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>41589.927083333336</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>41589.930555555555</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>41589.934027777781</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>41589.9375</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>41589.940972222219</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>41589.944444444445</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>41589.947916666664</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>41589.951388888891</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>41589.954861111109</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>41589.958333333336</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>41589.961805555555</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>41589.965277777781</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>41589.96875</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>41589.972222222219</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>41589.975694444445</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>41589.979166666664</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>41589.982638888891</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>41589.986111111109</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>41589.989583333336</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>41589.993055555555</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>41589.996527777781</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'5min_house1'!$B$2:$B$289</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="288"/>
+                <c:pt idx="0">
+                  <c:v>179.896551724137</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>179.655172413793</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>439.416666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1118.6111111111099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1139.94285714285</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1147.9142857142799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1151</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1158.55555555555</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1159.0512820512799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1162.22580645161</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1157.84375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1156.6875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1151.8333333333301</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1162.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1163.56666666666</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1166.46875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1183.1025641025601</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1231.44827586206</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1205.9555555555501</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1154.3333333333301</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1442.3611111111099</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1995.4411764705801</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1702.2121212121201</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1508.6842105263099</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1304.15625</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1218.11764705882</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1682.4193548387</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1610.4857142857099</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1439.6764705882299</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1120.8620689655099</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1536.2580645161199</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1677.96551724137</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1146.2666666666601</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1462.6764705882299</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1325.11764705882</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1294.0882352941101</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1517.8709677419299</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1166.42857142857</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1524.0416666666599</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1320.0285714285701</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1264.07142857142</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1608.68571428571</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1126.38888888888</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1427.27272727272</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1549.7941176470499</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1211.1290322580601</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1594.1666666666599</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1155.78125</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1461.25</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1735.1081081080999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1159.42</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1588.48</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1370.64</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1191.52</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1485.72727272727</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1147.0588235294099</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1520.4117647058799</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1537.6774193548299</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1113.1111111111099</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1304.9032258064501</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1097.7368421052599</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1468.2439024390201</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1725.57142857142</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1158.6521739130401</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1453.1379310344801</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1152.94736842105</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1595.8947368421</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1145.72727272727</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1512.7096774193501</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1141.35483870967</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1467.9117647058799</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1107.6551724137901</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1549.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1650.64705882352</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>761.36111111111097</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>686.88235294117601</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>273.42857142857099</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>626.53125</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>276.29411764705799</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>553.15151515151501</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>255.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>653.31578947368405</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>192.25</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>569.82352941176396</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>183.21212121212099</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>511.41379310344797</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>370.74074074074002</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2518.9473684210502</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>480.56521739130397</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>526.76923076923003</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>474.0625</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>494.64705882352899</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>476.0625</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>314.07407407407402</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>253.37931034482699</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>231.416666666666</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>244.85294117647001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>233.729729729729</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>243.48148148148101</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>310.433333333333</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>233.53125</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>278.461538461538</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>396.09090909090901</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>434.51351351351298</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>453.441176470588</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>473.55555555555497</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>475.068965517241</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>279.5</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>239.35483870967701</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>229.375</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>182.15151515151501</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>175.969696969696</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>249.923076923076</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>252.030303030303</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>258.75</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>252.8</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>248.88461538461499</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>242.4375</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>228.07692307692301</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>230.157894736842</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>244.76923076923001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>251.04545454545399</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>250.21875</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>252.685714285714</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>257.918918918918</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>251.529411764705</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>249.46666666666599</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>252.07407407407399</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>257.21212121212102</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>243.642857142857</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>229.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>229.55</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>256.35714285714198</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>252.53333333333299</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>183.470588235294</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>205.57692307692301</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>201.272727272727</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>211.3</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>193.88571428571399</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>189.05405405405401</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>232.10344827586201</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>227.888888888888</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>213.5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>209.710526315789</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>236.18518518518499</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>292.67857142857099</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>257.434782608695</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>889.41935483870895</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1150.05555555555</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>907.47619047619003</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1096.51111111111</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>264.30434782608597</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>250.16129032257999</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>276.41379310344797</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>271.0625</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>337.90909090909003</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>401.18918918918899</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>239.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>254.53125</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>255.685714285714</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>256.55555555555497</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>261.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>258.87096774193498</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>260.39393939393898</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>231.7</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>211.17948717948701</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>376.972972972972</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>442.916666666666</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>452.309523809523</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>478.84</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>374.642857142857</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>376.04347826086899</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>397.6</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>394.5</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>392.47058823529397</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>371.34285714285699</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>397.638888888888</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>378.42857142857099</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>477.8</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>460.57894736842098</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>489.2</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>480.44827586206799</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>554.17647058823502</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>477.586206896551</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>497.59459459459401</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>502.85714285714198</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>600.84615384615302</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>567.54838709677404</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>563.51851851851802</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>522.78787878787796</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>529.04999999999995</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>549.6</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>428.986486486486</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>438.21739130434702</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>411.05714285714203</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>432.23809523809501</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1198.1764705882299</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1463.96551724137</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>589.71875</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>607.28125</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>563.87878787878697</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>587.11111111111097</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>543.16666666666595</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>540.51351351351298</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>540.638888888888</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>544.11428571428496</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>536.82142857142799</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>553.42105263157896</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>607.61538461538396</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>585.93333333333305</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>551.85714285714198</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>508.68181818181802</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>494.10714285714198</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>488.21875</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>492.33333333333297</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>489.32352941176401</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>744.25</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>564.23333333333301</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>635.06060606060601</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>649.94117647058795</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>627.04545454545405</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>627.875</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>878.46666666666601</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2628.3636363636301</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1337.7333333333299</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1396.84375</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1036.85294117647</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>513.89189189189096</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>460.29032258064501</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>509.25</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>496.76470588235202</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>522.1875</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>491.13333333333298</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>513.06060606060601</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>546.72727272727195</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>569.03333333333296</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>585.944444444444</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>678.91176470588198</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>695.20833333333303</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>713.125</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>717.58620689655095</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>707.66666666666595</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>648.27272727272702</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>572.67857142857099</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>562.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>498.93023255813898</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>490.55813953488303</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>487.87179487179401</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>629.51612903225805</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>583.51612903225805</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>599.28571428571399</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>590.21621621621603</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>582.9</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>557.75</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>553.59375</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>952.322580645161</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>2083.26470588235</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>500.28205128205099</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>498.27272727272702</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>495.51515151515099</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>583.04999999999995</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>595.22222222222194</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>573.25</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>590.30303030303003</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>599.06451612903197</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>620.27586206896501</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>529.09090909090901</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>542.605263157894</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>541.35135135135101</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>571.30303030303003</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>584.0625</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>564.54054054053995</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>527.21212121212102</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>542.51612903225805</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>487.675675675675</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>499.457142857142</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>478.827586206896</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>479.969696969697</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>523.44117647058795</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>566.43333333333305</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6DB3-1549-B2F6-A1A51CD5DD95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5min_house1'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>With_EV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'5min_house1'!$A$2:$A$289</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy\ h:mm</c:formatCode>
+                <c:ptCount val="288"/>
+                <c:pt idx="0">
+                  <c:v>41589</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41589.003472222219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41589.006944444445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41589.010416666664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41589.013888888891</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41589.017361111109</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41589.020833333336</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41589.024305555555</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41589.027777777781</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41589.03125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41589.034722222219</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41589.038194444445</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41589.041666666664</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41589.045138888891</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41589.048611111109</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41589.052083333336</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41589.055555555555</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41589.059027777781</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41589.0625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41589.065972222219</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41589.069444444445</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41589.072916666664</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41589.076388888891</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41589.079861111109</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41589.083333333336</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41589.086805555555</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41589.090277777781</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41589.09375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41589.097222222219</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41589.100694444445</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41589.104166666664</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41589.107638888891</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41589.111111111109</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41589.114583333336</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41589.118055555555</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41589.121527777781</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41589.125</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41589.128472222219</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41589.131944444445</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41589.135416666664</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41589.138888888891</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41589.142361111109</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41589.145833333336</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41589.149305555555</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41589.152777777781</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>41589.15625</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41589.159722222219</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41589.163194444445</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41589.166666666664</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41589.170138888891</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41589.173611111109</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>41589.177083333336</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41589.180555555555</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>41589.184027777781</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>41589.1875</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>41589.190972222219</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>41589.194444444445</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>41589.197916666664</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41589.201388888891</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41589.204861111109</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41589.208333333336</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>41589.211805555555</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>41589.215277777781</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>41589.21875</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>41589.222222222219</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>41589.225694444445</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>41589.229166666664</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>41589.232638888891</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>41589.236111111109</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>41589.239583333336</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>41589.243055555555</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>41589.246527777781</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>41589.25</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>41589.253472222219</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>41589.256944444445</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>41589.260416666664</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>41589.263888888891</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>41589.267361111109</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>41589.270833333336</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>41589.274305555555</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>41589.277777777781</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>41589.28125</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>41589.284722222219</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>41589.288194444445</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>41589.291666666664</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>41589.295138888891</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>41589.298611111109</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>41589.302083333336</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>41589.305555555555</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>41589.309027777781</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>41589.3125</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>41589.315972222219</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>41589.319444444445</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>41589.322916666664</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>41589.326388888891</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>41589.329861111109</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>41589.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>41589.336805555555</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>41589.340277777781</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>41589.34375</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>41589.347222222219</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>41589.350694444445</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>41589.354166666664</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>41589.357638888891</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>41589.361111111109</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>41589.364583333336</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>41589.368055555555</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>41589.371527777781</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>41589.375</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>41589.378472222219</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>41589.381944444445</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>41589.385416666664</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>41589.388888888891</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>41589.392361111109</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>41589.395833333336</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>41589.399305555555</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>41589.402777777781</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>41589.40625</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>41589.409722222219</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>41589.413194444445</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>41589.416666666664</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>41589.420138888891</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>41589.423611111109</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>41589.427083333336</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>41589.430555555555</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>41589.434027777781</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>41589.4375</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>41589.440972222219</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>41589.444444444445</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>41589.447916666664</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>41589.451388888891</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>41589.454861111109</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>41589.458333333336</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>41589.461805555555</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>41589.465277777781</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>41589.46875</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>41589.472222222219</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>41589.475694444445</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>41589.479166666664</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>41589.482638888891</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>41589.486111111109</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>41589.489583333336</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>41589.493055555555</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>41589.496527777781</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>41589.5</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>41589.503472222219</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>41589.506944444445</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>41589.510416666664</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>41589.513888888891</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>41589.517361111109</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>41589.520833333336</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>41589.524305555555</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>41589.527777777781</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>41589.53125</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>41589.534722222219</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>41589.538194444445</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>41589.541666666664</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>41589.545138888891</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>41589.548611111109</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>41589.552083333336</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>41589.555555555555</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>41589.559027777781</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>41589.5625</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>41589.565972222219</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>41589.569444444445</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>41589.572916666664</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>41589.576388888891</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>41589.579861111109</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>41589.583333333336</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>41589.586805555555</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>41589.590277777781</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>41589.59375</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>41589.597222222219</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>41589.600694444445</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>41589.604166666664</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>41589.607638888891</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>41589.611111111109</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>41589.614583333336</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>41589.618055555555</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>41589.621527777781</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>41589.625</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>41589.628472222219</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>41589.631944444445</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>41589.635416666664</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>41589.638888888891</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>41589.642361111109</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>41589.645833333336</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>41589.649305555555</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>41589.652777777781</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>41589.65625</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>41589.659722222219</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>41589.663194444445</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>41589.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>41589.670138888891</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>41589.673611111109</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>41589.677083333336</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>41589.680555555555</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>41589.684027777781</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>41589.6875</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>41589.690972222219</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>41589.694444444445</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>41589.697916666664</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>41589.701388888891</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>41589.704861111109</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>41589.708333333336</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>41589.711805555555</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>41589.715277777781</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>41589.71875</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>41589.722222222219</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>41589.725694444445</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>41589.729166666664</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>41589.732638888891</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>41589.736111111109</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>41589.739583333336</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>41589.743055555555</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>41589.746527777781</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>41589.75</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>41589.753472222219</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>41589.756944444445</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>41589.760416666664</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>41589.763888888891</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>41589.767361111109</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>41589.770833333336</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>41589.774305555555</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>41589.777777777781</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>41589.78125</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>41589.784722222219</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>41589.788194444445</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>41589.791666666664</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>41589.795138888891</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>41589.798611111109</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>41589.802083333336</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>41589.805555555555</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>41589.809027777781</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>41589.8125</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>41589.815972222219</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>41589.819444444445</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>41589.822916666664</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>41589.826388888891</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>41589.829861111109</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>41589.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>41589.836805555555</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>41589.840277777781</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>41589.84375</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>41589.847222222219</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>41589.850694444445</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>41589.854166666664</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>41589.857638888891</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>41589.861111111109</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>41589.864583333336</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>41589.868055555555</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>41589.871527777781</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>41589.875</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>41589.878472222219</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>41589.881944444445</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>41589.885416666664</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>41589.888888888891</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>41589.892361111109</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>41589.895833333336</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>41589.899305555555</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>41589.902777777781</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>41589.90625</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>41589.909722222219</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>41589.913194444445</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>41589.916666666664</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>41589.920138888891</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>41589.923611111109</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>41589.927083333336</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>41589.930555555555</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>41589.934027777781</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>41589.9375</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>41589.940972222219</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>41589.944444444445</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>41589.947916666664</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>41589.951388888891</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>41589.954861111109</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>41589.958333333336</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>41589.961805555555</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>41589.965277777781</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>41589.96875</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>41589.972222222219</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>41589.975694444445</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>41589.979166666664</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>41589.982638888891</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>41589.986111111109</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>41589.989583333336</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>41589.993055555555</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>41589.996527777781</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'5min_house1'!$C$2:$C$289</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="288"/>
+                <c:pt idx="227">
+                  <c:v>649.94117647058795</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>3872.4476535821141</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>3875.78467604666</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>4128.7251328699958</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>5880.8276172136202</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>4592.2730808599899</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>4653.3414433766602</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>4295.2042924289499</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>3774.0044076932109</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>3722.0737115308048</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>3772.6214841125802</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>3761.6484320916525</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>3788.49281247098</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>3758.7954042633328</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>3782.0372867272658</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>3816.964475890602</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>3840.4811443399926</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>3858.556779011104</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>3952.6460674492118</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>3970.0253123733332</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>3988.9883932733301</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>3994.4625769932109</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>3985.5252211399961</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>3927.0851619027271</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>3852.4189346452313</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>3842.84457666666</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>3780.457446114799</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>3772.9484711515433</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>3771.107719168454</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>3913.5820659355882</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>3868.3984117655882</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>3884.972573699044</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>3876.6977816828858</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>3870.1683185133302</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>3845.7990738266599</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>3842.4195958733299</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>4241.9233120918216</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>5373.6406423890094</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>3791.4358592653807</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>3790.2095986027271</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>3788.2430289784811</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>3876.5798637600001</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>3889.5684595622215</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>3868.43089677333</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>3886.3414527196901</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>3895.9375208170022</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>620.27586206896501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6DB3-1549-B2F6-A1A51CD5DD95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1315807599"/>
+        <c:axId val="1421068399"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1315807599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yy\ h:mm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1421068399"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1421068399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1315807599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -14047,7 +17220,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14604,6 +18333,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E313BC21-3406-014D-A7FB-4FF4F11C454E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -14903,8 +18673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C268D1-234C-1143-B929-6E4A6C2FA7AB}">
   <dimension ref="A1:C1441"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1441" sqref="A1:C1441"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27002,4 +30772,2464 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FBABEB-A5DB-4543-9257-702C80BCF0CB}">
+  <dimension ref="A1:C289"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>41589</v>
+      </c>
+      <c r="B2">
+        <v>179.896551724137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>41589.003472222219</v>
+      </c>
+      <c r="B3">
+        <v>179.655172413793</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>41589.006944444445</v>
+      </c>
+      <c r="B4">
+        <v>439.416666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>41589.010416666664</v>
+      </c>
+      <c r="B5">
+        <v>1118.6111111111099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>41589.013888888891</v>
+      </c>
+      <c r="B6">
+        <v>1139.94285714285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>41589.017361111109</v>
+      </c>
+      <c r="B7">
+        <v>1147.9142857142799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>41589.020833333336</v>
+      </c>
+      <c r="B8">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>41589.024305555555</v>
+      </c>
+      <c r="B9">
+        <v>1158.55555555555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>41589.027777777781</v>
+      </c>
+      <c r="B10">
+        <v>1159.0512820512799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>41589.03125</v>
+      </c>
+      <c r="B11">
+        <v>1162.22580645161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>41589.034722222219</v>
+      </c>
+      <c r="B12">
+        <v>1157.84375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>41589.038194444445</v>
+      </c>
+      <c r="B13">
+        <v>1156.6875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>41589.041666666664</v>
+      </c>
+      <c r="B14">
+        <v>1151.8333333333301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>41589.045138888891</v>
+      </c>
+      <c r="B15">
+        <v>1162.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>41589.048611111109</v>
+      </c>
+      <c r="B16">
+        <v>1163.56666666666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>41589.052083333336</v>
+      </c>
+      <c r="B17">
+        <v>1166.46875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>41589.055555555555</v>
+      </c>
+      <c r="B18">
+        <v>1183.1025641025601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>41589.059027777781</v>
+      </c>
+      <c r="B19">
+        <v>1231.44827586206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>41589.0625</v>
+      </c>
+      <c r="B20">
+        <v>1205.9555555555501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>41589.065972222219</v>
+      </c>
+      <c r="B21">
+        <v>1154.3333333333301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>41589.069444444445</v>
+      </c>
+      <c r="B22">
+        <v>1442.3611111111099</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>41589.072916666664</v>
+      </c>
+      <c r="B23">
+        <v>1995.4411764705801</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>41589.076388888891</v>
+      </c>
+      <c r="B24">
+        <v>1702.2121212121201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>41589.079861111109</v>
+      </c>
+      <c r="B25">
+        <v>1508.6842105263099</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>41589.083333333336</v>
+      </c>
+      <c r="B26">
+        <v>1304.15625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>41589.086805555555</v>
+      </c>
+      <c r="B27">
+        <v>1218.11764705882</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>41589.090277777781</v>
+      </c>
+      <c r="B28">
+        <v>1682.4193548387</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>41589.09375</v>
+      </c>
+      <c r="B29">
+        <v>1610.4857142857099</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>41589.097222222219</v>
+      </c>
+      <c r="B30">
+        <v>1439.6764705882299</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>41589.100694444445</v>
+      </c>
+      <c r="B31">
+        <v>1120.8620689655099</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>41589.104166666664</v>
+      </c>
+      <c r="B32">
+        <v>1536.2580645161199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>41589.107638888891</v>
+      </c>
+      <c r="B33">
+        <v>1677.96551724137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>41589.111111111109</v>
+      </c>
+      <c r="B34">
+        <v>1146.2666666666601</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>41589.114583333336</v>
+      </c>
+      <c r="B35">
+        <v>1462.6764705882299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>41589.118055555555</v>
+      </c>
+      <c r="B36">
+        <v>1325.11764705882</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>41589.121527777781</v>
+      </c>
+      <c r="B37">
+        <v>1294.0882352941101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>41589.125</v>
+      </c>
+      <c r="B38">
+        <v>1517.8709677419299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>41589.128472222219</v>
+      </c>
+      <c r="B39">
+        <v>1166.42857142857</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>41589.131944444445</v>
+      </c>
+      <c r="B40">
+        <v>1524.0416666666599</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>41589.135416666664</v>
+      </c>
+      <c r="B41">
+        <v>1320.0285714285701</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>41589.138888888891</v>
+      </c>
+      <c r="B42">
+        <v>1264.07142857142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>41589.142361111109</v>
+      </c>
+      <c r="B43">
+        <v>1608.68571428571</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>41589.145833333336</v>
+      </c>
+      <c r="B44">
+        <v>1126.38888888888</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>41589.149305555555</v>
+      </c>
+      <c r="B45">
+        <v>1427.27272727272</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>41589.152777777781</v>
+      </c>
+      <c r="B46">
+        <v>1549.7941176470499</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>41589.15625</v>
+      </c>
+      <c r="B47">
+        <v>1211.1290322580601</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>41589.159722222219</v>
+      </c>
+      <c r="B48">
+        <v>1594.1666666666599</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>41589.163194444445</v>
+      </c>
+      <c r="B49">
+        <v>1155.78125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>41589.166666666664</v>
+      </c>
+      <c r="B50">
+        <v>1461.25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>41589.170138888891</v>
+      </c>
+      <c r="B51">
+        <v>1735.1081081080999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>41589.173611111109</v>
+      </c>
+      <c r="B52">
+        <v>1159.42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>41589.177083333336</v>
+      </c>
+      <c r="B53">
+        <v>1588.48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>41589.180555555555</v>
+      </c>
+      <c r="B54">
+        <v>1370.64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>41589.184027777781</v>
+      </c>
+      <c r="B55">
+        <v>1191.52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>41589.1875</v>
+      </c>
+      <c r="B56">
+        <v>1485.72727272727</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>41589.190972222219</v>
+      </c>
+      <c r="B57">
+        <v>1147.0588235294099</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>41589.194444444445</v>
+      </c>
+      <c r="B58">
+        <v>1520.4117647058799</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>41589.197916666664</v>
+      </c>
+      <c r="B59">
+        <v>1537.6774193548299</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>41589.201388888891</v>
+      </c>
+      <c r="B60">
+        <v>1113.1111111111099</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>41589.204861111109</v>
+      </c>
+      <c r="B61">
+        <v>1304.9032258064501</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>41589.208333333336</v>
+      </c>
+      <c r="B62">
+        <v>1097.7368421052599</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>41589.211805555555</v>
+      </c>
+      <c r="B63">
+        <v>1468.2439024390201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>41589.215277777781</v>
+      </c>
+      <c r="B64">
+        <v>1725.57142857142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>41589.21875</v>
+      </c>
+      <c r="B65">
+        <v>1158.6521739130401</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>41589.222222222219</v>
+      </c>
+      <c r="B66">
+        <v>1453.1379310344801</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>41589.225694444445</v>
+      </c>
+      <c r="B67">
+        <v>1152.94736842105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>41589.229166666664</v>
+      </c>
+      <c r="B68">
+        <v>1595.8947368421</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>41589.232638888891</v>
+      </c>
+      <c r="B69">
+        <v>1145.72727272727</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>41589.236111111109</v>
+      </c>
+      <c r="B70">
+        <v>1512.7096774193501</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>41589.239583333336</v>
+      </c>
+      <c r="B71">
+        <v>1141.35483870967</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>41589.243055555555</v>
+      </c>
+      <c r="B72">
+        <v>1467.9117647058799</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>41589.246527777781</v>
+      </c>
+      <c r="B73">
+        <v>1107.6551724137901</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>41589.25</v>
+      </c>
+      <c r="B74">
+        <v>1549.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>41589.253472222219</v>
+      </c>
+      <c r="B75">
+        <v>1650.64705882352</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>41589.256944444445</v>
+      </c>
+      <c r="B76">
+        <v>761.36111111111097</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>41589.260416666664</v>
+      </c>
+      <c r="B77">
+        <v>686.88235294117601</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>41589.263888888891</v>
+      </c>
+      <c r="B78">
+        <v>273.42857142857099</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>41589.267361111109</v>
+      </c>
+      <c r="B79">
+        <v>626.53125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>41589.270833333336</v>
+      </c>
+      <c r="B80">
+        <v>276.29411764705799</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>41589.274305555555</v>
+      </c>
+      <c r="B81">
+        <v>553.15151515151501</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>41589.277777777781</v>
+      </c>
+      <c r="B82">
+        <v>255.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>41589.28125</v>
+      </c>
+      <c r="B83">
+        <v>653.31578947368405</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>41589.284722222219</v>
+      </c>
+      <c r="B84">
+        <v>192.25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>41589.288194444445</v>
+      </c>
+      <c r="B85">
+        <v>569.82352941176396</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>41589.291666666664</v>
+      </c>
+      <c r="B86">
+        <v>183.21212121212099</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>41589.295138888891</v>
+      </c>
+      <c r="B87">
+        <v>511.41379310344797</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>41589.298611111109</v>
+      </c>
+      <c r="B88">
+        <v>370.74074074074002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>41589.302083333336</v>
+      </c>
+      <c r="B89">
+        <v>2518.9473684210502</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>41589.305555555555</v>
+      </c>
+      <c r="B90">
+        <v>480.56521739130397</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>41589.309027777781</v>
+      </c>
+      <c r="B91">
+        <v>526.76923076923003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>41589.3125</v>
+      </c>
+      <c r="B92">
+        <v>474.0625</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>41589.315972222219</v>
+      </c>
+      <c r="B93">
+        <v>494.64705882352899</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>41589.319444444445</v>
+      </c>
+      <c r="B94">
+        <v>476.0625</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>41589.322916666664</v>
+      </c>
+      <c r="B95">
+        <v>314.07407407407402</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>41589.326388888891</v>
+      </c>
+      <c r="B96">
+        <v>253.37931034482699</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>41589.329861111109</v>
+      </c>
+      <c r="B97">
+        <v>231.416666666666</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>41589.333333333336</v>
+      </c>
+      <c r="B98">
+        <v>244.85294117647001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>41589.336805555555</v>
+      </c>
+      <c r="B99">
+        <v>233.729729729729</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>41589.340277777781</v>
+      </c>
+      <c r="B100">
+        <v>243.48148148148101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>41589.34375</v>
+      </c>
+      <c r="B101">
+        <v>310.433333333333</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>41589.347222222219</v>
+      </c>
+      <c r="B102">
+        <v>233.53125</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>41589.350694444445</v>
+      </c>
+      <c r="B103">
+        <v>278.461538461538</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>41589.354166666664</v>
+      </c>
+      <c r="B104">
+        <v>396.09090909090901</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>41589.357638888891</v>
+      </c>
+      <c r="B105">
+        <v>434.51351351351298</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>41589.361111111109</v>
+      </c>
+      <c r="B106">
+        <v>453.441176470588</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>41589.364583333336</v>
+      </c>
+      <c r="B107">
+        <v>473.55555555555497</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>41589.368055555555</v>
+      </c>
+      <c r="B108">
+        <v>475.068965517241</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>41589.371527777781</v>
+      </c>
+      <c r="B109">
+        <v>279.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>41589.375</v>
+      </c>
+      <c r="B110">
+        <v>239.35483870967701</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>41589.378472222219</v>
+      </c>
+      <c r="B111">
+        <v>229.375</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>41589.381944444445</v>
+      </c>
+      <c r="B112">
+        <v>182.15151515151501</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>41589.385416666664</v>
+      </c>
+      <c r="B113">
+        <v>175.969696969696</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>41589.388888888891</v>
+      </c>
+      <c r="B114">
+        <v>249.923076923076</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>41589.392361111109</v>
+      </c>
+      <c r="B115">
+        <v>252.030303030303</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>41589.395833333336</v>
+      </c>
+      <c r="B116">
+        <v>258.75</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>41589.399305555555</v>
+      </c>
+      <c r="B117">
+        <v>252.8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>41589.402777777781</v>
+      </c>
+      <c r="B118">
+        <v>248.88461538461499</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>41589.40625</v>
+      </c>
+      <c r="B119">
+        <v>242.4375</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>41589.409722222219</v>
+      </c>
+      <c r="B120">
+        <v>228.07692307692301</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>41589.413194444445</v>
+      </c>
+      <c r="B121">
+        <v>230.157894736842</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>41589.416666666664</v>
+      </c>
+      <c r="B122">
+        <v>244.76923076923001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>41589.420138888891</v>
+      </c>
+      <c r="B123">
+        <v>251.04545454545399</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>41589.423611111109</v>
+      </c>
+      <c r="B124">
+        <v>250.21875</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>41589.427083333336</v>
+      </c>
+      <c r="B125">
+        <v>252.685714285714</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>41589.430555555555</v>
+      </c>
+      <c r="B126">
+        <v>257.918918918918</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>41589.434027777781</v>
+      </c>
+      <c r="B127">
+        <v>251.529411764705</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>41589.4375</v>
+      </c>
+      <c r="B128">
+        <v>249.46666666666599</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>41589.440972222219</v>
+      </c>
+      <c r="B129">
+        <v>252.07407407407399</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>41589.444444444445</v>
+      </c>
+      <c r="B130">
+        <v>257.21212121212102</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>41589.447916666664</v>
+      </c>
+      <c r="B131">
+        <v>243.642857142857</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>41589.451388888891</v>
+      </c>
+      <c r="B132">
+        <v>229.666666666666</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>41589.454861111109</v>
+      </c>
+      <c r="B133">
+        <v>229.55</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>41589.458333333336</v>
+      </c>
+      <c r="B134">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>41589.461805555555</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>41589.465277777781</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>41589.46875</v>
+      </c>
+      <c r="B137">
+        <v>256.35714285714198</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>41589.472222222219</v>
+      </c>
+      <c r="B138">
+        <v>252.53333333333299</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>41589.475694444445</v>
+      </c>
+      <c r="B139">
+        <v>183.470588235294</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>41589.479166666664</v>
+      </c>
+      <c r="B140">
+        <v>205.57692307692301</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>41589.482638888891</v>
+      </c>
+      <c r="B141">
+        <v>201.272727272727</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>41589.486111111109</v>
+      </c>
+      <c r="B142">
+        <v>211.3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>41589.489583333336</v>
+      </c>
+      <c r="B143">
+        <v>193.88571428571399</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>41589.493055555555</v>
+      </c>
+      <c r="B144">
+        <v>189.05405405405401</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>41589.496527777781</v>
+      </c>
+      <c r="B145">
+        <v>232.10344827586201</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>41589.5</v>
+      </c>
+      <c r="B146">
+        <v>227.888888888888</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>41589.503472222219</v>
+      </c>
+      <c r="B147">
+        <v>213.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>41589.506944444445</v>
+      </c>
+      <c r="B148">
+        <v>209.710526315789</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>41589.510416666664</v>
+      </c>
+      <c r="B149">
+        <v>236.18518518518499</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>41589.513888888891</v>
+      </c>
+      <c r="B150">
+        <v>292.67857142857099</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>41589.517361111109</v>
+      </c>
+      <c r="B151">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>41589.520833333336</v>
+      </c>
+      <c r="B152">
+        <v>257.434782608695</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>41589.524305555555</v>
+      </c>
+      <c r="B153">
+        <v>889.41935483870895</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>41589.527777777781</v>
+      </c>
+      <c r="B154">
+        <v>1150.05555555555</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>41589.53125</v>
+      </c>
+      <c r="B155">
+        <v>907.47619047619003</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>41589.534722222219</v>
+      </c>
+      <c r="B156">
+        <v>1096.51111111111</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>41589.538194444445</v>
+      </c>
+      <c r="B157">
+        <v>264.30434782608597</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>41589.541666666664</v>
+      </c>
+      <c r="B158">
+        <v>250.16129032257999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>41589.545138888891</v>
+      </c>
+      <c r="B159">
+        <v>276.41379310344797</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>41589.548611111109</v>
+      </c>
+      <c r="B160">
+        <v>271.0625</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>41589.552083333336</v>
+      </c>
+      <c r="B161">
+        <v>337.90909090909003</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>41589.555555555555</v>
+      </c>
+      <c r="B162">
+        <v>401.18918918918899</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>41589.559027777781</v>
+      </c>
+      <c r="B163">
+        <v>239.666666666666</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>41589.5625</v>
+      </c>
+      <c r="B164">
+        <v>254.53125</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>41589.565972222219</v>
+      </c>
+      <c r="B165">
+        <v>255.685714285714</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>41589.569444444445</v>
+      </c>
+      <c r="B166">
+        <v>256.55555555555497</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>41589.572916666664</v>
+      </c>
+      <c r="B167">
+        <v>261.666666666666</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>41589.576388888891</v>
+      </c>
+      <c r="B168">
+        <v>258.87096774193498</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>41589.579861111109</v>
+      </c>
+      <c r="B169">
+        <v>260.39393939393898</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>41589.583333333336</v>
+      </c>
+      <c r="B170">
+        <v>231.7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>41589.586805555555</v>
+      </c>
+      <c r="B171">
+        <v>211.17948717948701</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>41589.590277777781</v>
+      </c>
+      <c r="B172">
+        <v>376.972972972972</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>41589.59375</v>
+      </c>
+      <c r="B173">
+        <v>442.916666666666</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>41589.597222222219</v>
+      </c>
+      <c r="B174">
+        <v>452.309523809523</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>41589.600694444445</v>
+      </c>
+      <c r="B175">
+        <v>478.84</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>41589.604166666664</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>41589.607638888891</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>41589.611111111109</v>
+      </c>
+      <c r="B178">
+        <v>374.642857142857</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>41589.614583333336</v>
+      </c>
+      <c r="B179">
+        <v>376.04347826086899</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>41589.618055555555</v>
+      </c>
+      <c r="B180">
+        <v>397.6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>41589.621527777781</v>
+      </c>
+      <c r="B181">
+        <v>394.5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>41589.625</v>
+      </c>
+      <c r="B182">
+        <v>392.47058823529397</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>41589.628472222219</v>
+      </c>
+      <c r="B183">
+        <v>371.34285714285699</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>41589.631944444445</v>
+      </c>
+      <c r="B184">
+        <v>397.638888888888</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>41589.635416666664</v>
+      </c>
+      <c r="B185">
+        <v>378.42857142857099</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>41589.638888888891</v>
+      </c>
+      <c r="B186">
+        <v>477.8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>41589.642361111109</v>
+      </c>
+      <c r="B187">
+        <v>460.57894736842098</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>41589.645833333336</v>
+      </c>
+      <c r="B188">
+        <v>489.2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>41589.649305555555</v>
+      </c>
+      <c r="B189">
+        <v>480.44827586206799</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>41589.652777777781</v>
+      </c>
+      <c r="B190">
+        <v>554.17647058823502</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>41589.65625</v>
+      </c>
+      <c r="B191">
+        <v>477.586206896551</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>41589.659722222219</v>
+      </c>
+      <c r="B192">
+        <v>497.59459459459401</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>41589.663194444445</v>
+      </c>
+      <c r="B193">
+        <v>502.85714285714198</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>41589.666666666664</v>
+      </c>
+      <c r="B194">
+        <v>600.84615384615302</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>41589.670138888891</v>
+      </c>
+      <c r="B195">
+        <v>567.54838709677404</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>41589.673611111109</v>
+      </c>
+      <c r="B196">
+        <v>563.51851851851802</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>41589.677083333336</v>
+      </c>
+      <c r="B197">
+        <v>522.78787878787796</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>41589.680555555555</v>
+      </c>
+      <c r="B198">
+        <v>529.04999999999995</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>41589.684027777781</v>
+      </c>
+      <c r="B199">
+        <v>549.6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>41589.6875</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>41589.690972222219</v>
+      </c>
+      <c r="B201">
+        <v>428.986486486486</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <v>41589.694444444445</v>
+      </c>
+      <c r="B202">
+        <v>438.21739130434702</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <v>41589.697916666664</v>
+      </c>
+      <c r="B203">
+        <v>411.05714285714203</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <v>41589.701388888891</v>
+      </c>
+      <c r="B204">
+        <v>432.23809523809501</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <v>41589.704861111109</v>
+      </c>
+      <c r="B205">
+        <v>1198.1764705882299</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <v>41589.708333333336</v>
+      </c>
+      <c r="B206">
+        <v>1463.96551724137</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <v>41589.711805555555</v>
+      </c>
+      <c r="B207">
+        <v>589.71875</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <v>41589.715277777781</v>
+      </c>
+      <c r="B208">
+        <v>607.28125</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <v>41589.71875</v>
+      </c>
+      <c r="B209">
+        <v>563.87878787878697</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <v>41589.722222222219</v>
+      </c>
+      <c r="B210">
+        <v>587.11111111111097</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <v>41589.725694444445</v>
+      </c>
+      <c r="B211">
+        <v>543.16666666666595</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <v>41589.729166666664</v>
+      </c>
+      <c r="B212">
+        <v>540.51351351351298</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
+        <v>41589.732638888891</v>
+      </c>
+      <c r="B213">
+        <v>540.638888888888</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <v>41589.736111111109</v>
+      </c>
+      <c r="B214">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
+        <v>41589.739583333336</v>
+      </c>
+      <c r="B215">
+        <v>544.11428571428496</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
+        <v>41589.743055555555</v>
+      </c>
+      <c r="B216">
+        <v>536.82142857142799</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
+        <v>41589.746527777781</v>
+      </c>
+      <c r="B217">
+        <v>553.42105263157896</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
+        <v>41589.75</v>
+      </c>
+      <c r="B218">
+        <v>607.61538461538396</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
+        <v>41589.753472222219</v>
+      </c>
+      <c r="B219">
+        <v>585.93333333333305</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <v>41589.756944444445</v>
+      </c>
+      <c r="B220">
+        <v>551.85714285714198</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
+        <v>41589.760416666664</v>
+      </c>
+      <c r="B221">
+        <v>508.68181818181802</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <v>41589.763888888891</v>
+      </c>
+      <c r="B222">
+        <v>494.10714285714198</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <v>41589.767361111109</v>
+      </c>
+      <c r="B223">
+        <v>488.21875</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <v>41589.770833333336</v>
+      </c>
+      <c r="B224">
+        <v>492.33333333333297</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <v>41589.774305555555</v>
+      </c>
+      <c r="B225">
+        <v>489.32352941176401</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <v>41589.777777777781</v>
+      </c>
+      <c r="B226">
+        <v>744.25</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <v>41589.78125</v>
+      </c>
+      <c r="B227">
+        <v>564.23333333333301</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <v>41589.784722222219</v>
+      </c>
+      <c r="B228">
+        <v>635.06060606060601</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
+        <v>41589.788194444445</v>
+      </c>
+      <c r="B229">
+        <v>649.94117647058795</v>
+      </c>
+      <c r="C229">
+        <v>649.94117647058795</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
+        <v>41589.791666666664</v>
+      </c>
+      <c r="B230">
+        <v>627.04545454545405</v>
+      </c>
+      <c r="C230">
+        <v>3872.4476535821141</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <v>41589.795138888891</v>
+      </c>
+      <c r="B231">
+        <v>627.875</v>
+      </c>
+      <c r="C231">
+        <v>3875.78467604666</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
+        <v>41589.798611111109</v>
+      </c>
+      <c r="B232">
+        <v>878.46666666666601</v>
+      </c>
+      <c r="C232">
+        <v>4128.7251328699958</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
+        <v>41589.802083333336</v>
+      </c>
+      <c r="B233">
+        <v>2628.3636363636301</v>
+      </c>
+      <c r="C233">
+        <v>5880.8276172136202</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
+        <v>41589.805555555555</v>
+      </c>
+      <c r="B234">
+        <v>1337.7333333333299</v>
+      </c>
+      <c r="C234">
+        <v>4592.2730808599899</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
+        <v>41589.809027777781</v>
+      </c>
+      <c r="B235">
+        <v>1396.84375</v>
+      </c>
+      <c r="C235">
+        <v>4653.3414433766602</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <v>41589.8125</v>
+      </c>
+      <c r="B236">
+        <v>1036.85294117647</v>
+      </c>
+      <c r="C236">
+        <v>4295.2042924289499</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
+        <v>41589.815972222219</v>
+      </c>
+      <c r="B237">
+        <v>513.89189189189096</v>
+      </c>
+      <c r="C237">
+        <v>3774.0044076932109</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
+        <v>41589.819444444445</v>
+      </c>
+      <c r="B238">
+        <v>460.29032258064501</v>
+      </c>
+      <c r="C238">
+        <v>3722.0737115308048</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <v>41589.822916666664</v>
+      </c>
+      <c r="B239">
+        <v>509.25</v>
+      </c>
+      <c r="C239">
+        <v>3772.6214841125802</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
+        <v>41589.826388888891</v>
+      </c>
+      <c r="B240">
+        <v>496.76470588235202</v>
+      </c>
+      <c r="C240">
+        <v>3761.6484320916525</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <v>41589.829861111109</v>
+      </c>
+      <c r="B241">
+        <v>522.1875</v>
+      </c>
+      <c r="C241">
+        <v>3788.49281247098</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <v>41589.833333333336</v>
+      </c>
+      <c r="B242">
+        <v>491.13333333333298</v>
+      </c>
+      <c r="C242">
+        <v>3758.7954042633328</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <v>41589.836805555555</v>
+      </c>
+      <c r="B243">
+        <v>513.06060606060601</v>
+      </c>
+      <c r="C243">
+        <v>3782.0372867272658</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <v>41589.840277777781</v>
+      </c>
+      <c r="B244">
+        <v>546.72727272727195</v>
+      </c>
+      <c r="C244">
+        <v>3816.964475890602</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <v>41589.84375</v>
+      </c>
+      <c r="B245">
+        <v>569.03333333333296</v>
+      </c>
+      <c r="C245">
+        <v>3840.4811443399926</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <v>41589.847222222219</v>
+      </c>
+      <c r="B246">
+        <v>585.944444444444</v>
+      </c>
+      <c r="C246">
+        <v>3858.556779011104</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <v>41589.850694444445</v>
+      </c>
+      <c r="B247">
+        <v>678.91176470588198</v>
+      </c>
+      <c r="C247">
+        <v>3952.6460674492118</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
+        <v>41589.854166666664</v>
+      </c>
+      <c r="B248">
+        <v>695.20833333333303</v>
+      </c>
+      <c r="C248">
+        <v>3970.0253123733332</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
+        <v>41589.857638888891</v>
+      </c>
+      <c r="B249">
+        <v>713.125</v>
+      </c>
+      <c r="C249">
+        <v>3988.9883932733301</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
+        <v>41589.861111111109</v>
+      </c>
+      <c r="B250">
+        <v>717.58620689655095</v>
+      </c>
+      <c r="C250">
+        <v>3994.4625769932109</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
+        <v>41589.864583333336</v>
+      </c>
+      <c r="B251">
+        <v>707.66666666666595</v>
+      </c>
+      <c r="C251">
+        <v>3985.5252211399961</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
+        <v>41589.868055555555</v>
+      </c>
+      <c r="B252">
+        <v>648.27272727272702</v>
+      </c>
+      <c r="C252">
+        <v>3927.0851619027271</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="1">
+        <v>41589.871527777781</v>
+      </c>
+      <c r="B253">
+        <v>572.67857142857099</v>
+      </c>
+      <c r="C253">
+        <v>3852.4189346452313</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
+        <v>41589.875</v>
+      </c>
+      <c r="B254">
+        <v>562.20000000000005</v>
+      </c>
+      <c r="C254">
+        <v>3842.84457666666</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" s="1">
+        <v>41589.878472222219</v>
+      </c>
+      <c r="B255">
+        <v>498.93023255813898</v>
+      </c>
+      <c r="C255">
+        <v>3780.457446114799</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" s="1">
+        <v>41589.881944444445</v>
+      </c>
+      <c r="B256">
+        <v>490.55813953488303</v>
+      </c>
+      <c r="C256">
+        <v>3772.9484711515433</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" s="1">
+        <v>41589.885416666664</v>
+      </c>
+      <c r="B257">
+        <v>487.87179487179401</v>
+      </c>
+      <c r="C257">
+        <v>3771.107719168454</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" s="1">
+        <v>41589.888888888891</v>
+      </c>
+      <c r="B258">
+        <v>629.51612903225805</v>
+      </c>
+      <c r="C258">
+        <v>3913.5820659355882</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" s="1">
+        <v>41589.892361111109</v>
+      </c>
+      <c r="B259">
+        <v>583.51612903225805</v>
+      </c>
+      <c r="C259">
+        <v>3868.3984117655882</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="1">
+        <v>41589.895833333336</v>
+      </c>
+      <c r="B260">
+        <v>599.28571428571399</v>
+      </c>
+      <c r="C260">
+        <v>3884.972573699044</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
+        <v>41589.899305555555</v>
+      </c>
+      <c r="B261">
+        <v>590.21621621621603</v>
+      </c>
+      <c r="C261">
+        <v>3876.6977816828858</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
+        <v>41589.902777777781</v>
+      </c>
+      <c r="B262">
+        <v>582.9</v>
+      </c>
+      <c r="C262">
+        <v>3870.1683185133302</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
+        <v>41589.90625</v>
+      </c>
+      <c r="B263">
+        <v>557.75</v>
+      </c>
+      <c r="C263">
+        <v>3845.7990738266599</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
+        <v>41589.909722222219</v>
+      </c>
+      <c r="B264">
+        <v>553.59375</v>
+      </c>
+      <c r="C264">
+        <v>3842.4195958733299</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
+        <v>41589.913194444445</v>
+      </c>
+      <c r="B265">
+        <v>952.322580645161</v>
+      </c>
+      <c r="C265">
+        <v>4241.9233120918216</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
+        <v>41589.916666666664</v>
+      </c>
+      <c r="B266">
+        <v>2083.26470588235</v>
+      </c>
+      <c r="C266">
+        <v>5373.6406423890094</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
+        <v>41589.920138888891</v>
+      </c>
+      <c r="B267">
+        <v>500.28205128205099</v>
+      </c>
+      <c r="C267">
+        <v>3791.4358592653807</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
+        <v>41589.923611111109</v>
+      </c>
+      <c r="B268">
+        <v>498.27272727272702</v>
+      </c>
+      <c r="C268">
+        <v>3790.2095986027271</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="1">
+        <v>41589.927083333336</v>
+      </c>
+      <c r="B269">
+        <v>495.51515151515099</v>
+      </c>
+      <c r="C269">
+        <v>3788.2430289784811</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="1">
+        <v>41589.930555555555</v>
+      </c>
+      <c r="B270">
+        <v>583.04999999999995</v>
+      </c>
+      <c r="C270">
+        <v>3876.5798637600001</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="1">
+        <v>41589.934027777781</v>
+      </c>
+      <c r="B271">
+        <v>595.22222222222194</v>
+      </c>
+      <c r="C271">
+        <v>3889.5684595622215</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="1">
+        <v>41589.9375</v>
+      </c>
+      <c r="B272">
+        <v>573.25</v>
+      </c>
+      <c r="C272">
+        <v>3868.43089677333</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="1">
+        <v>41589.940972222219</v>
+      </c>
+      <c r="B273">
+        <v>590.30303030303003</v>
+      </c>
+      <c r="C273">
+        <v>3886.3414527196901</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" s="1">
+        <v>41589.944444444445</v>
+      </c>
+      <c r="B274">
+        <v>599.06451612903197</v>
+      </c>
+      <c r="C274">
+        <v>3895.9375208170022</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" s="1">
+        <v>41589.947916666664</v>
+      </c>
+      <c r="B275">
+        <v>620.27586206896501</v>
+      </c>
+      <c r="C275">
+        <v>620.27586206896501</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" s="1">
+        <v>41589.951388888891</v>
+      </c>
+      <c r="B276">
+        <v>529.09090909090901</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" s="1">
+        <v>41589.954861111109</v>
+      </c>
+      <c r="B277">
+        <v>542.605263157894</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="1">
+        <v>41589.958333333336</v>
+      </c>
+      <c r="B278">
+        <v>541.35135135135101</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="1">
+        <v>41589.961805555555</v>
+      </c>
+      <c r="B279">
+        <v>571.30303030303003</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" s="1">
+        <v>41589.965277777781</v>
+      </c>
+      <c r="B280">
+        <v>584.0625</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" s="1">
+        <v>41589.96875</v>
+      </c>
+      <c r="B281">
+        <v>564.54054054053995</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" s="1">
+        <v>41589.972222222219</v>
+      </c>
+      <c r="B282">
+        <v>527.21212121212102</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" s="1">
+        <v>41589.975694444445</v>
+      </c>
+      <c r="B283">
+        <v>542.51612903225805</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" s="1">
+        <v>41589.979166666664</v>
+      </c>
+      <c r="B284">
+        <v>487.675675675675</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" s="1">
+        <v>41589.982638888891</v>
+      </c>
+      <c r="B285">
+        <v>499.457142857142</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" s="1">
+        <v>41589.986111111109</v>
+      </c>
+      <c r="B286">
+        <v>478.827586206896</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" s="1">
+        <v>41589.989583333336</v>
+      </c>
+      <c r="B287">
+        <v>479.969696969697</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" s="1">
+        <v>41589.993055555555</v>
+      </c>
+      <c r="B288">
+        <v>523.44117647058795</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" s="1">
+        <v>41589.996527777781</v>
+      </c>
+      <c r="B289">
+        <v>566.43333333333305</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/test_plots.xlsx
+++ b/test_plots.xlsx
@@ -8,14 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koeboonshyang/Documents/GitHub/MEng-V2I/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA23EEA1-03C8-A14A-96AB-5F042C14675C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6CEE34-C6E7-DA4C-9E3F-9497F9F26B30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="1580" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{9E8C8AD0-C6A1-2947-A0F7-CABF9596D166}"/>
+    <workbookView xWindow="-30880" yWindow="-620" windowWidth="27640" windowHeight="16940" xr2:uid="{9E8C8AD0-C6A1-2947-A0F7-CABF9596D166}"/>
   </bookViews>
   <sheets>
     <sheet name="1min_house1" sheetId="1" r:id="rId1"/>
     <sheet name="5min_house1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'1min_house1'!$A$2:$A$1441</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'1min_house1'!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'1min_house1'!$B$2:$B$1441</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'1min_house1'!$C$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'1min_house1'!$C$2:$C$1441</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'1min_house1'!$A$2:$A$1441</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'1min_house1'!$B$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'1min_house1'!$B$2:$B$1441</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'1min_house1'!$C$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'1min_house1'!$C$2:$C$1441</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -79,9 +91,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -203,19 +216,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -8780,19 +8781,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -13133,682 +13122,904 @@
                   <c:v>602.28571428571399</c:v>
                 </c:pt>
                 <c:pt idx="1140">
-                  <c:v>3845.3582598666599</c:v>
+                  <c:v>4098.7735291499994</c:v>
                 </c:pt>
                 <c:pt idx="1141">
-                  <c:v>3842.6373466666601</c:v>
+                  <c:v>4095.9746353333298</c:v>
                 </c:pt>
                 <c:pt idx="1142">
-                  <c:v>3887.0759069499959</c:v>
+                  <c:v>4140.3370566999956</c:v>
                 </c:pt>
                 <c:pt idx="1143">
-                  <c:v>3888.9240935166599</c:v>
+                  <c:v>4142.1108955833297</c:v>
                 </c:pt>
                 <c:pt idx="1144">
-                  <c:v>3890.93205485</c:v>
+                  <c:v>4144.0462512499998</c:v>
                 </c:pt>
                 <c:pt idx="1145">
-                  <c:v>3890.3332689500003</c:v>
+                  <c:v>4143.3765543833297</c:v>
                 </c:pt>
                 <c:pt idx="1146">
-                  <c:v>3899.6778762333302</c:v>
+                  <c:v>4152.6518999</c:v>
                 </c:pt>
                 <c:pt idx="1147">
-                  <c:v>3900.0588707261868</c:v>
+                  <c:v>4152.965237692857</c:v>
                 </c:pt>
                 <c:pt idx="1148">
-                  <c:v>3840.3978141166599</c:v>
+                  <c:v>4093.2380861833299</c:v>
                 </c:pt>
                 <c:pt idx="1149">
-                  <c:v>3839.37340734999</c:v>
+                  <c:v>4092.1491053999998</c:v>
                 </c:pt>
                 <c:pt idx="1150">
-                  <c:v>3793.7714909452311</c:v>
+                  <c:v>4046.4840959785611</c:v>
                 </c:pt>
                 <c:pt idx="1151">
-                  <c:v>3793.9731401499962</c:v>
+                  <c:v>4046.6240941166661</c:v>
                 </c:pt>
                 <c:pt idx="1152">
-                  <c:v>3833.5141887499899</c:v>
+                  <c:v>4086.1048966333301</c:v>
                 </c:pt>
                 <c:pt idx="1153">
-                  <c:v>3842.5161822</c:v>
+                  <c:v>4095.0480122833296</c:v>
                 </c:pt>
                 <c:pt idx="1154">
-                  <c:v>6164.4125670666599</c:v>
+                  <c:v>6416.8868534333305</c:v>
                 </c:pt>
                 <c:pt idx="1155">
-                  <c:v>6913.6034541333302</c:v>
+                  <c:v>7166.0214961500005</c:v>
                 </c:pt>
                 <c:pt idx="1156">
-                  <c:v>6930.4675226785603</c:v>
+                  <c:v>7182.8305874785701</c:v>
                 </c:pt>
                 <c:pt idx="1157">
-                  <c:v>5716.7191635833296</c:v>
+                  <c:v>5969.0284861500004</c:v>
                 </c:pt>
                 <c:pt idx="1158">
-                  <c:v>5141.4656223214197</c:v>
+                  <c:v>5393.7224068047499</c:v>
                 </c:pt>
                 <c:pt idx="1159">
-                  <c:v>5168.3141415333303</c:v>
+                  <c:v>5420.5195626499999</c:v>
                 </c:pt>
                 <c:pt idx="1160">
-                  <c:v>4387.3957711499897</c:v>
+                  <c:v>4639.5509745666595</c:v>
                 </c:pt>
                 <c:pt idx="1161">
-                  <c:v>4218.6391778500001</c:v>
+                  <c:v>4470.7452812166594</c:v>
                 </c:pt>
                 <c:pt idx="1162">
-                  <c:v>4707.7944542499999</c:v>
+                  <c:v>4959.8525479833297</c:v>
                 </c:pt>
                 <c:pt idx="1163">
-                  <c:v>4841.9450243833298</c:v>
+                  <c:v>5093.9561728333301</c:v>
                 </c:pt>
                 <c:pt idx="1164">
-                  <c:v>4594.7695480952298</c:v>
+                  <c:v>4846.7347899119004</c:v>
                 </c:pt>
                 <c:pt idx="1165">
-                  <c:v>4726.4823973999901</c:v>
+                  <c:v>4978.4027465999998</c:v>
                 </c:pt>
                 <c:pt idx="1166">
-                  <c:v>4874.6907991380804</c:v>
+                  <c:v>5126.5672458380805</c:v>
                 </c:pt>
                 <c:pt idx="1167">
-                  <c:v>4705.8019785166598</c:v>
+                  <c:v>4957.6354896666599</c:v>
                 </c:pt>
                 <c:pt idx="1168">
-                  <c:v>4295.7374446737995</c:v>
+                  <c:v>4547.5289644404693</c:v>
                 </c:pt>
                 <c:pt idx="1169">
-                  <c:v>4687.5044185833303</c:v>
+                  <c:v>4939.2548695666601</c:v>
                 </c:pt>
                 <c:pt idx="1170">
-                  <c:v>4683.2494056666601</c:v>
+                  <c:v>4934.9596889833301</c:v>
                 </c:pt>
                 <c:pt idx="1171">
-                  <c:v>3930.3903379666599</c:v>
+                  <c:v>4182.0613343499999</c:v>
                 </c:pt>
                 <c:pt idx="1172">
-                  <c:v>4656.1052828524498</c:v>
+                  <c:v>4907.7348586833305</c:v>
                 </c:pt>
                 <c:pt idx="1173">
-                  <c:v>4239.7162636499907</c:v>
+                  <c:v>4491.3053141999999</c:v>
                 </c:pt>
                 <c:pt idx="1174">
-                  <c:v>3763.5704006000001</c:v>
+                  <c:v>4015.1227520999901</c:v>
                 </c:pt>
                 <c:pt idx="1175">
-                  <c:v>3763.6458878779522</c:v>
+                  <c:v>4015.1594445388823</c:v>
                 </c:pt>
                 <c:pt idx="1176">
-                  <c:v>3762.8842869111008</c:v>
+                  <c:v>4014.3598851444408</c:v>
                 </c:pt>
                 <c:pt idx="1177">
-                  <c:v>3833.4018537190441</c:v>
+                  <c:v>4084.8431695857043</c:v>
                 </c:pt>
                 <c:pt idx="1178">
-                  <c:v>3845.85833804917</c:v>
+                  <c:v>4097.2633135833303</c:v>
                 </c:pt>
                 <c:pt idx="1179">
-                  <c:v>3690.511262914285</c:v>
+                  <c:v>3941.8806806642847</c:v>
                 </c:pt>
                 <c:pt idx="1180">
-                  <c:v>3690.462682649993</c:v>
+                  <c:v>3941.800078249993</c:v>
                 </c:pt>
                 <c:pt idx="1181">
-                  <c:v>3689.8869037785612</c:v>
+                  <c:v>3941.192979411901</c:v>
                 </c:pt>
                 <c:pt idx="1182">
-                  <c:v>3690.2866801311402</c:v>
+                  <c:v>3941.55942781666</c:v>
                 </c:pt>
                 <c:pt idx="1183">
-                  <c:v>3731.8617096166599</c:v>
+                  <c:v>3983.1018474166599</c:v>
                 </c:pt>
                 <c:pt idx="1184">
-                  <c:v>3792.9308184833299</c:v>
+                  <c:v>4044.14170888333</c:v>
                 </c:pt>
                 <c:pt idx="1185">
-                  <c:v>3788.6243814754098</c:v>
+                  <c:v>4039.8040534833299</c:v>
                 </c:pt>
                 <c:pt idx="1186">
-                  <c:v>3786.4647940333302</c:v>
+                  <c:v>4037.61392176666</c:v>
                 </c:pt>
                 <c:pt idx="1187">
-                  <c:v>3786.3745286333301</c:v>
+                  <c:v>4037.4963536833302</c:v>
                 </c:pt>
                 <c:pt idx="1188">
-                  <c:v>3737.4338002622899</c:v>
+                  <c:v>3988.52638833333</c:v>
                 </c:pt>
                 <c:pt idx="1189">
-                  <c:v>3740.5615078380879</c:v>
+                  <c:v>3991.6254923880879</c:v>
                 </c:pt>
                 <c:pt idx="1190">
-                  <c:v>3750.29090884999</c:v>
+                  <c:v>4001.3294182499899</c:v>
                 </c:pt>
                 <c:pt idx="1191">
-                  <c:v>3755.1627813419182</c:v>
+                  <c:v>4006.173916988088</c:v>
                 </c:pt>
                 <c:pt idx="1192">
-                  <c:v>3751.76395226666</c:v>
+                  <c:v>4002.7483109833302</c:v>
                 </c:pt>
                 <c:pt idx="1193">
-                  <c:v>3758.6098897619013</c:v>
+                  <c:v>4009.5704928952309</c:v>
                 </c:pt>
                 <c:pt idx="1194">
-                  <c:v>3820.2209717166602</c:v>
+                  <c:v>4071.1583550666601</c:v>
                 </c:pt>
                 <c:pt idx="1195">
-                  <c:v>3821.6174768079618</c:v>
+                  <c:v>4072.5297894738023</c:v>
                 </c:pt>
                 <c:pt idx="1196">
-                  <c:v>3823.0470359000001</c:v>
+                  <c:v>4073.93482991666</c:v>
                 </c:pt>
                 <c:pt idx="1197">
-                  <c:v>3777.9287735333301</c:v>
+                  <c:v>4028.7949381666599</c:v>
                 </c:pt>
                 <c:pt idx="1198">
-                  <c:v>3749.61028570491</c:v>
+                  <c:v>4000.45300441666</c:v>
                 </c:pt>
                 <c:pt idx="1199">
-                  <c:v>3759.0908533790821</c:v>
+                  <c:v>4009.9312832722221</c:v>
                 </c:pt>
                 <c:pt idx="1200">
-                  <c:v>3764.2336078444409</c:v>
+                  <c:v>4015.074250677771</c:v>
                 </c:pt>
                 <c:pt idx="1201">
-                  <c:v>3765.6446469666598</c:v>
+                  <c:v>4016.46527171666</c:v>
                 </c:pt>
                 <c:pt idx="1202">
-                  <c:v>3725.6644149666599</c:v>
+                  <c:v>3976.4654877333301</c:v>
                 </c:pt>
                 <c:pt idx="1203">
-                  <c:v>3752.5032675714278</c:v>
+                  <c:v>4003.2852467047578</c:v>
                 </c:pt>
                 <c:pt idx="1204">
-                  <c:v>3775.363623649996</c:v>
+                  <c:v>4026.1269592499962</c:v>
                 </c:pt>
                 <c:pt idx="1205">
-                  <c:v>3773.1740917976149</c:v>
+                  <c:v>4023.9192262809447</c:v>
                 </c:pt>
                 <c:pt idx="1206">
-                  <c:v>3777.7204227000002</c:v>
+                  <c:v>4028.4477908666599</c:v>
                 </c:pt>
                 <c:pt idx="1207">
-                  <c:v>3786.97884241666</c:v>
+                  <c:v>4037.6888718999999</c:v>
                 </c:pt>
                 <c:pt idx="1208">
-                  <c:v>3787.7351005666601</c:v>
+                  <c:v>4038.4282116833301</c:v>
                 </c:pt>
                 <c:pt idx="1209">
-                  <c:v>3782.7392315666598</c:v>
+                  <c:v>4033.4158377499898</c:v>
                 </c:pt>
                 <c:pt idx="1210">
-                  <c:v>3780.99126946666</c:v>
+                  <c:v>4031.6517773833302</c:v>
                 </c:pt>
                 <c:pt idx="1211">
-                  <c:v>3781.7912474</c:v>
+                  <c:v>4032.4360571833304</c:v>
                 </c:pt>
                 <c:pt idx="1212">
-                  <c:v>3794.63919813333</c:v>
+                  <c:v>4045.2687036666603</c:v>
                 </c:pt>
                 <c:pt idx="1213">
-                  <c:v>3891.4851540833301</c:v>
+                  <c:v>4142.0997425999994</c:v>
                 </c:pt>
                 <c:pt idx="1214">
-                  <c:v>3892.0624800666628</c:v>
+                  <c:v>4142.662533316663</c:v>
                 </c:pt>
                 <c:pt idx="1215">
-                  <c:v>3886.77120703333</c:v>
+                  <c:v>4137.3571006499997</c:v>
                 </c:pt>
                 <c:pt idx="1216">
-                  <c:v>3885.7669213388854</c:v>
+                  <c:v>4136.3390254222149</c:v>
                 </c:pt>
                 <c:pt idx="1217">
-                  <c:v>3801.9496530666602</c:v>
+                  <c:v>4052.50833194999</c:v>
                 </c:pt>
                 <c:pt idx="1218">
-                  <c:v>3802.6860982666599</c:v>
+                  <c:v>4053.2317112833298</c:v>
                 </c:pt>
                 <c:pt idx="1219">
-                  <c:v>3798.7957308833302</c:v>
+                  <c:v>4049.3286317000002</c:v>
                 </c:pt>
                 <c:pt idx="1220">
-                  <c:v>3799.4035791666602</c:v>
+                  <c:v>4049.9241168666599</c:v>
                 </c:pt>
                 <c:pt idx="1221">
-                  <c:v>3801.940227088885</c:v>
+                  <c:v>4052.4487456055549</c:v>
                 </c:pt>
                 <c:pt idx="1222">
-                  <c:v>3829.6140356000001</c:v>
+                  <c:v>4080.1108741333301</c:v>
                 </c:pt>
                 <c:pt idx="1223">
-                  <c:v>3920.5916987000001</c:v>
+                  <c:v>4171.07719203333</c:v>
                 </c:pt>
                 <c:pt idx="1224">
-                  <c:v>3927.4962592619013</c:v>
+                  <c:v>4177.9707373452311</c:v>
                 </c:pt>
                 <c:pt idx="1225">
-                  <c:v>3931.7920293166599</c:v>
+                  <c:v>4182.2558181999993</c:v>
                 </c:pt>
                 <c:pt idx="1226">
-                  <c:v>3985.2647492666601</c:v>
+                  <c:v>4235.7181703833303</c:v>
                 </c:pt>
                 <c:pt idx="1227">
-                  <c:v>3946.5930162238019</c:v>
+                  <c:v>4197.0363872571415</c:v>
                 </c:pt>
                 <c:pt idx="1228">
-                  <c:v>3941.2054269166601</c:v>
+                  <c:v>4191.6390615499895</c:v>
                 </c:pt>
                 <c:pt idx="1229">
-                  <c:v>3951.602006278571</c:v>
+                  <c:v>4202.0262140452305</c:v>
                 </c:pt>
                 <c:pt idx="1230">
-                  <c:v>3947.3899216999998</c:v>
+                  <c:v>4197.8050089666594</c:v>
                 </c:pt>
                 <c:pt idx="1231">
-                  <c:v>3945.6049116499898</c:v>
+                  <c:v>4196.0111808499896</c:v>
                 </c:pt>
                 <c:pt idx="1232">
-                  <c:v>3941.1184286166599</c:v>
+                  <c:v>4191.5161788333298</c:v>
                 </c:pt>
                 <c:pt idx="1233">
-                  <c:v>4000.13049603333</c:v>
+                  <c:v>4250.5200231999997</c:v>
                 </c:pt>
                 <c:pt idx="1234">
-                  <c:v>4011.4411372000004</c:v>
+                  <c:v>4261.8227338333299</c:v>
                 </c:pt>
                 <c:pt idx="1235">
-                  <c:v>4010.7003748666598</c:v>
+                  <c:v>4261.07433043333</c:v>
                 </c:pt>
                 <c:pt idx="1236">
-                  <c:v>3996.40823173333</c:v>
+                  <c:v>4246.7748326666606</c:v>
                 </c:pt>
                 <c:pt idx="1237">
-                  <c:v>3985.86472996666</c:v>
+                  <c:v>4236.2242598999901</c:v>
                 </c:pt>
                 <c:pt idx="1238">
-                  <c:v>3984.6413201047581</c:v>
+                  <c:v>4234.9940599214278</c:v>
                 </c:pt>
                 <c:pt idx="1239">
-                  <c:v>3982.87373826666</c:v>
+                  <c:v>4233.2199660666602</c:v>
                 </c:pt>
                 <c:pt idx="1240">
-                  <c:v>3980.3096245999932</c:v>
+                  <c:v>4230.6496161166633</c:v>
                 </c:pt>
                 <c:pt idx="1241">
-                  <c:v>3982.2490005380878</c:v>
+                  <c:v>4232.5830288380876</c:v>
                 </c:pt>
                 <c:pt idx="1242">
-                  <c:v>3976.5918868142849</c:v>
+                  <c:v>4226.9202226309453</c:v>
                 </c:pt>
                 <c:pt idx="1243">
-                  <c:v>4019.8263993166602</c:v>
+                  <c:v>4270.1493112833305</c:v>
                 </c:pt>
                 <c:pt idx="1244">
-                  <c:v>4033.0739868333303</c:v>
+                  <c:v>4283.3917414833304</c:v>
                 </c:pt>
                 <c:pt idx="1245">
-                  <c:v>4030.7560982190444</c:v>
+                  <c:v>4281.0689598857043</c:v>
                 </c:pt>
                 <c:pt idx="1246">
-                  <c:v>3977.094181945231</c:v>
+                  <c:v>4227.4024128452311</c:v>
                 </c:pt>
                 <c:pt idx="1247">
-                  <c:v>3976.6096859833301</c:v>
+                  <c:v>4226.9135468833301</c:v>
                 </c:pt>
                 <c:pt idx="1248">
-                  <c:v>3979.4812015619009</c:v>
+                  <c:v>4229.7809510952311</c:v>
                 </c:pt>
                 <c:pt idx="1249">
-                  <c:v>3949.2444617999899</c:v>
+                  <c:v>4199.54035738333</c:v>
                 </c:pt>
                 <c:pt idx="1250">
-                  <c:v>3915.1852002333299</c:v>
+                  <c:v>4165.4774972833302</c:v>
                 </c:pt>
                 <c:pt idx="1251">
-                  <c:v>3914.3391498809447</c:v>
+                  <c:v>4164.6281022809453</c:v>
                 </c:pt>
                 <c:pt idx="1252">
-                  <c:v>3916.5634721666602</c:v>
+                  <c:v>4166.8493329333305</c:v>
                 </c:pt>
                 <c:pt idx="1253">
-                  <c:v>3963.6677093999961</c:v>
+                  <c:v>4213.9507297166656</c:v>
                 </c:pt>
                 <c:pt idx="1254">
-                  <c:v>3927.9375938499902</c:v>
+                  <c:v>4178.2180240999896</c:v>
                 </c:pt>
                 <c:pt idx="1255">
-                  <c:v>3901.8731438499999</c:v>
+                  <c:v>4152.15123305</c:v>
                 </c:pt>
                 <c:pt idx="1256">
-                  <c:v>3834.8077104833301</c:v>
+                  <c:v>4085.08370691666</c:v>
                 </c:pt>
                 <c:pt idx="1257">
-                  <c:v>3828.3413114166601</c:v>
+                  <c:v>4078.6154620833299</c:v>
                 </c:pt>
                 <c:pt idx="1258">
-                  <c:v>3832.17396411666</c:v>
+                  <c:v>4082.4465155500002</c:v>
                 </c:pt>
                 <c:pt idx="1259">
-                  <c:v>3834.6771147880881</c:v>
+                  <c:v>4084.9483123880882</c:v>
                 </c:pt>
                 <c:pt idx="1260">
-                  <c:v>3828.6614946833301</c:v>
+                  <c:v>4078.9315835833299</c:v>
                 </c:pt>
                 <c:pt idx="1261">
-                  <c:v>3828.7521210523737</c:v>
+                  <c:v>4079.0213455190442</c:v>
                 </c:pt>
                 <c:pt idx="1262">
-                  <c:v>3816.2168679214178</c:v>
+                  <c:v>4066.485471904758</c:v>
                 </c:pt>
                 <c:pt idx="1263">
-                  <c:v>3854.2521807285611</c:v>
+                  <c:v>4104.5204078119004</c:v>
                 </c:pt>
                 <c:pt idx="1264">
-                  <c:v>3895.8342665666632</c:v>
+                  <c:v>4146.1023598666634</c:v>
                 </c:pt>
                 <c:pt idx="1265">
-                  <c:v>3848.1774276833298</c:v>
+                  <c:v>4098.4456304833302</c:v>
                 </c:pt>
                 <c:pt idx="1266">
-                  <c:v>3760.4959662928468</c:v>
+                  <c:v>4010.7645214928471</c:v>
                 </c:pt>
                 <c:pt idx="1267">
-                  <c:v>3758.6708511761867</c:v>
+                  <c:v>4008.940001442857</c:v>
                 </c:pt>
                 <c:pt idx="1268">
-                  <c:v>3760.9243206722222</c:v>
+                  <c:v>4011.1943093222121</c:v>
                 </c:pt>
                 <c:pt idx="1269">
-                  <c:v>3759.5754384666598</c:v>
+                  <c:v>4009.8465085499997</c:v>
                 </c:pt>
                 <c:pt idx="1270">
-                  <c:v>3759.8480302333301</c:v>
+                  <c:v>4010.1204253666601</c:v>
                 </c:pt>
                 <c:pt idx="1271">
-                  <c:v>3761.2198896166601</c:v>
+                  <c:v>4011.4938535166598</c:v>
                 </c:pt>
                 <c:pt idx="1272">
-                  <c:v>3762.279921222218</c:v>
+                  <c:v>4012.5556983222177</c:v>
                 </c:pt>
                 <c:pt idx="1273">
-                  <c:v>3785.9900458952311</c:v>
+                  <c:v>4036.2678806119011</c:v>
                 </c:pt>
                 <c:pt idx="1274">
-                  <c:v>3808.8740885761868</c:v>
+                  <c:v>4059.154226776187</c:v>
                 </c:pt>
                 <c:pt idx="1275">
-                  <c:v>3808.6146045809451</c:v>
+                  <c:v>4058.8972923976148</c:v>
                 </c:pt>
                 <c:pt idx="1276">
-                  <c:v>3767.3187523166598</c:v>
+                  <c:v>4017.6042367666601</c:v>
                 </c:pt>
                 <c:pt idx="1277">
-                  <c:v>3761.9508330476147</c:v>
+                  <c:v>4012.2393619976147</c:v>
                 </c:pt>
                 <c:pt idx="1278">
-                  <c:v>3760.9037193333302</c:v>
+                  <c:v>4011.1955421500002</c:v>
                 </c:pt>
                 <c:pt idx="1279">
-                  <c:v>3761.7131407761867</c:v>
+                  <c:v>4012.008507492857</c:v>
                 </c:pt>
                 <c:pt idx="1280">
-                  <c:v>3777.9862555333302</c:v>
+                  <c:v>4028.2854176999899</c:v>
                 </c:pt>
                 <c:pt idx="1281">
-                  <c:v>3832.5266504666602</c:v>
+                  <c:v>4082.8298608166601</c:v>
                 </c:pt>
                 <c:pt idx="1282">
-                  <c:v>3992.3521977690443</c:v>
+                  <c:v>4242.6597107690441</c:v>
                 </c:pt>
                 <c:pt idx="1283">
-                  <c:v>4035.4307700166601</c:v>
+                  <c:v>4285.74284145</c:v>
                 </c:pt>
                 <c:pt idx="1284">
-                  <c:v>3917.9659535880878</c:v>
+                  <c:v>4168.2828409880876</c:v>
                 </c:pt>
                 <c:pt idx="1285">
-                  <c:v>3905.5577638333298</c:v>
+                  <c:v>4155.8797267499995</c:v>
                 </c:pt>
                 <c:pt idx="1286">
-                  <c:v>3845.9205016333299</c:v>
+                  <c:v>4096.2478012000001</c:v>
                 </c:pt>
                 <c:pt idx="1287">
-                  <c:v>3830.5970392142749</c:v>
+                  <c:v>4080.9299386642847</c:v>
                 </c:pt>
                 <c:pt idx="1288">
-                  <c:v>3873.4731060452309</c:v>
+                  <c:v>4123.811871061901</c:v>
                 </c:pt>
                 <c:pt idx="1289">
-                  <c:v>3879.2058600833302</c:v>
+                  <c:v>4129.55075843333</c:v>
                 </c:pt>
                 <c:pt idx="1290">
-                  <c:v>3876.2238879404722</c:v>
+                  <c:v>4126.5751897404716</c:v>
                 </c:pt>
                 <c:pt idx="1291">
-                  <c:v>3873.9272047333302</c:v>
+                  <c:v>4124.2851827833301</c:v>
                 </c:pt>
                 <c:pt idx="1292">
-                  <c:v>3867.9372543166601</c:v>
+                  <c:v>4118.3021840166602</c:v>
                 </c:pt>
                 <c:pt idx="1293">
-                  <c:v>3866.2754803952312</c:v>
+                  <c:v>4116.6476399619005</c:v>
                 </c:pt>
                 <c:pt idx="1294">
-                  <c:v>3933.00618396666</c:v>
+                  <c:v>4183.3858545333296</c:v>
                 </c:pt>
                 <c:pt idx="1295">
-                  <c:v>3936.4508087523736</c:v>
+                  <c:v>4186.8382745357139</c:v>
                 </c:pt>
                 <c:pt idx="1296">
-                  <c:v>3871.6093702690441</c:v>
+                  <c:v>4122.0049187357135</c:v>
                 </c:pt>
                 <c:pt idx="1297">
-                  <c:v>3860.053312354758</c:v>
+                  <c:v>4110.4572344047574</c:v>
                 </c:pt>
                 <c:pt idx="1298">
-                  <c:v>3857.8897932499999</c:v>
+                  <c:v>4108.3023831833307</c:v>
                 </c:pt>
                 <c:pt idx="1299">
-                  <c:v>3862.2973998500001</c:v>
+                  <c:v>4112.7189558833306</c:v>
                 </c:pt>
                 <c:pt idx="1300">
-                  <c:v>3855.3547192666601</c:v>
+                  <c:v>4105.7855430999998</c:v>
                 </c:pt>
                 <c:pt idx="1301">
-                  <c:v>3856.8617669833302</c:v>
+                  <c:v>4107.3021647333298</c:v>
                 </c:pt>
                 <c:pt idx="1302">
-                  <c:v>3854.1257014904722</c:v>
+                  <c:v>4104.5759833071415</c:v>
                 </c:pt>
                 <c:pt idx="1303">
-                  <c:v>3864.9965388214182</c:v>
+                  <c:v>4115.4570190880877</c:v>
                 </c:pt>
                 <c:pt idx="1304">
-                  <c:v>3909.7242945761868</c:v>
+                  <c:v>4160.1952925428568</c:v>
                 </c:pt>
                 <c:pt idx="1305">
-                  <c:v>3911.5708895833332</c:v>
+                  <c:v>4162.0527291833332</c:v>
                 </c:pt>
                 <c:pt idx="1306">
-                  <c:v>3851.6434829499899</c:v>
+                  <c:v>4102.1364927499999</c:v>
                 </c:pt>
                 <c:pt idx="1307">
-                  <c:v>3817.0492335499998</c:v>
+                  <c:v>4067.5537475166602</c:v>
                 </c:pt>
                 <c:pt idx="1308">
-                  <c:v>3814.2048244166599</c:v>
+                  <c:v>4064.7211819833301</c:v>
                 </c:pt>
                 <c:pt idx="1309">
-                  <c:v>3815.8602719666601</c:v>
+                  <c:v>4066.38881806666</c:v>
                 </c:pt>
                 <c:pt idx="1310">
-                  <c:v>3815.5155928999998</c:v>
+                  <c:v>4066.05667813333</c:v>
                 </c:pt>
                 <c:pt idx="1311">
-                  <c:v>3816.4208039166601</c:v>
+                  <c:v>4066.9747850333301</c:v>
                 </c:pt>
                 <c:pt idx="1312">
-                  <c:v>3816.3259218333301</c:v>
+                  <c:v>4066.8931619833302</c:v>
                 </c:pt>
                 <c:pt idx="1313">
-                  <c:v>3829.8698526555481</c:v>
+                  <c:v>4080.4507213888883</c:v>
                 </c:pt>
                 <c:pt idx="1314">
-                  <c:v>3888.2359469499997</c:v>
+                  <c:v>4138.8308207666605</c:v>
                 </c:pt>
                 <c:pt idx="1315">
-                  <c:v>3890.7194603619009</c:v>
+                  <c:v>4141.3287227285709</c:v>
                 </c:pt>
                 <c:pt idx="1316">
-                  <c:v>3847.7315212857038</c:v>
+                  <c:v>4098.3555633190435</c:v>
                 </c:pt>
                 <c:pt idx="1317">
-                  <c:v>3818.6007193166602</c:v>
+                  <c:v>4069.2399394833301</c:v>
                 </c:pt>
                 <c:pt idx="1318">
-                  <c:v>3815.25564359999</c:v>
+                  <c:v>4065.9104487999898</c:v>
                 </c:pt>
                 <c:pt idx="1319">
-                  <c:v>6303.9105983833306</c:v>
+                  <c:v>6554.5814036166594</c:v>
                 </c:pt>
                 <c:pt idx="1320">
-                  <c:v>6908.0656018833306</c:v>
+                  <c:v>7158.75283103333</c:v>
                 </c:pt>
                 <c:pt idx="1321">
-                  <c:v>6930.4706729166601</c:v>
+                  <c:v>7181.1747591000003</c:v>
                 </c:pt>
                 <c:pt idx="1322">
-                  <c:v>5896.0424972999899</c:v>
+                  <c:v>6146.7638826333205</c:v>
                 </c:pt>
                 <c:pt idx="1323">
-                  <c:v>3821.8644274666631</c:v>
+                  <c:v>4072.6035645333332</c:v>
                 </c:pt>
                 <c:pt idx="1324">
-                  <c:v>3839.3531496333262</c:v>
+                  <c:v>4090.1105014833261</c:v>
                 </c:pt>
                 <c:pt idx="1325">
-                  <c:v>3844.4134454214181</c:v>
+                  <c:v>4095.1894856880881</c:v>
                 </c:pt>
                 <c:pt idx="1326">
-                  <c:v>3806.9977162</c:v>
+                  <c:v>4057.79292986666</c:v>
                 </c:pt>
                 <c:pt idx="1327">
-                  <c:v>3770.40360136666</c:v>
+                  <c:v>4021.2184855999999</c:v>
                 </c:pt>
                 <c:pt idx="1328">
-                  <c:v>3770.1985818888879</c:v>
+                  <c:v>4021.0336465555483</c:v>
                 </c:pt>
                 <c:pt idx="1329">
-                  <c:v>3772.037441071428</c:v>
+                  <c:v>4022.8932088047582</c:v>
                 </c:pt>
                 <c:pt idx="1330">
-                  <c:v>3772.6225813166602</c:v>
+                  <c:v>4023.49958893333</c:v>
                 </c:pt>
                 <c:pt idx="1331">
-                  <c:v>3771.5294212499898</c:v>
+                  <c:v>4022.4282201833298</c:v>
                 </c:pt>
                 <c:pt idx="1332">
-                  <c:v>3774.9365548999999</c:v>
+                  <c:v>4025.8577118499902</c:v>
                 </c:pt>
                 <c:pt idx="1333">
-                  <c:v>3776.6495603888852</c:v>
+                  <c:v>4027.593658722215</c:v>
                 </c:pt>
                 <c:pt idx="1334">
-                  <c:v>3832.0295721277671</c:v>
+                  <c:v>4082.9972120444368</c:v>
                 </c:pt>
                 <c:pt idx="1335">
-                  <c:v>3824.0099471999997</c:v>
+                  <c:v>4075.0017476499997</c:v>
                 </c:pt>
                 <c:pt idx="1336">
-                  <c:v>3814.1399159714178</c:v>
+                  <c:v>4065.1565154547579</c:v>
                 </c:pt>
                 <c:pt idx="1337">
-                  <c:v>3771.97743986666</c:v>
+                  <c:v>4023.01949726666</c:v>
                 </c:pt>
                 <c:pt idx="1338">
-                  <c:v>3770.6368297833301</c:v>
+                  <c:v>4021.7050263000001</c:v>
                 </c:pt>
                 <c:pt idx="1339">
-                  <c:v>3770.4466830666602</c:v>
+                  <c:v>4021.54172368333</c:v>
                 </c:pt>
                 <c:pt idx="1340">
-                  <c:v>3873.45702599999</c:v>
+                  <c:v>4124.5796411666597</c:v>
                 </c:pt>
                 <c:pt idx="1341">
-                  <c:v>3881.9928858500002</c:v>
+                  <c:v>4133.1438333999904</c:v>
                 </c:pt>
                 <c:pt idx="1342">
-                  <c:v>3878.100719054758</c:v>
+                  <c:v>4129.2807863547578</c:v>
                 </c:pt>
                 <c:pt idx="1343">
-                  <c:v>3875.0246015333332</c:v>
+                  <c:v>4126.2346077499933</c:v>
                 </c:pt>
                 <c:pt idx="1344">
-                  <c:v>3874.72884826666</c:v>
+                  <c:v>4125.9696475499895</c:v>
                 </c:pt>
                 <c:pt idx="1345">
-                  <c:v>3889.7670609666602</c:v>
+                  <c:v>4141.0395448333302</c:v>
                 </c:pt>
                 <c:pt idx="1346">
-                  <c:v>3941.6095087119011</c:v>
+                  <c:v>4192.9146093452309</c:v>
                 </c:pt>
                 <c:pt idx="1347">
-                  <c:v>3874.7455089</c:v>
+                  <c:v>4126.0842038499895</c:v>
                 </c:pt>
                 <c:pt idx="1348">
-                  <c:v>3874.5108087333301</c:v>
+                  <c:v>4125.8841243833303</c:v>
                 </c:pt>
                 <c:pt idx="1349">
-                  <c:v>3868.1768708166601</c:v>
+                  <c:v>4119.5858874833302</c:v>
                 </c:pt>
                 <c:pt idx="1350">
-                  <c:v>3873.4151585547579</c:v>
+                  <c:v>4124.8610164880884</c:v>
                 </c:pt>
                 <c:pt idx="1351">
-                  <c:v>3870.6780894499962</c:v>
+                  <c:v>4122.1619943499954</c:v>
                 </c:pt>
                 <c:pt idx="1352">
-                  <c:v>3863.7514150047582</c:v>
+                  <c:v>4115.2746458214278</c:v>
                 </c:pt>
                 <c:pt idx="1353">
-                  <c:v>3866.8494601666598</c:v>
+                  <c:v>4118.4133768666597</c:v>
                 </c:pt>
                 <c:pt idx="1354">
-                  <c:v>3864.9198845000001</c:v>
+                  <c:v>4116.5259373833296</c:v>
                 </c:pt>
                 <c:pt idx="1355">
-                  <c:v>3881.5484443738023</c:v>
+                  <c:v>4133.1981846738017</c:v>
                 </c:pt>
                 <c:pt idx="1356">
-                  <c:v>3937.1494693523737</c:v>
+                  <c:v>4188.8445615023738</c:v>
                 </c:pt>
                 <c:pt idx="1357">
-                  <c:v>3935.5372911999898</c:v>
+                  <c:v>4187.2795264666602</c:v>
                 </c:pt>
                 <c:pt idx="1358">
-                  <c:v>3852.2119581499901</c:v>
+                  <c:v>4104.0032703166598</c:v>
                 </c:pt>
                 <c:pt idx="1359">
-                  <c:v>3851.2449490071322</c:v>
+                  <c:v>4103.0874325904724</c:v>
                 </c:pt>
                 <c:pt idx="1360">
-                  <c:v>3897.56488843333</c:v>
+                  <c:v>4149.4608196833306</c:v>
                 </c:pt>
                 <c:pt idx="1361">
-                  <c:v>3895.3146894214278</c:v>
+                  <c:v>4147.2665497047583</c:v>
                 </c:pt>
                 <c:pt idx="1362">
-                  <c:v>3894.3515539952309</c:v>
+                  <c:v>4146.3620571952306</c:v>
                 </c:pt>
                 <c:pt idx="1363">
-                  <c:v>3899.97911641666</c:v>
+                  <c:v>4152.0512404499896</c:v>
                 </c:pt>
                 <c:pt idx="1364">
-                  <c:v>3889.9847827307599</c:v>
+                  <c:v>4142.1737517666606</c:v>
                 </c:pt>
                 <c:pt idx="1365">
-                  <c:v>603.5</c:v>
+                  <c:v>4153.1764318833302</c:v>
+                </c:pt>
+                <c:pt idx="1366">
+                  <c:v>4213.9347460999998</c:v>
+                </c:pt>
+                <c:pt idx="1367">
+                  <c:v>4214.9135048642847</c:v>
+                </c:pt>
+                <c:pt idx="1368">
+                  <c:v>4176.4704459833301</c:v>
+                </c:pt>
+                <c:pt idx="1369">
+                  <c:v>4106.4633861642751</c:v>
+                </c:pt>
+                <c:pt idx="1370">
+                  <c:v>4079.3216628357141</c:v>
+                </c:pt>
+                <c:pt idx="1371">
+                  <c:v>4078.5818605499999</c:v>
+                </c:pt>
+                <c:pt idx="1372">
+                  <c:v>4082.2092573214181</c:v>
+                </c:pt>
+                <c:pt idx="1373">
+                  <c:v>4080.4549843166601</c:v>
+                </c:pt>
+                <c:pt idx="1374">
+                  <c:v>4082.4274764095167</c:v>
+                </c:pt>
+                <c:pt idx="1375">
+                  <c:v>4082.342495697615</c:v>
+                </c:pt>
+                <c:pt idx="1376">
+                  <c:v>4081.7874464666602</c:v>
+                </c:pt>
+                <c:pt idx="1377">
+                  <c:v>4124.9892639333302</c:v>
+                </c:pt>
+                <c:pt idx="1378">
+                  <c:v>4119.7608806333301</c:v>
+                </c:pt>
+                <c:pt idx="1379">
+                  <c:v>4085.9576190444368</c:v>
+                </c:pt>
+                <c:pt idx="1380">
+                  <c:v>4086.0240665166602</c:v>
+                </c:pt>
+                <c:pt idx="1381">
+                  <c:v>4113.4719119833298</c:v>
+                </c:pt>
+                <c:pt idx="1382">
+                  <c:v>4094.1022334333302</c:v>
+                </c:pt>
+                <c:pt idx="1383">
+                  <c:v>4085.5194645499901</c:v>
+                </c:pt>
+                <c:pt idx="1384">
+                  <c:v>4108.1572779452308</c:v>
+                </c:pt>
+                <c:pt idx="1385">
+                  <c:v>4114.8608292499994</c:v>
+                </c:pt>
+                <c:pt idx="1386">
+                  <c:v>4117.1904489595172</c:v>
+                </c:pt>
+                <c:pt idx="1387">
+                  <c:v>4146.2253498619011</c:v>
+                </c:pt>
+                <c:pt idx="1388">
+                  <c:v>4149.6173579000006</c:v>
+                </c:pt>
+                <c:pt idx="1389">
+                  <c:v>4119.7696655666605</c:v>
+                </c:pt>
+                <c:pt idx="1390">
+                  <c:v>4117.7156153333299</c:v>
+                </c:pt>
+                <c:pt idx="1391">
+                  <c:v>4119.4939443333296</c:v>
+                </c:pt>
+                <c:pt idx="1392">
+                  <c:v>4161.3454947499995</c:v>
+                </c:pt>
+                <c:pt idx="1393">
+                  <c:v>4175.9635400500001</c:v>
+                </c:pt>
+                <c:pt idx="1394">
+                  <c:v>4171.1727329619007</c:v>
+                </c:pt>
+                <c:pt idx="1395">
+                  <c:v>4146.5866842166597</c:v>
+                </c:pt>
+                <c:pt idx="1396">
+                  <c:v>4145.8227509119006</c:v>
+                </c:pt>
+                <c:pt idx="1397">
+                  <c:v>4138.0740464499995</c:v>
+                </c:pt>
+                <c:pt idx="1398">
+                  <c:v>4151.1815406428568</c:v>
+                </c:pt>
+                <c:pt idx="1399">
+                  <c:v>4103.2598354952306</c:v>
+                </c:pt>
+                <c:pt idx="1400">
+                  <c:v>4117.1683003333255</c:v>
+                </c:pt>
+                <c:pt idx="1401">
+                  <c:v>4109.7502030761871</c:v>
+                </c:pt>
+                <c:pt idx="1402">
+                  <c:v>4111.0005736523744</c:v>
+                </c:pt>
+                <c:pt idx="1403">
+                  <c:v>4122.7342549166624</c:v>
+                </c:pt>
+                <c:pt idx="1404">
+                  <c:v>4123.4684526309447</c:v>
+                </c:pt>
+                <c:pt idx="1405">
+                  <c:v>4134.734107423802</c:v>
+                </c:pt>
+                <c:pt idx="1406">
+                  <c:v>4134.63755293333</c:v>
+                </c:pt>
+                <c:pt idx="1407">
+                  <c:v>4161.4225063666599</c:v>
+                </c:pt>
+                <c:pt idx="1408">
+                  <c:v>4213.4252996357136</c:v>
+                </c:pt>
+                <c:pt idx="1409">
+                  <c:v>4158.9210313166604</c:v>
+                </c:pt>
+                <c:pt idx="1410">
+                  <c:v>4151.5773723333305</c:v>
+                </c:pt>
+                <c:pt idx="1411">
+                  <c:v>4145.8518224333302</c:v>
+                </c:pt>
+                <c:pt idx="1412">
+                  <c:v>4162.4253651666604</c:v>
+                </c:pt>
+                <c:pt idx="1413">
+                  <c:v>3720.5407233928468</c:v>
+                </c:pt>
+                <c:pt idx="1414">
+                  <c:v>2418.47077515</c:v>
+                </c:pt>
+                <c:pt idx="1415">
+                  <c:v>1595.3318297933301</c:v>
+                </c:pt>
+                <c:pt idx="1416">
+                  <c:v>1110.3441458966659</c:v>
+                </c:pt>
+                <c:pt idx="1417">
+                  <c:v>853.959125738333</c:v>
+                </c:pt>
+                <c:pt idx="1418">
+                  <c:v>746.91832287690397</c:v>
+                </c:pt>
+                <c:pt idx="1419">
+                  <c:v>597.52488852747501</c:v>
+                </c:pt>
+                <c:pt idx="1420">
+                  <c:v>544.60121007733335</c:v>
+                </c:pt>
+                <c:pt idx="1421">
+                  <c:v>511.82916253442801</c:v>
+                </c:pt>
+                <c:pt idx="1422">
+                  <c:v>504.32742497321397</c:v>
+                </c:pt>
+                <c:pt idx="1423">
+                  <c:v>477.8310745943499</c:v>
+                </c:pt>
+                <c:pt idx="1424">
+                  <c:v>479.87874912983335</c:v>
+                </c:pt>
+                <c:pt idx="1425">
+                  <c:v>489.86589277749999</c:v>
+                </c:pt>
+                <c:pt idx="1426">
+                  <c:v>470.67139530210864</c:v>
+                </c:pt>
+                <c:pt idx="1427">
+                  <c:v>445.72210283986834</c:v>
+                </c:pt>
+                <c:pt idx="1428">
+                  <c:v>500.84554820508066</c:v>
+                </c:pt>
+                <c:pt idx="1429">
+                  <c:v>501.59669470701397</c:v>
+                </c:pt>
+                <c:pt idx="1430">
+                  <c:v>501.50607808764966</c:v>
+                </c:pt>
+                <c:pt idx="1431">
+                  <c:v>499.8102424724683</c:v>
+                </c:pt>
+                <c:pt idx="1432">
+                  <c:v>500.624730833878</c:v>
+                </c:pt>
+                <c:pt idx="1433">
+                  <c:v>553.74389414386826</c:v>
+                </c:pt>
+                <c:pt idx="1434">
+                  <c:v>558.73073264698496</c:v>
+                </c:pt>
+                <c:pt idx="1435">
+                  <c:v>557.50913596326666</c:v>
+                </c:pt>
+                <c:pt idx="1436">
+                  <c:v>562.00507485586661</c:v>
+                </c:pt>
+                <c:pt idx="1437">
+                  <c:v>569.14567612984035</c:v>
+                </c:pt>
+                <c:pt idx="1438">
+                  <c:v>571.2015658941001</c:v>
+                </c:pt>
+                <c:pt idx="1439">
+                  <c:v>569.85801268172531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13995,7 +14206,7 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="span"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -14142,19 +14353,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -15918,19 +16117,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -16815,142 +17002,184 @@
                   <c:v>649.94117647058795</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>3872.4476535821141</c:v>
+                  <c:v>4125.710594815444</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>3875.78467604666</c:v>
+                  <c:v>4128.6926052833296</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>4128.7251328699958</c:v>
+                  <c:v>4381.3172095366663</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>5880.8276172136202</c:v>
+                  <c:v>6133.1381442102902</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>4592.2730808599899</c:v>
+                  <c:v>4844.3322390166595</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>4653.3414433766602</c:v>
+                  <c:v>4905.1758989366599</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>4295.2042924289499</c:v>
+                  <c:v>4546.8347308397997</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>3774.0044076932109</c:v>
+                  <c:v>4025.446523928551</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>3722.0737115308048</c:v>
+                  <c:v>3973.3471499839748</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>3772.6214841125802</c:v>
+                  <c:v>4023.7439562166601</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>3761.6484320916525</c:v>
+                  <c:v>4012.6358047190124</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>3788.49281247098</c:v>
+                  <c:v>4039.3803960333298</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>3758.7954042633328</c:v>
+                  <c:v>4009.596935279993</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>3782.0372867272658</c:v>
+                  <c:v>4032.747736613936</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>3816.964475890602</c:v>
+                  <c:v>4067.5943688906023</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>3840.4811443399926</c:v>
+                  <c:v>4091.0401824233227</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>3858.556779011104</c:v>
+                  <c:v>4109.0539522444342</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>3952.6460674492118</c:v>
+                  <c:v>4203.089752135872</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>3970.0253123733332</c:v>
+                  <c:v>4220.4233584699932</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>3988.9883932733301</c:v>
+                  <c:v>4239.3482040833296</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>3994.4625769932109</c:v>
+                  <c:v>4244.7911814432109</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>3985.5252211399961</c:v>
+                  <c:v>4235.829340856656</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>3927.0851619027271</c:v>
+                  <c:v>4177.3712740593874</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>3852.4189346452313</c:v>
+                  <c:v>4102.693331711901</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>3842.84457666666</c:v>
+                  <c:v>4093.1134242133303</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>3780.457446114799</c:v>
+                  <c:v>4030.7268395147989</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>3772.9484711515433</c:v>
+                  <c:v>4023.2244929615431</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>3771.107719168454</c:v>
+                  <c:v>4021.3964973184538</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>3913.5820659355882</c:v>
+                  <c:v>4163.8898348055882</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>3868.3984117655882</c:v>
+                  <c:v>4118.7315768255885</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>3884.972573699044</c:v>
+                  <c:v>4135.3377816357142</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>3876.6977816828858</c:v>
+                  <c:v>4127.101998136216</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>3870.1683185133302</c:v>
+                  <c:v>4120.6189148399899</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>3845.7990738266599</c:v>
+                  <c:v>4096.3039272333299</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>3842.4195958733299</c:v>
+                  <c:v>4092.9872056833301</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>4241.9233120918216</c:v>
+                  <c:v>4492.5629390918211</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>5373.6406423890094</c:v>
+                  <c:v>5624.36248030568</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>3791.4358592653807</c:v>
+                  <c:v>4042.2512533787108</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>3790.2095986027271</c:v>
+                  <c:v>4041.1313389527172</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>3788.2430289784811</c:v>
+                  <c:v>4039.285767871811</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>3876.5798637600001</c:v>
+                  <c:v>4127.76075086333</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>3889.5684595622215</c:v>
+                  <c:v>4140.9081819155517</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>3868.43089677333</c:v>
+                  <c:v>4119.95548941999</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>3886.3414527196901</c:v>
+                  <c:v>4138.0856254130194</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>3895.9375208170022</c:v>
+                  <c:v>4148.0023998890219</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>620.27586206896501</c:v>
+                  <c:v>4170.4818507822947</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>4080.7399573775692</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>4095.9893916145543</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>4096.9906279513407</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>4130.1714748963605</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>4148.0500511999999</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>4137.4005120838701</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>4116.5079067054512</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>4163.6256571389185</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>3721.3803159423351</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>981.20066256654104</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>505.09968189729932</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>481.36145230744035</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>523.51478829803466</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>566.43722643829301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17137,7 +17366,7 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="span"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -18296,16 +18525,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18337,16 +18566,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18671,10 +18900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C268D1-234C-1143-B929-6E4A6C2FA7AB}">
-  <dimension ref="A1:C1441"/>
+  <dimension ref="A1:D1498"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A1409" workbookViewId="0">
+      <selection activeCell="D1441" sqref="D1441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27647,7 +27876,7 @@
         <v>684.4</v>
       </c>
     </row>
-    <row r="1137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1137" s="1">
         <v>41589.788194444445</v>
       </c>
@@ -27655,7 +27884,7 @@
         <v>665.8</v>
       </c>
     </row>
-    <row r="1138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1138" s="1">
         <v>41589.788888888892</v>
       </c>
@@ -27663,7 +27892,7 @@
         <v>677.142857142857</v>
       </c>
     </row>
-    <row r="1139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1139" s="1">
         <v>41589.789583333331</v>
       </c>
@@ -27671,7 +27900,7 @@
         <v>673.85714285714198</v>
       </c>
     </row>
-    <row r="1140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1140" s="1">
         <v>41589.790277777778</v>
       </c>
@@ -27679,7 +27908,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="1141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1141" s="1">
         <v>41589.790972222225</v>
       </c>
@@ -27687,10 +27916,11 @@
         <v>602.28571428571399</v>
       </c>
       <c r="C1141">
+        <f>B1141+D1141</f>
         <v>602.28571428571399</v>
       </c>
     </row>
-    <row r="1142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1142" s="1">
         <v>41589.791666666664</v>
       </c>
@@ -27698,10 +27928,14 @@
         <v>601</v>
       </c>
       <c r="C1142">
-        <v>3845.3582598666599</v>
-      </c>
-    </row>
-    <row r="1143" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ref="C1142:C1205" si="0">B1142+D1142</f>
+        <v>4098.7735291499994</v>
+      </c>
+      <c r="D1142">
+        <v>3497.7735291499998</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1143" s="1">
         <v>41589.792361111111</v>
       </c>
@@ -27709,10 +27943,14 @@
         <v>597.75</v>
       </c>
       <c r="C1143">
-        <v>3842.6373466666601</v>
-      </c>
-    </row>
-    <row r="1144" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4095.9746353333298</v>
+      </c>
+      <c r="D1143">
+        <v>3498.2246353333298</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1144" s="1">
         <v>41589.793055555558</v>
       </c>
@@ -27720,10 +27958,14 @@
         <v>641.66666666666595</v>
       </c>
       <c r="C1144">
-        <v>3887.0759069499959</v>
-      </c>
-    </row>
-    <row r="1145" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4140.3370566999956</v>
+      </c>
+      <c r="D1144">
+        <v>3498.67039003333</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1145" s="1">
         <v>41589.793749999997</v>
       </c>
@@ -27731,10 +27973,14 @@
         <v>643</v>
       </c>
       <c r="C1145">
-        <v>3888.9240935166599</v>
-      </c>
-    </row>
-    <row r="1146" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4142.1108955833297</v>
+      </c>
+      <c r="D1145">
+        <v>3499.1108955833301</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1146" s="1">
         <v>41589.794444444444</v>
       </c>
@@ -27742,10 +27988,14 @@
         <v>644.5</v>
       </c>
       <c r="C1146">
-        <v>3890.93205485</v>
-      </c>
-    </row>
-    <row r="1147" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4144.0462512499998</v>
+      </c>
+      <c r="D1146">
+        <v>3499.5462512499998</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1147" s="1">
         <v>41589.795138888891</v>
       </c>
@@ -27753,10 +28003,14 @@
         <v>643.4</v>
       </c>
       <c r="C1147">
-        <v>3890.3332689500003</v>
-      </c>
-    </row>
-    <row r="1148" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4143.3765543833297</v>
+      </c>
+      <c r="D1147">
+        <v>3499.97655438333</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1148" s="1">
         <v>41589.79583333333</v>
       </c>
@@ -27764,10 +28018,14 @@
         <v>652.25</v>
       </c>
       <c r="C1148">
-        <v>3899.6778762333302</v>
-      </c>
-    </row>
-    <row r="1149" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4152.6518999</v>
+      </c>
+      <c r="D1148">
+        <v>3500.4018999</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1149" s="1">
         <v>41589.796527777777</v>
       </c>
@@ -27775,10 +28033,14 @@
         <v>652.142857142857</v>
       </c>
       <c r="C1149">
-        <v>3900.0588707261868</v>
-      </c>
-    </row>
-    <row r="1150" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4152.965237692857</v>
+      </c>
+      <c r="D1149">
+        <v>3500.8223805500002</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1150" s="1">
         <v>41589.797222222223</v>
       </c>
@@ -27786,10 +28048,14 @@
         <v>592</v>
       </c>
       <c r="C1150">
-        <v>3840.3978141166599</v>
-      </c>
-    </row>
-    <row r="1151" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4093.2380861833299</v>
+      </c>
+      <c r="D1150">
+        <v>3501.2380861833299</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1151" s="1">
         <v>41589.79791666667</v>
       </c>
@@ -27797,10 +28063,14 @@
         <v>590.5</v>
       </c>
       <c r="C1151">
-        <v>3839.37340734999</v>
-      </c>
-    </row>
-    <row r="1152" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4092.1491053999998</v>
+      </c>
+      <c r="D1151">
+        <v>3501.6491053999998</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1152" s="1">
         <v>41589.798611111109</v>
       </c>
@@ -27808,10 +28078,14 @@
         <v>544.42857142857099</v>
       </c>
       <c r="C1152">
-        <v>3793.7714909452311</v>
-      </c>
-    </row>
-    <row r="1153" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4046.4840959785611</v>
+      </c>
+      <c r="D1152">
+        <v>3502.05552454999</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1153" s="1">
         <v>41589.799305555556</v>
       </c>
@@ -27819,10 +28093,14 @@
         <v>544.16666666666595</v>
       </c>
       <c r="C1153">
-        <v>3793.9731401499962</v>
-      </c>
-    </row>
-    <row r="1154" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4046.6240941166661</v>
+      </c>
+      <c r="D1153">
+        <v>3502.4574274500001</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1154" s="1">
         <v>41589.800000000003</v>
       </c>
@@ -27830,10 +28108,14 @@
         <v>583.25</v>
       </c>
       <c r="C1154">
-        <v>3833.5141887499899</v>
-      </c>
-    </row>
-    <row r="1155" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4086.1048966333301</v>
+      </c>
+      <c r="D1154">
+        <v>3502.8548966333301</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1155" s="1">
         <v>41589.800694444442</v>
       </c>
@@ -27841,10 +28123,14 @@
         <v>591.79999999999995</v>
       </c>
       <c r="C1155">
-        <v>3842.5161822</v>
-      </c>
-    </row>
-    <row r="1156" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4095.0480122833296</v>
+      </c>
+      <c r="D1155">
+        <v>3503.2480122833299</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1156" s="1">
         <v>41589.801388888889</v>
       </c>
@@ -27852,10 +28138,14 @@
         <v>2913.25</v>
       </c>
       <c r="C1156">
-        <v>6164.4125670666599</v>
-      </c>
-    </row>
-    <row r="1157" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>6416.8868534333305</v>
+      </c>
+      <c r="D1156">
+        <v>3503.6368534333301</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1157" s="1">
         <v>41589.802083333336</v>
       </c>
@@ -27863,10 +28153,14 @@
         <v>3662</v>
       </c>
       <c r="C1157">
-        <v>6913.6034541333302</v>
-      </c>
-    </row>
-    <row r="1158" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>7166.0214961500005</v>
+      </c>
+      <c r="D1157">
+        <v>3504.0214961500001</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1158" s="1">
         <v>41589.802777777775</v>
       </c>
@@ -27874,10 +28168,14 @@
         <v>3678.4285714285702</v>
       </c>
       <c r="C1158">
-        <v>6930.4675226785603</v>
-      </c>
-    </row>
-    <row r="1159" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>7182.8305874785701</v>
+      </c>
+      <c r="D1158">
+        <v>3504.4020160499999</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1159" s="1">
         <v>41589.803472222222</v>
       </c>
@@ -27885,10 +28183,14 @@
         <v>2464.25</v>
       </c>
       <c r="C1159">
-        <v>5716.7191635833296</v>
-      </c>
-    </row>
-    <row r="1160" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>5969.0284861500004</v>
+      </c>
+      <c r="D1159">
+        <v>3504.7784861499999</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1160" s="1">
         <v>41589.804166666669</v>
       </c>
@@ -27896,10 +28198,14 @@
         <v>1888.57142857142</v>
       </c>
       <c r="C1160">
-        <v>5141.4656223214197</v>
-      </c>
-    </row>
-    <row r="1161" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>5393.7224068047499</v>
+      </c>
+      <c r="D1160">
+        <v>3505.1509782333301</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1161" s="1">
         <v>41589.804861111108</v>
       </c>
@@ -27907,10 +28213,14 @@
         <v>1915</v>
       </c>
       <c r="C1161">
-        <v>5168.3141415333303</v>
-      </c>
-    </row>
-    <row r="1162" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>5420.5195626499999</v>
+      </c>
+      <c r="D1161">
+        <v>3505.5195626499999</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1162" s="1">
         <v>41589.805555555555</v>
       </c>
@@ -27918,10 +28228,14 @@
         <v>1133.6666666666599</v>
       </c>
       <c r="C1162">
-        <v>4387.3957711499897</v>
-      </c>
-    </row>
-    <row r="1163" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4639.5509745666595</v>
+      </c>
+      <c r="D1162">
+        <v>3505.8843078999998</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1163" s="1">
         <v>41589.806250000001</v>
       </c>
@@ -27929,10 +28243,14 @@
         <v>964.5</v>
       </c>
       <c r="C1163">
-        <v>4218.6391778500001</v>
-      </c>
-    </row>
-    <row r="1164" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4470.7452812166594</v>
+      </c>
+      <c r="D1163">
+        <v>3506.2452812166598</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1164" s="1">
         <v>41589.806944444441</v>
       </c>
@@ -27940,10 +28258,14 @@
         <v>1453.25</v>
       </c>
       <c r="C1164">
-        <v>4707.7944542499999</v>
-      </c>
-    </row>
-    <row r="1165" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4959.8525479833297</v>
+      </c>
+      <c r="D1164">
+        <v>3506.6025479833302</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1165" s="1">
         <v>41589.807638888888</v>
       </c>
@@ -27951,10 +28273,14 @@
         <v>1587</v>
       </c>
       <c r="C1165">
-        <v>4841.9450243833298</v>
-      </c>
-    </row>
-    <row r="1166" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>5093.9561728333301</v>
+      </c>
+      <c r="D1165">
+        <v>3506.9561728333301</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1166" s="1">
         <v>41589.808333333334</v>
       </c>
@@ -27962,10 +28288,14 @@
         <v>1339.42857142857</v>
       </c>
       <c r="C1166">
-        <v>4594.7695480952298</v>
-      </c>
-    </row>
-    <row r="1167" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4846.7347899119004</v>
+      </c>
+      <c r="D1166">
+        <v>3507.3062184833302</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1167" s="1">
         <v>41589.809027777781</v>
       </c>
@@ -27973,10 +28303,14 @@
         <v>1470.75</v>
       </c>
       <c r="C1167">
-        <v>4726.4823973999901</v>
-      </c>
-    </row>
-    <row r="1168" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4978.4027465999998</v>
+      </c>
+      <c r="D1167">
+        <v>3507.6527465999998</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1168" s="1">
         <v>41589.80972222222</v>
       </c>
@@ -27984,10 +28318,14 @@
         <v>1618.57142857142</v>
       </c>
       <c r="C1168">
-        <v>4874.6907991380804</v>
-      </c>
-    </row>
-    <row r="1169" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>5126.5672458380805</v>
+      </c>
+      <c r="D1168">
+        <v>3507.9958172666602</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1169" s="1">
         <v>41589.810416666667</v>
       </c>
@@ -27995,10 +28333,14 @@
         <v>1449.3</v>
       </c>
       <c r="C1169">
-        <v>4705.8019785166598</v>
-      </c>
-    </row>
-    <row r="1170" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4957.6354896666599</v>
+      </c>
+      <c r="D1169">
+        <v>3508.3354896666601</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1170" s="1">
         <v>41589.811111111114</v>
       </c>
@@ -28006,10 +28348,14 @@
         <v>1038.8571428571399</v>
       </c>
       <c r="C1170">
-        <v>4295.7374446737995</v>
-      </c>
-    </row>
-    <row r="1171" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4547.5289644404693</v>
+      </c>
+      <c r="D1170">
+        <v>3508.6718215833298</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1171" s="1">
         <v>41589.811805555553</v>
       </c>
@@ -28017,10 +28363,14 @@
         <v>1430.25</v>
       </c>
       <c r="C1171">
-        <v>4687.5044185833303</v>
-      </c>
-    </row>
-    <row r="1172" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4939.2548695666601</v>
+      </c>
+      <c r="D1171">
+        <v>3509.0048695666601</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1172" s="1">
         <v>41589.8125</v>
       </c>
@@ -28028,10 +28378,14 @@
         <v>1425.625</v>
       </c>
       <c r="C1172">
-        <v>4683.2494056666601</v>
-      </c>
-    </row>
-    <row r="1173" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4934.9596889833301</v>
+      </c>
+      <c r="D1172">
+        <v>3509.3346889833301</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1173" s="1">
         <v>41589.813194444447</v>
       </c>
@@ -28039,10 +28393,14 @@
         <v>672.4</v>
       </c>
       <c r="C1173">
-        <v>3930.3903379666599</v>
-      </c>
-    </row>
-    <row r="1174" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4182.0613343499999</v>
+      </c>
+      <c r="D1173">
+        <v>3509.6613343499998</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1174" s="1">
         <v>41589.813888888886</v>
       </c>
@@ -28050,10 +28408,14 @@
         <v>1397.75</v>
       </c>
       <c r="C1174">
-        <v>4656.1052828524498</v>
-      </c>
-    </row>
-    <row r="1175" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4907.7348586833305</v>
+      </c>
+      <c r="D1174">
+        <v>3509.98485868333</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1175" s="1">
         <v>41589.814583333333</v>
       </c>
@@ -28061,10 +28423,14 @@
         <v>981</v>
       </c>
       <c r="C1175">
-        <v>4239.7162636499907</v>
-      </c>
-    </row>
-    <row r="1176" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4491.3053141999999</v>
+      </c>
+      <c r="D1175">
+        <v>3510.3053141999999</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1176" s="1">
         <v>41589.81527777778</v>
       </c>
@@ -28072,10 +28438,14 @@
         <v>504.5</v>
       </c>
       <c r="C1176">
-        <v>3763.5704006000001</v>
-      </c>
-    </row>
-    <row r="1177" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4015.1227520999901</v>
+      </c>
+      <c r="D1176">
+        <v>3510.6227520999901</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1177" s="1">
         <v>41589.815972222219</v>
       </c>
@@ -28083,10 +28453,14 @@
         <v>504.222222222222</v>
       </c>
       <c r="C1177">
-        <v>3763.6458878779522</v>
-      </c>
-    </row>
-    <row r="1178" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4015.1594445388823</v>
+      </c>
+      <c r="D1177">
+        <v>3510.9372223166602</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1178" s="1">
         <v>41589.816666666666</v>
       </c>
@@ -28094,10 +28468,14 @@
         <v>503.11111111111097</v>
       </c>
       <c r="C1178">
-        <v>3762.8842869111008</v>
-      </c>
-    </row>
-    <row r="1179" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4014.3598851444408</v>
+      </c>
+      <c r="D1178">
+        <v>3511.2487740333299</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1179" s="1">
         <v>41589.817361111112</v>
       </c>
@@ -28105,10 +28483,14 @@
         <v>573.28571428571399</v>
       </c>
       <c r="C1179">
-        <v>3833.4018537190441</v>
-      </c>
-    </row>
-    <row r="1180" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4084.8431695857043</v>
+      </c>
+      <c r="D1179">
+        <v>3511.5574552999901</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1180" s="1">
         <v>41589.818055555559</v>
       </c>
@@ -28116,10 +28498,14 @@
         <v>585.4</v>
       </c>
       <c r="C1180">
-        <v>3845.85833804917</v>
-      </c>
-    </row>
-    <row r="1181" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4097.2633135833303</v>
+      </c>
+      <c r="D1180">
+        <v>3511.8633135833302</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1181" s="1">
         <v>41589.818749999999</v>
       </c>
@@ -28127,10 +28513,14 @@
         <v>429.71428571428498</v>
       </c>
       <c r="C1181">
-        <v>3690.511262914285</v>
-      </c>
-    </row>
-    <row r="1182" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>3941.8806806642847</v>
+      </c>
+      <c r="D1181">
+        <v>3512.1663949499998</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1182" s="1">
         <v>41589.819444444445</v>
       </c>
@@ -28138,10 +28528,14 @@
         <v>429.33333333333297</v>
       </c>
       <c r="C1182">
-        <v>3690.462682649993</v>
-      </c>
-    </row>
-    <row r="1183" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>3941.800078249993</v>
+      </c>
+      <c r="D1182">
+        <v>3512.46674491666</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1183" s="1">
         <v>41589.820138888892</v>
       </c>
@@ -28149,10 +28543,14 @@
         <v>428.42857142857099</v>
       </c>
       <c r="C1183">
-        <v>3689.8869037785612</v>
-      </c>
-    </row>
-    <row r="1184" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>3941.192979411901</v>
+      </c>
+      <c r="D1183">
+        <v>3512.7644079833299</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1184" s="1">
         <v>41589.820833333331</v>
       </c>
@@ -28160,10 +28558,14 @@
         <v>428.5</v>
       </c>
       <c r="C1184">
-        <v>3690.2866801311402</v>
-      </c>
-    </row>
-    <row r="1185" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>3941.55942781666</v>
+      </c>
+      <c r="D1184">
+        <v>3513.05942781666</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1185" s="1">
         <v>41589.821527777778</v>
       </c>
@@ -28171,10 +28573,14 @@
         <v>469.75</v>
       </c>
       <c r="C1185">
-        <v>3731.8617096166599</v>
-      </c>
-    </row>
-    <row r="1186" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>3983.1018474166599</v>
+      </c>
+      <c r="D1185">
+        <v>3513.3518474166599</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1186" s="1">
         <v>41589.822222222225</v>
       </c>
@@ -28182,10 +28588,14 @@
         <v>530.5</v>
       </c>
       <c r="C1186">
-        <v>3792.9308184833299</v>
-      </c>
-    </row>
-    <row r="1187" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4044.14170888333</v>
+      </c>
+      <c r="D1186">
+        <v>3513.64170888333</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1187" s="1">
         <v>41589.822916666664</v>
       </c>
@@ -28193,10 +28603,14 @@
         <v>525.875</v>
       </c>
       <c r="C1187">
-        <v>3788.6243814754098</v>
-      </c>
-    </row>
-    <row r="1188" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4039.8040534833299</v>
+      </c>
+      <c r="D1187">
+        <v>3513.9290534833299</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1188" s="1">
         <v>41589.823611111111</v>
       </c>
@@ -28204,10 +28618,14 @@
         <v>523.4</v>
       </c>
       <c r="C1188">
-        <v>3786.4647940333302</v>
-      </c>
-    </row>
-    <row r="1189" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4037.61392176666</v>
+      </c>
+      <c r="D1188">
+        <v>3514.21392176666</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1189" s="1">
         <v>41589.824305555558</v>
       </c>
@@ -28215,10 +28633,14 @@
         <v>523</v>
       </c>
       <c r="C1189">
-        <v>3786.3745286333301</v>
-      </c>
-    </row>
-    <row r="1190" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4037.4963536833302</v>
+      </c>
+      <c r="D1189">
+        <v>3514.4963536833302</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1190" s="1">
         <v>41589.824999999997</v>
       </c>
@@ -28226,10 +28648,14 @@
         <v>473.75</v>
       </c>
       <c r="C1190">
-        <v>3737.4338002622899</v>
-      </c>
-    </row>
-    <row r="1191" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>3988.52638833333</v>
+      </c>
+      <c r="D1190">
+        <v>3514.77638833333</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1191" s="1">
         <v>41589.825694444444</v>
       </c>
@@ -28237,10 +28663,14 @@
         <v>476.57142857142799</v>
       </c>
       <c r="C1191">
-        <v>3740.5615078380879</v>
-      </c>
-    </row>
-    <row r="1192" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>3991.6254923880879</v>
+      </c>
+      <c r="D1191">
+        <v>3515.0540638166599</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1192" s="1">
         <v>41589.826388888891</v>
       </c>
@@ -28248,10 +28678,14 @@
         <v>486</v>
       </c>
       <c r="C1192">
-        <v>3750.29090884999</v>
-      </c>
-    </row>
-    <row r="1193" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4001.3294182499899</v>
+      </c>
+      <c r="D1192">
+        <v>3515.3294182499899</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1193" s="1">
         <v>41589.82708333333</v>
       </c>
@@ -28259,10 +28693,14 @@
         <v>490.57142857142799</v>
       </c>
       <c r="C1193">
-        <v>3755.1627813419182</v>
-      </c>
-    </row>
-    <row r="1194" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4006.173916988088</v>
+      </c>
+      <c r="D1193">
+        <v>3515.60248841666</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1194" s="1">
         <v>41589.827777777777</v>
       </c>
@@ -28270,10 +28708,14 @@
         <v>486.875</v>
       </c>
       <c r="C1194">
-        <v>3751.76395226666</v>
-      </c>
-    </row>
-    <row r="1195" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4002.7483109833302</v>
+      </c>
+      <c r="D1194">
+        <v>3515.8733109833302</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1195" s="1">
         <v>41589.828472222223</v>
       </c>
@@ -28281,10 +28723,14 @@
         <v>493.42857142857099</v>
       </c>
       <c r="C1195">
-        <v>3758.6098897619013</v>
-      </c>
-    </row>
-    <row r="1196" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4009.5704928952309</v>
+      </c>
+      <c r="D1195">
+        <v>3516.1419214666598</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1196" s="1">
         <v>41589.82916666667</v>
       </c>
@@ -28292,10 +28738,14 @@
         <v>554.75</v>
       </c>
       <c r="C1196">
-        <v>3820.2209717166602</v>
-      </c>
-    </row>
-    <row r="1197" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4071.1583550666601</v>
+      </c>
+      <c r="D1196">
+        <v>3516.4083550666601</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1197" s="1">
         <v>41589.829861111109</v>
       </c>
@@ -28303,10 +28753,14 @@
         <v>555.85714285714198</v>
       </c>
       <c r="C1197">
-        <v>3821.6174768079618</v>
-      </c>
-    </row>
-    <row r="1198" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4072.5297894738023</v>
+      </c>
+      <c r="D1197">
+        <v>3516.6726466166601</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1198" s="1">
         <v>41589.830555555556</v>
       </c>
@@ -28314,10 +28768,14 @@
         <v>557</v>
       </c>
       <c r="C1198">
-        <v>3823.0470359000001</v>
-      </c>
-    </row>
-    <row r="1199" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4073.93482991666</v>
+      </c>
+      <c r="D1198">
+        <v>3516.93482991666</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1199" s="1">
         <v>41589.831250000003</v>
       </c>
@@ -28325,10 +28783,14 @@
         <v>511.6</v>
       </c>
       <c r="C1199">
-        <v>3777.9287735333301</v>
-      </c>
-    </row>
-    <row r="1200" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4028.7949381666599</v>
+      </c>
+      <c r="D1199">
+        <v>3517.19493816666</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1200" s="1">
         <v>41589.831944444442</v>
       </c>
@@ -28336,10 +28798,14 @@
         <v>483</v>
       </c>
       <c r="C1200">
-        <v>3749.61028570491</v>
-      </c>
-    </row>
-    <row r="1201" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4000.45300441666</v>
+      </c>
+      <c r="D1200">
+        <v>3517.45300441666</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1201" s="1">
         <v>41589.832638888889</v>
       </c>
@@ -28347,10 +28813,14 @@
         <v>492.222222222222</v>
       </c>
       <c r="C1201">
-        <v>3759.0908533790821</v>
-      </c>
-    </row>
-    <row r="1202" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4009.9312832722221</v>
+      </c>
+      <c r="D1201">
+        <v>3517.7090610499999</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1202" s="1">
         <v>41589.833333333336</v>
       </c>
@@ -28358,10 +28828,14 @@
         <v>497.11111111111097</v>
       </c>
       <c r="C1202">
-        <v>3764.2336078444409</v>
-      </c>
-    </row>
-    <row r="1203" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4015.074250677771</v>
+      </c>
+      <c r="D1202">
+        <v>3517.9631395666602</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1203" s="1">
         <v>41589.834027777775</v>
       </c>
@@ -28369,10 +28843,14 @@
         <v>498.25</v>
       </c>
       <c r="C1203">
-        <v>3765.6446469666598</v>
-      </c>
-    </row>
-    <row r="1204" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4016.46527171666</v>
+      </c>
+      <c r="D1203">
+        <v>3518.21527171666</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1204" s="1">
         <v>41589.834722222222</v>
       </c>
@@ -28380,10 +28858,14 @@
         <v>458</v>
       </c>
       <c r="C1204">
-        <v>3725.6644149666599</v>
-      </c>
-    </row>
-    <row r="1205" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>3976.4654877333301</v>
+      </c>
+      <c r="D1204">
+        <v>3518.4654877333301</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1205" s="1">
         <v>41589.835416666669</v>
       </c>
@@ -28391,10 +28873,14 @@
         <v>484.57142857142799</v>
       </c>
       <c r="C1205">
-        <v>3752.5032675714278</v>
-      </c>
-    </row>
-    <row r="1206" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4003.2852467047578</v>
+      </c>
+      <c r="D1205">
+        <v>3518.7138181333298</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1206" s="1">
         <v>41589.836111111108</v>
       </c>
@@ -28402,10 +28888,14 @@
         <v>507.166666666666</v>
       </c>
       <c r="C1206">
-        <v>3775.363623649996</v>
-      </c>
-    </row>
-    <row r="1207" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ref="C1206:C1269" si="1">B1206+D1206</f>
+        <v>4026.1269592499962</v>
+      </c>
+      <c r="D1206">
+        <v>3518.9602925833301</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1207" s="1">
         <v>41589.836805555555</v>
       </c>
@@ -28413,10 +28903,14 @@
         <v>504.71428571428498</v>
       </c>
       <c r="C1207">
-        <v>3773.1740917976149</v>
-      </c>
-    </row>
-    <row r="1208" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4023.9192262809447</v>
+      </c>
+      <c r="D1207">
+        <v>3519.2049405666598</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1208" s="1">
         <v>41589.837500000001</v>
       </c>
@@ -28424,10 +28918,14 @@
         <v>509</v>
       </c>
       <c r="C1208">
-        <v>3777.7204227000002</v>
-      </c>
-    </row>
-    <row r="1209" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4028.4477908666599</v>
+      </c>
+      <c r="D1208">
+        <v>3519.4477908666599</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1209" s="1">
         <v>41589.838194444441</v>
       </c>
@@ -28435,10 +28933,14 @@
         <v>518</v>
       </c>
       <c r="C1209">
-        <v>3786.97884241666</v>
-      </c>
-    </row>
-    <row r="1210" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4037.6888718999999</v>
+      </c>
+      <c r="D1209">
+        <v>3519.6888718999999</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1210" s="1">
         <v>41589.838888888888</v>
       </c>
@@ -28446,10 +28948,14 @@
         <v>518.5</v>
       </c>
       <c r="C1210">
-        <v>3787.7351005666601</v>
-      </c>
-    </row>
-    <row r="1211" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4038.4282116833301</v>
+      </c>
+      <c r="D1210">
+        <v>3519.9282116833301</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1211" s="1">
         <v>41589.839583333334</v>
       </c>
@@ -28457,10 +28963,14 @@
         <v>513.25</v>
       </c>
       <c r="C1211">
-        <v>3782.7392315666598</v>
-      </c>
-    </row>
-    <row r="1212" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4033.4158377499898</v>
+      </c>
+      <c r="D1211">
+        <v>3520.1658377499898</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1212" s="1">
         <v>41589.840277777781</v>
       </c>
@@ -28468,10 +28978,14 @@
         <v>511.25</v>
       </c>
       <c r="C1212">
-        <v>3780.99126946666</v>
-      </c>
-    </row>
-    <row r="1213" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4031.6517773833302</v>
+      </c>
+      <c r="D1212">
+        <v>3520.4017773833302</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1213" s="1">
         <v>41589.84097222222</v>
       </c>
@@ -28479,10 +28993,14 @@
         <v>511.8</v>
       </c>
       <c r="C1213">
-        <v>3781.7912474</v>
-      </c>
-    </row>
-    <row r="1214" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4032.4360571833304</v>
+      </c>
+      <c r="D1213">
+        <v>3520.6360571833302</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1214" s="1">
         <v>41589.841666666667</v>
       </c>
@@ -28490,10 +29008,14 @@
         <v>524.4</v>
       </c>
       <c r="C1214">
-        <v>3794.63919813333</v>
-      </c>
-    </row>
-    <row r="1215" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4045.2687036666603</v>
+      </c>
+      <c r="D1214">
+        <v>3520.8687036666602</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1215" s="1">
         <v>41589.842361111114</v>
       </c>
@@ -28501,10 +29023,14 @@
         <v>621</v>
       </c>
       <c r="C1215">
-        <v>3891.4851540833301</v>
-      </c>
-    </row>
-    <row r="1216" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4142.0997425999994</v>
+      </c>
+      <c r="D1215">
+        <v>3521.0997425999999</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1216" s="1">
         <v>41589.843055555553</v>
       </c>
@@ -28512,10 +29038,14 @@
         <v>621.33333333333303</v>
       </c>
       <c r="C1216">
-        <v>3892.0624800666628</v>
-      </c>
-    </row>
-    <row r="1217" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4142.662533316663</v>
+      </c>
+      <c r="D1216">
+        <v>3521.32919998333</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1217" s="1">
         <v>41589.84375</v>
       </c>
@@ -28523,10 +29053,14 @@
         <v>615.79999999999995</v>
       </c>
       <c r="C1217">
-        <v>3886.77120703333</v>
-      </c>
-    </row>
-    <row r="1218" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4137.3571006499997</v>
+      </c>
+      <c r="D1217">
+        <v>3521.5571006499999</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1218" s="1">
         <v>41589.844444444447</v>
       </c>
@@ -28534,10 +29068,14 @@
         <v>614.55555555555497</v>
       </c>
       <c r="C1218">
-        <v>3885.7669213388854</v>
-      </c>
-    </row>
-    <row r="1219" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4136.3390254222149</v>
+      </c>
+      <c r="D1218">
+        <v>3521.7834698666602</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1219" s="1">
         <v>41589.845138888886</v>
       </c>
@@ -28545,10 +29083,14 @@
         <v>530.5</v>
       </c>
       <c r="C1219">
-        <v>3801.9496530666602</v>
-      </c>
-    </row>
-    <row r="1220" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4052.50833194999</v>
+      </c>
+      <c r="D1219">
+        <v>3522.00833194999</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1220" s="1">
         <v>41589.845833333333</v>
       </c>
@@ -28556,10 +29098,14 @@
         <v>531</v>
       </c>
       <c r="C1220">
-        <v>3802.6860982666599</v>
-      </c>
-    </row>
-    <row r="1221" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4053.2317112833298</v>
+      </c>
+      <c r="D1220">
+        <v>3522.2317112833298</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1221" s="1">
         <v>41589.84652777778</v>
       </c>
@@ -28567,10 +29113,14 @@
         <v>526.875</v>
       </c>
       <c r="C1221">
-        <v>3798.7957308833302</v>
-      </c>
-    </row>
-    <row r="1222" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4049.3286317000002</v>
+      </c>
+      <c r="D1221">
+        <v>3522.4536317000002</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1222" s="1">
         <v>41589.847222222219</v>
       </c>
@@ -28578,10 +29128,14 @@
         <v>527.25</v>
       </c>
       <c r="C1222">
-        <v>3799.4035791666602</v>
-      </c>
-    </row>
-    <row r="1223" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4049.9241168666599</v>
+      </c>
+      <c r="D1222">
+        <v>3522.6741168666599</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1223" s="1">
         <v>41589.847916666666</v>
       </c>
@@ -28589,10 +29143,14 @@
         <v>529.55555555555497</v>
       </c>
       <c r="C1223">
-        <v>3801.940227088885</v>
-      </c>
-    </row>
-    <row r="1224" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4052.4487456055549</v>
+      </c>
+      <c r="D1223">
+        <v>3522.8931900500002</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1224" s="1">
         <v>41589.848611111112</v>
       </c>
@@ -28600,10 +29158,14 @@
         <v>557</v>
       </c>
       <c r="C1224">
-        <v>3829.6140356000001</v>
-      </c>
-    </row>
-    <row r="1225" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4080.1108741333301</v>
+      </c>
+      <c r="D1224">
+        <v>3523.1108741333301</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1225" s="1">
         <v>41589.849305555559</v>
       </c>
@@ -28611,10 +29173,14 @@
         <v>647.75</v>
       </c>
       <c r="C1225">
-        <v>3920.5916987000001</v>
-      </c>
-    </row>
-    <row r="1226" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4171.07719203333</v>
+      </c>
+      <c r="D1225">
+        <v>3523.32719203333</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1226" s="1">
         <v>41589.85</v>
       </c>
@@ -28622,10 +29188,14 @@
         <v>654.42857142857099</v>
       </c>
       <c r="C1226">
-        <v>3927.4962592619013</v>
-      </c>
-    </row>
-    <row r="1227" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4177.9707373452311</v>
+      </c>
+      <c r="D1226">
+        <v>3523.54216591666</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1227" s="1">
         <v>41589.850694444445</v>
       </c>
@@ -28633,10 +29203,14 @@
         <v>658.5</v>
       </c>
       <c r="C1227">
-        <v>3931.7920293166599</v>
-      </c>
-    </row>
-    <row r="1228" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4182.2558181999993</v>
+      </c>
+      <c r="D1227">
+        <v>3523.7558181999998</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1228" s="1">
         <v>41589.851388888892</v>
       </c>
@@ -28644,10 +29218,14 @@
         <v>711.75</v>
       </c>
       <c r="C1228">
-        <v>3985.2647492666601</v>
-      </c>
-    </row>
-    <row r="1229" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4235.7181703833303</v>
+      </c>
+      <c r="D1228">
+        <v>3523.9681703833298</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1229" s="1">
         <v>41589.852083333331</v>
       </c>
@@ -28655,10 +29233,14 @@
         <v>672.85714285714198</v>
       </c>
       <c r="C1229">
-        <v>3946.5930162238019</v>
-      </c>
-    </row>
-    <row r="1230" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4197.0363872571415</v>
+      </c>
+      <c r="D1229">
+        <v>3524.1792443999998</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1230" s="1">
         <v>41589.852777777778</v>
       </c>
@@ -28666,10 +29248,14 @@
         <v>667.25</v>
       </c>
       <c r="C1230">
-        <v>3941.2054269166601</v>
-      </c>
-    </row>
-    <row r="1231" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4191.6390615499895</v>
+      </c>
+      <c r="D1230">
+        <v>3524.3890615499899</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1231" s="1">
         <v>41589.853472222225</v>
       </c>
@@ -28677,10 +29263,14 @@
         <v>677.42857142857099</v>
       </c>
       <c r="C1231">
-        <v>3951.602006278571</v>
-      </c>
-    </row>
-    <row r="1232" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4202.0262140452305</v>
+      </c>
+      <c r="D1231">
+        <v>3524.5976426166599</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1232" s="1">
         <v>41589.854166666664</v>
       </c>
@@ -28688,10 +29278,14 @@
         <v>673</v>
       </c>
       <c r="C1232">
-        <v>3947.3899216999998</v>
-      </c>
-    </row>
-    <row r="1233" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4197.8050089666594</v>
+      </c>
+      <c r="D1232">
+        <v>3524.8050089666599</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1233" s="1">
         <v>41589.854861111111</v>
       </c>
@@ -28699,10 +29293,14 @@
         <v>671</v>
       </c>
       <c r="C1233">
-        <v>3945.6049116499898</v>
-      </c>
-    </row>
-    <row r="1234" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4196.0111808499896</v>
+      </c>
+      <c r="D1233">
+        <v>3525.0111808499901</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1234" s="1">
         <v>41589.855555555558</v>
       </c>
@@ -28710,10 +29308,14 @@
         <v>666.3</v>
       </c>
       <c r="C1234">
-        <v>3941.1184286166599</v>
-      </c>
-    </row>
-    <row r="1235" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4191.5161788333298</v>
+      </c>
+      <c r="D1234">
+        <v>3525.2161788333301</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1235" s="1">
         <v>41589.856249999997</v>
       </c>
@@ -28721,10 +29323,14 @@
         <v>725.1</v>
       </c>
       <c r="C1235">
-        <v>4000.13049603333</v>
-      </c>
-    </row>
-    <row r="1236" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4250.5200231999997</v>
+      </c>
+      <c r="D1235">
+        <v>3525.4200231999998</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1236" s="1">
         <v>41589.856944444444</v>
       </c>
@@ -28732,10 +29338,14 @@
         <v>736.2</v>
       </c>
       <c r="C1236">
-        <v>4011.4411372000004</v>
-      </c>
-    </row>
-    <row r="1237" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4261.8227338333299</v>
+      </c>
+      <c r="D1236">
+        <v>3525.6227338333301</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1237" s="1">
         <v>41589.857638888891</v>
       </c>
@@ -28743,10 +29353,14 @@
         <v>735.25</v>
       </c>
       <c r="C1237">
-        <v>4010.7003748666598</v>
-      </c>
-    </row>
-    <row r="1238" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4261.07433043333</v>
+      </c>
+      <c r="D1237">
+        <v>3525.82433043333</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1238" s="1">
         <v>41589.85833333333</v>
       </c>
@@ -28754,10 +29368,14 @@
         <v>720.75</v>
       </c>
       <c r="C1238">
-        <v>3996.40823173333</v>
-      </c>
-    </row>
-    <row r="1239" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4246.7748326666606</v>
+      </c>
+      <c r="D1238">
+        <v>3526.0248326666601</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1239" s="1">
         <v>41589.859027777777</v>
       </c>
@@ -28765,10 +29383,14 @@
         <v>710</v>
       </c>
       <c r="C1239">
-        <v>3985.86472996666</v>
-      </c>
-    </row>
-    <row r="1240" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4236.2242598999901</v>
+      </c>
+      <c r="D1239">
+        <v>3526.2242598999901</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1240" s="1">
         <v>41589.859722222223</v>
       </c>
@@ -28776,10 +29398,14 @@
         <v>708.57142857142799</v>
       </c>
       <c r="C1240">
-        <v>3984.6413201047581</v>
-      </c>
-    </row>
-    <row r="1241" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4234.9940599214278</v>
+      </c>
+      <c r="D1240">
+        <v>3526.4226313499998</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1241" s="1">
         <v>41589.86041666667</v>
       </c>
@@ -28787,10 +29413,14 @@
         <v>706.6</v>
       </c>
       <c r="C1241">
-        <v>3982.87373826666</v>
-      </c>
-    </row>
-    <row r="1242" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4233.2199660666602</v>
+      </c>
+      <c r="D1241">
+        <v>3526.6199660666598</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1242" s="1">
         <v>41589.861111111109</v>
       </c>
@@ -28798,10 +29428,14 @@
         <v>703.83333333333303</v>
       </c>
       <c r="C1242">
-        <v>3980.3096245999932</v>
-      </c>
-    </row>
-    <row r="1243" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4230.6496161166633</v>
+      </c>
+      <c r="D1242">
+        <v>3526.8162827833298</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1243" s="1">
         <v>41589.861805555556</v>
       </c>
@@ -28809,10 +29443,14 @@
         <v>705.57142857142799</v>
       </c>
       <c r="C1243">
-        <v>3982.2490005380878</v>
-      </c>
-    </row>
-    <row r="1244" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4232.5830288380876</v>
+      </c>
+      <c r="D1243">
+        <v>3527.01160026666</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1244" s="1">
         <v>41589.862500000003</v>
       </c>
@@ -28820,10 +29458,14 @@
         <v>699.71428571428498</v>
       </c>
       <c r="C1244">
-        <v>3976.5918868142849</v>
-      </c>
-    </row>
-    <row r="1245" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4226.9202226309453</v>
+      </c>
+      <c r="D1244">
+        <v>3527.20593691666</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1245" s="1">
         <v>41589.863194444442</v>
       </c>
@@ -28831,10 +29473,14 @@
         <v>742.75</v>
       </c>
       <c r="C1245">
-        <v>4019.8263993166602</v>
-      </c>
-    </row>
-    <row r="1246" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4270.1493112833305</v>
+      </c>
+      <c r="D1245">
+        <v>3527.39931128333</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1246" s="1">
         <v>41589.863888888889</v>
       </c>
@@ -28842,10 +29488,14 @@
         <v>755.8</v>
       </c>
       <c r="C1246">
-        <v>4033.0739868333303</v>
-      </c>
-    </row>
-    <row r="1247" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4283.3917414833304</v>
+      </c>
+      <c r="D1246">
+        <v>3527.5917414833302</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1247" s="1">
         <v>41589.864583333336</v>
       </c>
@@ -28853,10 +29503,14 @@
         <v>753.28571428571399</v>
       </c>
       <c r="C1247">
-        <v>4030.7560982190444</v>
-      </c>
-    </row>
-    <row r="1248" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4281.0689598857043</v>
+      </c>
+      <c r="D1247">
+        <v>3527.7832455999901</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1248" s="1">
         <v>41589.865277777775</v>
       </c>
@@ -28864,10 +29518,14 @@
         <v>699.42857142857099</v>
       </c>
       <c r="C1248">
-        <v>3977.094181945231</v>
-      </c>
-    </row>
-    <row r="1249" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4227.4024128452311</v>
+      </c>
+      <c r="D1248">
+        <v>3527.97384141666</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1249" s="1">
         <v>41589.865972222222</v>
       </c>
@@ -28875,10 +29533,14 @@
         <v>698.75</v>
       </c>
       <c r="C1249">
-        <v>3976.6096859833301</v>
-      </c>
-    </row>
-    <row r="1250" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4226.9135468833301</v>
+      </c>
+      <c r="D1249">
+        <v>3528.1635468833301</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1250" s="1">
         <v>41589.866666666669</v>
       </c>
@@ -28886,10 +29548,14 @@
         <v>701.42857142857099</v>
       </c>
       <c r="C1250">
-        <v>3979.4812015619009</v>
-      </c>
-    </row>
-    <row r="1251" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4229.7809510952311</v>
+      </c>
+      <c r="D1250">
+        <v>3528.35237966666</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1251" s="1">
         <v>41589.867361111108</v>
       </c>
@@ -28897,10 +29563,14 @@
         <v>671</v>
       </c>
       <c r="C1251">
-        <v>3949.2444617999899</v>
-      </c>
-    </row>
-    <row r="1252" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4199.54035738333</v>
+      </c>
+      <c r="D1251">
+        <v>3528.54035738333</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1252" s="1">
         <v>41589.868055555555</v>
       </c>
@@ -28908,10 +29578,14 @@
         <v>636.75</v>
       </c>
       <c r="C1252">
-        <v>3915.1852002333299</v>
-      </c>
-    </row>
-    <row r="1253" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4165.4774972833302</v>
+      </c>
+      <c r="D1252">
+        <v>3528.7274972833302</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1253" s="1">
         <v>41589.868750000001</v>
       </c>
@@ -28919,10 +29593,14 @@
         <v>635.71428571428498</v>
       </c>
       <c r="C1253">
-        <v>3914.3391498809447</v>
-      </c>
-    </row>
-    <row r="1254" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4164.6281022809453</v>
+      </c>
+      <c r="D1253">
+        <v>3528.91381656666</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1254" s="1">
         <v>41589.869444444441</v>
       </c>
@@ -28930,10 +29608,14 @@
         <v>637.75</v>
       </c>
       <c r="C1254">
-        <v>3916.5634721666602</v>
-      </c>
-    </row>
-    <row r="1255" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4166.8493329333305</v>
+      </c>
+      <c r="D1254">
+        <v>3529.0993329333301</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1255" s="1">
         <v>41589.870138888888</v>
       </c>
@@ -28941,10 +29623,14 @@
         <v>684.66666666666595</v>
       </c>
       <c r="C1255">
-        <v>3963.6677093999961</v>
-      </c>
-    </row>
-    <row r="1256" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4213.9507297166656</v>
+      </c>
+      <c r="D1255">
+        <v>3529.28406305</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1256" s="1">
         <v>41589.870833333334</v>
       </c>
@@ -28952,10 +29638,14 @@
         <v>648.75</v>
       </c>
       <c r="C1256">
-        <v>3927.9375938499902</v>
-      </c>
-    </row>
-    <row r="1257" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4178.2180240999896</v>
+      </c>
+      <c r="D1256">
+        <v>3529.4680240999901</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1257" s="1">
         <v>41589.871527777781</v>
       </c>
@@ -28963,10 +29653,14 @@
         <v>622.5</v>
       </c>
       <c r="C1257">
-        <v>3901.8731438499999</v>
-      </c>
-    </row>
-    <row r="1258" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4152.15123305</v>
+      </c>
+      <c r="D1257">
+        <v>3529.65123305</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1258" s="1">
         <v>41589.87222222222</v>
       </c>
@@ -28974,10 +29668,14 @@
         <v>555.25</v>
       </c>
       <c r="C1258">
-        <v>3834.8077104833301</v>
-      </c>
-    </row>
-    <row r="1259" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4085.08370691666</v>
+      </c>
+      <c r="D1258">
+        <v>3529.83370691666</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1259" s="1">
         <v>41589.872916666667</v>
       </c>
@@ -28985,10 +29683,14 @@
         <v>548.6</v>
       </c>
       <c r="C1259">
-        <v>3828.3413114166601</v>
-      </c>
-    </row>
-    <row r="1260" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4078.6154620833299</v>
+      </c>
+      <c r="D1259">
+        <v>3530.01546208333</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1260" s="1">
         <v>41589.873611111114</v>
       </c>
@@ -28996,10 +29698,14 @@
         <v>552.25</v>
       </c>
       <c r="C1260">
-        <v>3832.17396411666</v>
-      </c>
-    </row>
-    <row r="1261" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4082.4465155500002</v>
+      </c>
+      <c r="D1260">
+        <v>3530.1965155500002</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1261" s="1">
         <v>41589.874305555553</v>
       </c>
@@ -29007,10 +29713,14 @@
         <v>554.57142857142799</v>
       </c>
       <c r="C1261">
-        <v>3834.6771147880881</v>
-      </c>
-    </row>
-    <row r="1262" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4084.9483123880882</v>
+      </c>
+      <c r="D1261">
+        <v>3530.3768838166602</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1262" s="1">
         <v>41589.875</v>
       </c>
@@ -29018,10 +29728,14 @@
         <v>548.375</v>
       </c>
       <c r="C1262">
-        <v>3828.6614946833301</v>
-      </c>
-    </row>
-    <row r="1263" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4078.9315835833299</v>
+      </c>
+      <c r="D1262">
+        <v>3530.5565835833299</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1263" s="1">
         <v>41589.875694444447</v>
       </c>
@@ -29029,10 +29743,14 @@
         <v>548.28571428571399</v>
       </c>
       <c r="C1263">
-        <v>3828.7521210523737</v>
-      </c>
-    </row>
-    <row r="1264" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4079.0213455190442</v>
+      </c>
+      <c r="D1263">
+        <v>3530.73563123333</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1264" s="1">
         <v>41589.876388888886</v>
       </c>
@@ -29040,10 +29758,14 @@
         <v>535.57142857142799</v>
       </c>
       <c r="C1264">
-        <v>3816.2168679214178</v>
-      </c>
-    </row>
-    <row r="1265" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4066.485471904758</v>
+      </c>
+      <c r="D1264">
+        <v>3530.91404333333</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1265" s="1">
         <v>41589.877083333333</v>
       </c>
@@ -29051,10 +29773,14 @@
         <v>573.42857142857099</v>
       </c>
       <c r="C1265">
-        <v>3854.2521807285611</v>
-      </c>
-    </row>
-    <row r="1266" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4104.5204078119004</v>
+      </c>
+      <c r="D1265">
+        <v>3531.0918363833298</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1266" s="1">
         <v>41589.87777777778</v>
       </c>
@@ -29062,10 +29788,14 @@
         <v>614.83333333333303</v>
       </c>
       <c r="C1266">
-        <v>3895.8342665666632</v>
-      </c>
-    </row>
-    <row r="1267" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4146.1023598666634</v>
+      </c>
+      <c r="D1266">
+        <v>3531.2690265333299</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1267" s="1">
         <v>41589.878472222219</v>
       </c>
@@ -29073,10 +29803,14 @@
         <v>567</v>
       </c>
       <c r="C1267">
-        <v>3848.1774276833298</v>
-      </c>
-    </row>
-    <row r="1268" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4098.4456304833302</v>
+      </c>
+      <c r="D1267">
+        <v>3531.4456304833302</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1268" s="1">
         <v>41589.879166666666</v>
       </c>
@@ -29084,10 +29818,14 @@
         <v>479.142857142857</v>
       </c>
       <c r="C1268">
-        <v>3760.4959662928468</v>
-      </c>
-    </row>
-    <row r="1269" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4010.7645214928471</v>
+      </c>
+      <c r="D1268">
+        <v>3531.6216643499902</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1269" s="1">
         <v>41589.879861111112</v>
       </c>
@@ -29095,10 +29833,14 @@
         <v>477.142857142857</v>
       </c>
       <c r="C1269">
-        <v>3758.6708511761867</v>
-      </c>
-    </row>
-    <row r="1270" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4008.940001442857</v>
+      </c>
+      <c r="D1269">
+        <v>3531.7971443000001</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1270" s="1">
         <v>41589.880555555559</v>
       </c>
@@ -29106,10 +29848,14 @@
         <v>479.222222222222</v>
       </c>
       <c r="C1270">
-        <v>3760.9243206722222</v>
-      </c>
-    </row>
-    <row r="1271" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ref="C1270:C1333" si="2">B1270+D1270</f>
+        <v>4011.1943093222121</v>
+      </c>
+      <c r="D1270">
+        <v>3531.9720870999899</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1271" s="1">
         <v>41589.881249999999</v>
       </c>
@@ -29117,10 +29863,14 @@
         <v>477.7</v>
       </c>
       <c r="C1271">
-        <v>3759.5754384666598</v>
-      </c>
-    </row>
-    <row r="1272" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4009.8465085499997</v>
+      </c>
+      <c r="D1271">
+        <v>3532.1465085499999</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1272" s="1">
         <v>41589.881944444445</v>
       </c>
@@ -29128,10 +29878,14 @@
         <v>477.8</v>
       </c>
       <c r="C1272">
-        <v>3759.8480302333301</v>
-      </c>
-    </row>
-    <row r="1273" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4010.1204253666601</v>
+      </c>
+      <c r="D1272">
+        <v>3532.3204253666599</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1273" s="1">
         <v>41589.882638888892</v>
       </c>
@@ -29139,10 +29893,14 @@
         <v>479</v>
       </c>
       <c r="C1273">
-        <v>3761.2198896166601</v>
-      </c>
-    </row>
-    <row r="1274" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4011.4938535166598</v>
+      </c>
+      <c r="D1273">
+        <v>3532.4938535166598</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1274" s="1">
         <v>41589.883333333331</v>
       </c>
@@ -29150,10 +29908,14 @@
         <v>479.888888888888</v>
       </c>
       <c r="C1274">
-        <v>3762.279921222218</v>
-      </c>
-    </row>
-    <row r="1275" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4012.5556983222177</v>
+      </c>
+      <c r="D1274">
+        <v>3532.6668094333299</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1275" s="1">
         <v>41589.884027777778</v>
       </c>
@@ -29161,10 +29923,14 @@
         <v>503.42857142857099</v>
       </c>
       <c r="C1275">
-        <v>3785.9900458952311</v>
-      </c>
-    </row>
-    <row r="1276" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4036.2678806119011</v>
+      </c>
+      <c r="D1275">
+        <v>3532.83930918333</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1276" s="1">
         <v>41589.884722222225</v>
       </c>
@@ -29172,10 +29938,14 @@
         <v>526.142857142857</v>
       </c>
       <c r="C1276">
-        <v>3808.8740885761868</v>
-      </c>
-    </row>
-    <row r="1277" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4059.154226776187</v>
+      </c>
+      <c r="D1276">
+        <v>3533.0113696333301</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1277" s="1">
         <v>41589.885416666664</v>
       </c>
@@ -29183,10 +29953,14 @@
         <v>525.71428571428498</v>
       </c>
       <c r="C1277">
-        <v>3808.6146045809451</v>
-      </c>
-    </row>
-    <row r="1278" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4058.8972923976148</v>
+      </c>
+      <c r="D1277">
+        <v>3533.1830066833299</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1278" s="1">
         <v>41589.886111111111</v>
       </c>
@@ -29194,10 +29968,14 @@
         <v>484.25</v>
       </c>
       <c r="C1278">
-        <v>3767.3187523166598</v>
-      </c>
-    </row>
-    <row r="1279" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4017.6042367666601</v>
+      </c>
+      <c r="D1278">
+        <v>3533.3542367666601</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1279" s="1">
         <v>41589.886805555558</v>
       </c>
@@ -29205,10 +29983,14 @@
         <v>478.71428571428498</v>
       </c>
       <c r="C1279">
-        <v>3761.9508330476147</v>
-      </c>
-    </row>
-    <row r="1280" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4012.2393619976147</v>
+      </c>
+      <c r="D1279">
+        <v>3533.5250762833298</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1280" s="1">
         <v>41589.887499999997</v>
       </c>
@@ -29216,10 +29998,14 @@
         <v>477.5</v>
       </c>
       <c r="C1280">
-        <v>3760.9037193333302</v>
-      </c>
-    </row>
-    <row r="1281" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4011.1955421500002</v>
+      </c>
+      <c r="D1280">
+        <v>3533.6955421500002</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1281" s="1">
         <v>41589.888194444444</v>
       </c>
@@ -29227,10 +30013,14 @@
         <v>478.142857142857</v>
       </c>
       <c r="C1281">
-        <v>3761.7131407761867</v>
-      </c>
-    </row>
-    <row r="1282" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4012.008507492857</v>
+      </c>
+      <c r="D1281">
+        <v>3533.8656503500001</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1282" s="1">
         <v>41589.888888888891</v>
       </c>
@@ -29238,10 +30028,14 @@
         <v>494.25</v>
       </c>
       <c r="C1282">
-        <v>3777.9862555333302</v>
-      </c>
-    </row>
-    <row r="1283" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4028.2854176999899</v>
+      </c>
+      <c r="D1282">
+        <v>3534.0354176999899</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1283" s="1">
         <v>41589.88958333333</v>
       </c>
@@ -29249,10 +30043,14 @@
         <v>548.625</v>
       </c>
       <c r="C1283">
-        <v>3832.5266504666602</v>
-      </c>
-    </row>
-    <row r="1284" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4082.8298608166601</v>
+      </c>
+      <c r="D1283">
+        <v>3534.2048608166601</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1284" s="1">
         <v>41589.890277777777</v>
       </c>
@@ -29260,10 +30058,14 @@
         <v>708.28571428571399</v>
       </c>
       <c r="C1284">
-        <v>3992.3521977690443</v>
-      </c>
-    </row>
-    <row r="1285" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4242.6597107690441</v>
+      </c>
+      <c r="D1284">
+        <v>3534.3739964833298</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1285" s="1">
         <v>41589.890972222223</v>
       </c>
@@ -29271,10 +30073,14 @@
         <v>751.2</v>
       </c>
       <c r="C1285">
-        <v>4035.4307700166601</v>
-      </c>
-    </row>
-    <row r="1286" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4285.74284145</v>
+      </c>
+      <c r="D1285">
+        <v>3534.5428414500002</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1286" s="1">
         <v>41589.89166666667</v>
       </c>
@@ -29282,10 +30088,14 @@
         <v>633.57142857142799</v>
       </c>
       <c r="C1286">
-        <v>3917.9659535880878</v>
-      </c>
-    </row>
-    <row r="1287" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4168.2828409880876</v>
+      </c>
+      <c r="D1286">
+        <v>3534.7114124166601</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1287" s="1">
         <v>41589.892361111109</v>
       </c>
@@ -29293,10 +30103,14 @@
         <v>621</v>
       </c>
       <c r="C1287">
-        <v>3905.5577638333298</v>
-      </c>
-    </row>
-    <row r="1288" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4155.8797267499995</v>
+      </c>
+      <c r="D1287">
+        <v>3534.8797267499999</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1288" s="1">
         <v>41589.893055555556</v>
       </c>
@@ -29304,10 +30118,14 @@
         <v>561.20000000000005</v>
       </c>
       <c r="C1288">
-        <v>3845.9205016333299</v>
-      </c>
-    </row>
-    <row r="1289" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4096.2478012000001</v>
+      </c>
+      <c r="D1288">
+        <v>3535.0478011999999</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1289" s="1">
         <v>41589.893750000003</v>
       </c>
@@ -29315,10 +30133,14 @@
         <v>545.71428571428498</v>
       </c>
       <c r="C1289">
-        <v>3830.5970392142749</v>
-      </c>
-    </row>
-    <row r="1290" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4080.9299386642847</v>
+      </c>
+      <c r="D1289">
+        <v>3535.2156529499998</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1290" s="1">
         <v>41589.894444444442</v>
       </c>
@@ -29326,10 +30148,14 @@
         <v>588.42857142857099</v>
       </c>
       <c r="C1290">
-        <v>3873.4731060452309</v>
-      </c>
-    </row>
-    <row r="1291" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4123.811871061901</v>
+      </c>
+      <c r="D1290">
+        <v>3535.3832996333299</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1291" s="1">
         <v>41589.895138888889</v>
       </c>
@@ -29337,10 +30163,14 @@
         <v>594</v>
       </c>
       <c r="C1291">
-        <v>3879.2058600833302</v>
-      </c>
-    </row>
-    <row r="1292" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4129.55075843333</v>
+      </c>
+      <c r="D1291">
+        <v>3535.55075843333</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1292" s="1">
         <v>41589.895833333336</v>
       </c>
@@ -29348,10 +30178,14 @@
         <v>590.85714285714198</v>
       </c>
       <c r="C1292">
-        <v>3876.2238879404722</v>
-      </c>
-    </row>
-    <row r="1293" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4126.5751897404716</v>
+      </c>
+      <c r="D1292">
+        <v>3535.7180468833299</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1293" s="1">
         <v>41589.896527777775</v>
       </c>
@@ -29359,10 +30193,14 @@
         <v>588.4</v>
       </c>
       <c r="C1293">
-        <v>3873.9272047333302</v>
-      </c>
-    </row>
-    <row r="1294" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4124.2851827833301</v>
+      </c>
+      <c r="D1293">
+        <v>3535.88518278333</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1294" s="1">
         <v>41589.897222222222</v>
       </c>
@@ -29370,10 +30208,14 @@
         <v>582.25</v>
       </c>
       <c r="C1294">
-        <v>3867.9372543166601</v>
-      </c>
-    </row>
-    <row r="1295" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4118.3021840166602</v>
+      </c>
+      <c r="D1294">
+        <v>3536.0521840166598</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1295" s="1">
         <v>41589.897916666669</v>
       </c>
@@ -29381,10 +30223,14 @@
         <v>580.42857142857099</v>
       </c>
       <c r="C1295">
-        <v>3866.2754803952312</v>
-      </c>
-    </row>
-    <row r="1296" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4116.6476399619005</v>
+      </c>
+      <c r="D1295">
+        <v>3536.2190685333298</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1296" s="1">
         <v>41589.898611111108</v>
       </c>
@@ -29392,10 +30238,14 @@
         <v>647</v>
       </c>
       <c r="C1296">
-        <v>3933.00618396666</v>
-      </c>
-    </row>
-    <row r="1297" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4183.3858545333296</v>
+      </c>
+      <c r="D1296">
+        <v>3536.3858545333301</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1297" s="1">
         <v>41589.899305555555</v>
       </c>
@@ -29403,10 +30253,14 @@
         <v>650.28571428571399</v>
       </c>
       <c r="C1297">
-        <v>3936.4508087523736</v>
-      </c>
-    </row>
-    <row r="1298" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4186.8382745357139</v>
+      </c>
+      <c r="D1297">
+        <v>3536.5525602500002</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1298" s="1">
         <v>41589.9</v>
       </c>
@@ -29414,10 +30268,14 @@
         <v>585.28571428571399</v>
       </c>
       <c r="C1298">
-        <v>3871.6093702690441</v>
-      </c>
-    </row>
-    <row r="1299" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4122.0049187357135</v>
+      </c>
+      <c r="D1298">
+        <v>3536.7192044499998</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1299" s="1">
         <v>41589.900694444441</v>
       </c>
@@ -29425,10 +30283,14 @@
         <v>573.57142857142799</v>
       </c>
       <c r="C1299">
-        <v>3860.053312354758</v>
-      </c>
-    </row>
-    <row r="1300" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4110.4572344047574</v>
+      </c>
+      <c r="D1299">
+        <v>3536.8858058333299</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1300" s="1">
         <v>41589.901388888888</v>
       </c>
@@ -29436,10 +30298,14 @@
         <v>571.25</v>
       </c>
       <c r="C1300">
-        <v>3857.8897932499999</v>
-      </c>
-    </row>
-    <row r="1301" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4108.3023831833307</v>
+      </c>
+      <c r="D1300">
+        <v>3537.0523831833302</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1301" s="1">
         <v>41589.902083333334</v>
       </c>
@@ -29447,10 +30313,14 @@
         <v>575.5</v>
       </c>
       <c r="C1301">
-        <v>3862.2973998500001</v>
-      </c>
-    </row>
-    <row r="1302" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4112.7189558833306</v>
+      </c>
+      <c r="D1301">
+        <v>3537.2189558833302</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1302" s="1">
         <v>41589.902777777781</v>
       </c>
@@ -29458,10 +30328,14 @@
         <v>568.4</v>
       </c>
       <c r="C1302">
-        <v>3855.3547192666601</v>
-      </c>
-    </row>
-    <row r="1303" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4105.7855430999998</v>
+      </c>
+      <c r="D1302">
+        <v>3537.3855431000002</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1303" s="1">
         <v>41589.90347222222</v>
       </c>
@@ -29469,10 +30343,14 @@
         <v>569.75</v>
       </c>
       <c r="C1303">
-        <v>3856.8617669833302</v>
-      </c>
-    </row>
-    <row r="1304" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4107.3021647333298</v>
+      </c>
+      <c r="D1303">
+        <v>3537.5521647333298</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1304" s="1">
         <v>41589.904166666667</v>
       </c>
@@ -29480,10 +30358,14 @@
         <v>566.85714285714198</v>
       </c>
       <c r="C1304">
-        <v>3854.1257014904722</v>
-      </c>
-    </row>
-    <row r="1305" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4104.5759833071415</v>
+      </c>
+      <c r="D1304">
+        <v>3537.7188404499998</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1305" s="1">
         <v>41589.904861111114</v>
       </c>
@@ -29491,10 +30373,14 @@
         <v>577.57142857142799</v>
       </c>
       <c r="C1305">
-        <v>3864.9965388214182</v>
-      </c>
-    </row>
-    <row r="1306" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4115.4570190880877</v>
+      </c>
+      <c r="D1305">
+        <v>3537.8855905166602</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1306" s="1">
         <v>41589.905555555553</v>
       </c>
@@ -29502,10 +30388,14 @@
         <v>622.142857142857</v>
       </c>
       <c r="C1306">
-        <v>3909.7242945761868</v>
-      </c>
-    </row>
-    <row r="1307" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4160.1952925428568</v>
+      </c>
+      <c r="D1306">
+        <v>3538.0524353999999</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1307" s="1">
         <v>41589.90625</v>
       </c>
@@ -29513,10 +30403,14 @@
         <v>623.83333333333303</v>
       </c>
       <c r="C1307">
-        <v>3911.5708895833332</v>
-      </c>
-    </row>
-    <row r="1308" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4162.0527291833332</v>
+      </c>
+      <c r="D1307">
+        <v>3538.2193958500002</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1308" s="1">
         <v>41589.906944444447</v>
       </c>
@@ -29524,10 +30418,14 @@
         <v>563.75</v>
       </c>
       <c r="C1308">
-        <v>3851.6434829499899</v>
-      </c>
-    </row>
-    <row r="1309" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4102.1364927499999</v>
+      </c>
+      <c r="D1308">
+        <v>3538.3864927499999</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1309" s="1">
         <v>41589.907638888886</v>
       </c>
@@ -29535,10 +30433,14 @@
         <v>529</v>
       </c>
       <c r="C1309">
-        <v>3817.0492335499998</v>
-      </c>
-    </row>
-    <row r="1310" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4067.5537475166602</v>
+      </c>
+      <c r="D1309">
+        <v>3538.5537475166602</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1310" s="1">
         <v>41589.908333333333</v>
       </c>
@@ -29546,10 +30448,14 @@
         <v>526</v>
       </c>
       <c r="C1310">
-        <v>3814.2048244166599</v>
-      </c>
-    </row>
-    <row r="1311" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4064.7211819833301</v>
+      </c>
+      <c r="D1310">
+        <v>3538.7211819833301</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1311" s="1">
         <v>41589.90902777778</v>
       </c>
@@ -29557,10 +30463,14 @@
         <v>527.5</v>
       </c>
       <c r="C1311">
-        <v>3815.8602719666601</v>
-      </c>
-    </row>
-    <row r="1312" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4066.38881806666</v>
+      </c>
+      <c r="D1311">
+        <v>3538.88881806666</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1312" s="1">
         <v>41589.909722222219</v>
       </c>
@@ -29568,10 +30478,14 @@
         <v>527</v>
       </c>
       <c r="C1312">
-        <v>3815.5155928999998</v>
-      </c>
-    </row>
-    <row r="1313" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4066.05667813333</v>
+      </c>
+      <c r="D1312">
+        <v>3539.05667813333</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1313" s="1">
         <v>41589.910416666666</v>
       </c>
@@ -29579,10 +30493,14 @@
         <v>527.75</v>
       </c>
       <c r="C1313">
-        <v>3816.4208039166601</v>
-      </c>
-    </row>
-    <row r="1314" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4066.9747850333301</v>
+      </c>
+      <c r="D1313">
+        <v>3539.2247850333301</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1314" s="1">
         <v>41589.911111111112</v>
       </c>
@@ -29590,10 +30508,14 @@
         <v>527.5</v>
       </c>
       <c r="C1314">
-        <v>3816.3259218333301</v>
-      </c>
-    </row>
-    <row r="1315" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4066.8931619833302</v>
+      </c>
+      <c r="D1314">
+        <v>3539.3931619833302</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1315" s="1">
         <v>41589.911805555559</v>
       </c>
@@ -29601,10 +30523,14 @@
         <v>540.888888888888</v>
       </c>
       <c r="C1315">
-        <v>3829.8698526555481</v>
-      </c>
-    </row>
-    <row r="1316" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4080.4507213888883</v>
+      </c>
+      <c r="D1315">
+        <v>3539.5618325</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1316" s="1">
         <v>41589.912499999999</v>
       </c>
@@ -29612,10 +30538,14 @@
         <v>599.1</v>
       </c>
       <c r="C1316">
-        <v>3888.2359469499997</v>
-      </c>
-    </row>
-    <row r="1317" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4138.8308207666605</v>
+      </c>
+      <c r="D1316">
+        <v>3539.7308207666601</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1317" s="1">
         <v>41589.913194444445</v>
       </c>
@@ -29623,10 +30553,14 @@
         <v>601.42857142857099</v>
       </c>
       <c r="C1317">
-        <v>3890.7194603619009</v>
-      </c>
-    </row>
-    <row r="1318" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4141.3287227285709</v>
+      </c>
+      <c r="D1317">
+        <v>3539.9001512999998</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1318" s="1">
         <v>41589.913888888892</v>
       </c>
@@ -29634,10 +30568,14 @@
         <v>558.28571428571399</v>
       </c>
       <c r="C1318">
-        <v>3847.7315212857038</v>
-      </c>
-    </row>
-    <row r="1319" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4098.3555633190435</v>
+      </c>
+      <c r="D1318">
+        <v>3540.0698490333298</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1319" s="1">
         <v>41589.914583333331</v>
       </c>
@@ -29645,10 +30583,14 @@
         <v>529</v>
       </c>
       <c r="C1319">
-        <v>3818.6007193166602</v>
-      </c>
-    </row>
-    <row r="1320" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4069.2399394833301</v>
+      </c>
+      <c r="D1319">
+        <v>3540.2399394833301</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1320" s="1">
         <v>41589.915277777778</v>
       </c>
@@ -29656,10 +30598,14 @@
         <v>525.5</v>
       </c>
       <c r="C1320">
-        <v>3815.25564359999</v>
-      </c>
-    </row>
-    <row r="1321" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4065.9104487999898</v>
+      </c>
+      <c r="D1320">
+        <v>3540.4104487999898</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1321" s="1">
         <v>41589.915972222225</v>
       </c>
@@ -29667,10 +30613,14 @@
         <v>3014</v>
       </c>
       <c r="C1321">
-        <v>6303.9105983833306</v>
-      </c>
-    </row>
-    <row r="1322" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>6554.5814036166594</v>
+      </c>
+      <c r="D1321">
+        <v>3540.5814036166598</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1322" s="1">
         <v>41589.916666666664</v>
       </c>
@@ -29678,10 +30628,14 @@
         <v>3618</v>
       </c>
       <c r="C1322">
-        <v>6908.0656018833306</v>
-      </c>
-    </row>
-    <row r="1323" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>7158.75283103333</v>
+      </c>
+      <c r="D1322">
+        <v>3540.75283103333</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1323" s="1">
         <v>41589.917361111111</v>
       </c>
@@ -29689,10 +30643,14 @@
         <v>3640.25</v>
       </c>
       <c r="C1323">
-        <v>6930.4706729166601</v>
-      </c>
-    </row>
-    <row r="1324" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>7181.1747591000003</v>
+      </c>
+      <c r="D1323">
+        <v>3540.9247590999998</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1324" s="1">
         <v>41589.918055555558</v>
       </c>
@@ -29700,10 +30658,14 @@
         <v>2605.6666666666601</v>
       </c>
       <c r="C1324">
-        <v>5896.0424972999899</v>
-      </c>
-    </row>
-    <row r="1325" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>6146.7638826333205</v>
+      </c>
+      <c r="D1324">
+        <v>3541.0972159666599</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1325" s="1">
         <v>41589.918749999997</v>
       </c>
@@ -29711,10 +30673,14 @@
         <v>531.33333333333303</v>
       </c>
       <c r="C1325">
-        <v>3821.8644274666631</v>
-      </c>
-    </row>
-    <row r="1326" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4072.6035645333332</v>
+      </c>
+      <c r="D1325">
+        <v>3541.2702312000001</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1326" s="1">
         <v>41589.919444444444</v>
       </c>
@@ -29722,10 +30688,14 @@
         <v>548.66666666666595</v>
       </c>
       <c r="C1326">
-        <v>3839.3531496333262</v>
-      </c>
-    </row>
-    <row r="1327" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4090.1105014833261</v>
+      </c>
+      <c r="D1326">
+        <v>3541.44383481666</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1327" s="1">
         <v>41589.920138888891</v>
       </c>
@@ -29733,10 +30703,14 @@
         <v>553.57142857142799</v>
       </c>
       <c r="C1327">
-        <v>3844.4134454214181</v>
-      </c>
-    </row>
-    <row r="1328" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4095.1894856880881</v>
+      </c>
+      <c r="D1327">
+        <v>3541.6180571166601</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1328" s="1">
         <v>41589.92083333333</v>
       </c>
@@ -29744,10 +30718,14 @@
         <v>516</v>
       </c>
       <c r="C1328">
-        <v>3806.9977162</v>
-      </c>
-    </row>
-    <row r="1329" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4057.79292986666</v>
+      </c>
+      <c r="D1328">
+        <v>3541.79292986666</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1329" s="1">
         <v>41589.921527777777</v>
       </c>
@@ -29755,10 +30733,14 @@
         <v>479.25</v>
       </c>
       <c r="C1329">
-        <v>3770.40360136666</v>
-      </c>
-    </row>
-    <row r="1330" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4021.2184855999999</v>
+      </c>
+      <c r="D1329">
+        <v>3541.9684855999999</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1330" s="1">
         <v>41589.922222222223</v>
       </c>
@@ -29766,10 +30748,14 @@
         <v>478.888888888888</v>
       </c>
       <c r="C1330">
-        <v>3770.1985818888879</v>
-      </c>
-    </row>
-    <row r="1331" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4021.0336465555483</v>
+      </c>
+      <c r="D1330">
+        <v>3542.1447576666601</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1331" s="1">
         <v>41589.92291666667</v>
       </c>
@@ -29777,10 +30763,14 @@
         <v>480.57142857142799</v>
       </c>
       <c r="C1331">
-        <v>3772.037441071428</v>
-      </c>
-    </row>
-    <row r="1332" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4022.8932088047582</v>
+      </c>
+      <c r="D1331">
+        <v>3542.3217802333302</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1332" s="1">
         <v>41589.923611111109</v>
       </c>
@@ -29788,10 +30778,14 @@
         <v>481</v>
       </c>
       <c r="C1332">
-        <v>3772.6225813166602</v>
-      </c>
-    </row>
-    <row r="1333" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4023.49958893333</v>
+      </c>
+      <c r="D1332">
+        <v>3542.49958893333</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1333" s="1">
         <v>41589.924305555556</v>
       </c>
@@ -29799,10 +30793,14 @@
         <v>479.75</v>
       </c>
       <c r="C1333">
-        <v>3771.5294212499898</v>
-      </c>
-    </row>
-    <row r="1334" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4022.4282201833298</v>
+      </c>
+      <c r="D1333">
+        <v>3542.6782201833298</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1334" s="1">
         <v>41589.925000000003</v>
       </c>
@@ -29810,10 +30808,14 @@
         <v>483</v>
       </c>
       <c r="C1334">
-        <v>3774.9365548999999</v>
-      </c>
-    </row>
-    <row r="1335" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ref="C1334:C1397" si="3">B1334+D1334</f>
+        <v>4025.8577118499902</v>
+      </c>
+      <c r="D1334">
+        <v>3542.8577118499902</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1335" s="1">
         <v>41589.925694444442</v>
       </c>
@@ -29821,10 +30823,14 @@
         <v>484.55555555555497</v>
       </c>
       <c r="C1335">
-        <v>3776.6495603888852</v>
-      </c>
-    </row>
-    <row r="1336" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>4027.593658722215</v>
+      </c>
+      <c r="D1335">
+        <v>3543.0381031666602</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1336" s="1">
         <v>41589.926388888889</v>
       </c>
@@ -29832,10 +30838,14 @@
         <v>539.77777777777703</v>
       </c>
       <c r="C1336">
-        <v>3832.0295721277671</v>
-      </c>
-    </row>
-    <row r="1337" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>4082.9972120444368</v>
+      </c>
+      <c r="D1336">
+        <v>3543.2194342666598</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1337" s="1">
         <v>41589.927083333336</v>
       </c>
@@ -29843,10 +30853,14 @@
         <v>531.6</v>
       </c>
       <c r="C1337">
-        <v>3824.0099471999997</v>
-      </c>
-    </row>
-    <row r="1338" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>4075.0017476499997</v>
+      </c>
+      <c r="D1337">
+        <v>3543.4017476499998</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1338" s="1">
         <v>41589.927777777775</v>
       </c>
@@ -29854,10 +30868,14 @@
         <v>521.57142857142799</v>
       </c>
       <c r="C1338">
-        <v>3814.1399159714178</v>
-      </c>
-    </row>
-    <row r="1339" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>4065.1565154547579</v>
+      </c>
+      <c r="D1338">
+        <v>3543.58508688333</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1339" s="1">
         <v>41589.928472222222</v>
       </c>
@@ -29865,10 +30883,14 @@
         <v>479.25</v>
       </c>
       <c r="C1339">
-        <v>3771.97743986666</v>
-      </c>
-    </row>
-    <row r="1340" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>4023.01949726666</v>
+      </c>
+      <c r="D1339">
+        <v>3543.76949726666</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1340" s="1">
         <v>41589.929166666669</v>
       </c>
@@ -29876,10 +30898,14 @@
         <v>477.75</v>
       </c>
       <c r="C1340">
-        <v>3770.6368297833301</v>
-      </c>
-    </row>
-    <row r="1341" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>4021.7050263000001</v>
+      </c>
+      <c r="D1340">
+        <v>3543.9550263000001</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1341" s="1">
         <v>41589.929861111108</v>
       </c>
@@ -29887,10 +30913,14 @@
         <v>477.4</v>
       </c>
       <c r="C1341">
-        <v>3770.4466830666602</v>
-      </c>
-    </row>
-    <row r="1342" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>4021.54172368333</v>
+      </c>
+      <c r="D1341">
+        <v>3544.1417236833299</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1342" s="1">
         <v>41589.930555555555</v>
       </c>
@@ -29898,10 +30928,14 @@
         <v>580.25</v>
       </c>
       <c r="C1342">
-        <v>3873.45702599999</v>
-      </c>
-    </row>
-    <row r="1343" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>4124.5796411666597</v>
+      </c>
+      <c r="D1342">
+        <v>3544.3296411666602</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1343" s="1">
         <v>41589.931250000001</v>
       </c>
@@ -29909,10 +30943,14 @@
         <v>588.625</v>
       </c>
       <c r="C1343">
-        <v>3881.9928858500002</v>
-      </c>
-    </row>
-    <row r="1344" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>4133.1438333999904</v>
+      </c>
+      <c r="D1343">
+        <v>3544.5188333999899</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1344" s="1">
         <v>41589.931944444441</v>
       </c>
@@ -29920,10 +30958,14 @@
         <v>584.57142857142799</v>
       </c>
       <c r="C1344">
-        <v>3878.100719054758</v>
-      </c>
-    </row>
-    <row r="1345" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>4129.2807863547578</v>
+      </c>
+      <c r="D1344">
+        <v>3544.7093577833298</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1345" s="1">
         <v>41589.932638888888</v>
       </c>
@@ -29931,10 +30973,14 @@
         <v>581.33333333333303</v>
       </c>
       <c r="C1345">
-        <v>3875.0246015333332</v>
-      </c>
-    </row>
-    <row r="1346" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>4126.2346077499933</v>
+      </c>
+      <c r="D1345">
+        <v>3544.9012744166598</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1346" s="1">
         <v>41589.933333333334</v>
       </c>
@@ -29942,10 +30988,14 @@
         <v>580.875</v>
       </c>
       <c r="C1346">
-        <v>3874.72884826666</v>
-      </c>
-    </row>
-    <row r="1347" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>4125.9696475499895</v>
+      </c>
+      <c r="D1346">
+        <v>3545.09464754999</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1347" s="1">
         <v>41589.934027777781</v>
       </c>
@@ -29953,10 +31003,14 @@
         <v>595.75</v>
       </c>
       <c r="C1347">
-        <v>3889.7670609666602</v>
-      </c>
-    </row>
-    <row r="1348" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>4141.0395448333302</v>
+      </c>
+      <c r="D1347">
+        <v>3545.2895448333302</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1348" s="1">
         <v>41589.93472222222</v>
       </c>
@@ -29964,10 +31018,14 @@
         <v>647.42857142857099</v>
       </c>
       <c r="C1348">
-        <v>3941.6095087119011</v>
-      </c>
-    </row>
-    <row r="1349" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>4192.9146093452309</v>
+      </c>
+      <c r="D1348">
+        <v>3545.4860379166598</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1349" s="1">
         <v>41589.935416666667</v>
       </c>
@@ -29975,10 +31033,14 @@
         <v>580.4</v>
       </c>
       <c r="C1349">
-        <v>3874.7455089</v>
-      </c>
-    </row>
-    <row r="1350" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>4126.0842038499895</v>
+      </c>
+      <c r="D1349">
+        <v>3545.6842038499899</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1350" s="1">
         <v>41589.936111111114</v>
       </c>
@@ -29986,10 +31048,14 @@
         <v>580</v>
       </c>
       <c r="C1350">
-        <v>3874.5108087333301</v>
-      </c>
-    </row>
-    <row r="1351" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>4125.8841243833303</v>
+      </c>
+      <c r="D1350">
+        <v>3545.8841243833299</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1351" s="1">
         <v>41589.936805555553</v>
       </c>
@@ -29997,10 +31063,14 @@
         <v>573.5</v>
       </c>
       <c r="C1351">
-        <v>3868.1768708166601</v>
-      </c>
-    </row>
-    <row r="1352" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>4119.5858874833302</v>
+      </c>
+      <c r="D1351">
+        <v>3546.0858874833302</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1352" s="1">
         <v>41589.9375</v>
       </c>
@@ -30008,10 +31078,14 @@
         <v>578.57142857142799</v>
       </c>
       <c r="C1352">
-        <v>3873.4151585547579</v>
-      </c>
-    </row>
-    <row r="1353" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>4124.8610164880884</v>
+      </c>
+      <c r="D1352">
+        <v>3546.2895879166599</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1353" s="1">
         <v>41589.938194444447</v>
       </c>
@@ -30019,10 +31093,14 @@
         <v>575.66666666666595</v>
       </c>
       <c r="C1353">
-        <v>3870.6780894499962</v>
-      </c>
-    </row>
-    <row r="1354" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>4122.1619943499954</v>
+      </c>
+      <c r="D1353">
+        <v>3546.4953276833298</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1354" s="1">
         <v>41589.938888888886</v>
       </c>
@@ -30030,10 +31108,14 @@
         <v>568.57142857142799</v>
       </c>
       <c r="C1354">
-        <v>3863.7514150047582</v>
-      </c>
-    </row>
-    <row r="1355" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>4115.2746458214278</v>
+      </c>
+      <c r="D1354">
+        <v>3546.7032172499999</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1355" s="1">
         <v>41589.939583333333</v>
       </c>
@@ -30041,10 +31123,14 @@
         <v>571.5</v>
       </c>
       <c r="C1355">
-        <v>3866.8494601666598</v>
-      </c>
-    </row>
-    <row r="1356" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>4118.4133768666597</v>
+      </c>
+      <c r="D1355">
+        <v>3546.9133768666602</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1356" s="1">
         <v>41589.94027777778</v>
       </c>
@@ -30052,10 +31138,14 @@
         <v>569.4</v>
       </c>
       <c r="C1356">
-        <v>3864.9198845000001</v>
-      </c>
-    </row>
-    <row r="1357" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>4116.5259373833296</v>
+      </c>
+      <c r="D1356">
+        <v>3547.12593738333</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1357" s="1">
         <v>41589.940972222219</v>
       </c>
@@ -30063,10 +31153,14 @@
         <v>585.85714285714198</v>
       </c>
       <c r="C1357">
-        <v>3881.5484443738023</v>
-      </c>
-    </row>
-    <row r="1358" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>4133.1981846738017</v>
+      </c>
+      <c r="D1357">
+        <v>3547.34104181666</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1358" s="1">
         <v>41589.941666666666</v>
       </c>
@@ -30074,10 +31168,14 @@
         <v>641.28571428571399</v>
       </c>
       <c r="C1358">
-        <v>3937.1494693523737</v>
-      </c>
-    </row>
-    <row r="1359" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>4188.8445615023738</v>
+      </c>
+      <c r="D1358">
+        <v>3547.5588472166601</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1359" s="1">
         <v>41589.942361111112</v>
       </c>
@@ -30085,10 +31183,14 @@
         <v>639.5</v>
       </c>
       <c r="C1359">
-        <v>3935.5372911999898</v>
-      </c>
-    </row>
-    <row r="1360" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>4187.2795264666602</v>
+      </c>
+      <c r="D1359">
+        <v>3547.7795264666602</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1360" s="1">
         <v>41589.943055555559</v>
       </c>
@@ -30096,10 +31198,14 @@
         <v>556</v>
       </c>
       <c r="C1360">
-        <v>3852.2119581499901</v>
-      </c>
-    </row>
-    <row r="1361" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>4104.0032703166598</v>
+      </c>
+      <c r="D1360">
+        <v>3548.0032703166598</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1361" s="1">
         <v>41589.943749999999</v>
       </c>
@@ -30107,10 +31213,14 @@
         <v>554.85714285714198</v>
       </c>
       <c r="C1361">
-        <v>3851.2449490071322</v>
-      </c>
-    </row>
-    <row r="1362" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>4103.0874325904724</v>
+      </c>
+      <c r="D1361">
+        <v>3548.2302897333302</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1362" s="1">
         <v>41589.944444444445</v>
       </c>
@@ -30118,10 +31228,14 @@
         <v>601</v>
       </c>
       <c r="C1362">
-        <v>3897.56488843333</v>
-      </c>
-    </row>
-    <row r="1363" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>4149.4608196833306</v>
+      </c>
+      <c r="D1362">
+        <v>3548.4608196833301</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1363" s="1">
         <v>41589.945138888892</v>
       </c>
@@ -30129,10 +31243,14 @@
         <v>598.57142857142799</v>
       </c>
       <c r="C1363">
-        <v>3895.3146894214278</v>
-      </c>
-    </row>
-    <row r="1364" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>4147.2665497047583</v>
+      </c>
+      <c r="D1363">
+        <v>3548.6951211333298</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1364" s="1">
         <v>41589.945833333331</v>
       </c>
@@ -30140,10 +31258,14 @@
         <v>597.42857142857099</v>
       </c>
       <c r="C1364">
-        <v>3894.3515539952309</v>
-      </c>
-    </row>
-    <row r="1365" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>4146.3620571952306</v>
+      </c>
+      <c r="D1364">
+        <v>3548.9334857666599</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1365" s="1">
         <v>41589.946527777778</v>
       </c>
@@ -30151,10 +31273,14 @@
         <v>602.875</v>
       </c>
       <c r="C1365">
-        <v>3899.97911641666</v>
-      </c>
-    </row>
-    <row r="1366" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>4152.0512404499896</v>
+      </c>
+      <c r="D1365">
+        <v>3549.17624044999</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1366" s="1">
         <v>41589.947222222225</v>
       </c>
@@ -30162,10 +31288,14 @@
         <v>592.75</v>
       </c>
       <c r="C1366">
-        <v>3889.9847827307599</v>
-      </c>
-    </row>
-    <row r="1367" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>4142.1737517666606</v>
+      </c>
+      <c r="D1366">
+        <v>3549.4237517666602</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1367" s="1">
         <v>41589.947916666664</v>
       </c>
@@ -30173,600 +31303,1284 @@
         <v>603.5</v>
       </c>
       <c r="C1367">
-        <v>603.5</v>
-      </c>
-    </row>
-    <row r="1368" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>4153.1764318833302</v>
+      </c>
+      <c r="D1367">
+        <v>3549.6764318833302</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1368" s="1">
         <v>41589.948611111111</v>
       </c>
       <c r="B1368">
         <v>664</v>
       </c>
-    </row>
-    <row r="1369" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1368">
+        <f t="shared" si="3"/>
+        <v>4213.9347460999998</v>
+      </c>
+      <c r="D1368">
+        <v>3549.9347461000002</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1369" s="1">
         <v>41589.949305555558</v>
       </c>
       <c r="B1369">
         <v>664.71428571428498</v>
       </c>
-    </row>
-    <row r="1370" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1369">
+        <f t="shared" si="3"/>
+        <v>4214.9135048642847</v>
+      </c>
+      <c r="D1369">
+        <v>3550.1992191499999</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1370" s="1">
         <v>41589.949999999997</v>
       </c>
       <c r="B1370">
         <v>626</v>
       </c>
-    </row>
-    <row r="1371" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1370">
+        <f t="shared" si="3"/>
+        <v>4176.4704459833301</v>
+      </c>
+      <c r="D1370">
+        <v>3550.4704459833301</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1371" s="1">
         <v>41589.950694444444</v>
       </c>
       <c r="B1371">
         <v>555.71428571428498</v>
       </c>
-    </row>
-    <row r="1372" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1371">
+        <f t="shared" si="3"/>
+        <v>4106.4633861642751</v>
+      </c>
+      <c r="D1371">
+        <v>3550.7491004499898</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1372" s="1">
         <v>41589.951388888891</v>
       </c>
       <c r="B1372">
         <v>528.28571428571399</v>
       </c>
-    </row>
-    <row r="1373" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1372">
+        <f t="shared" si="3"/>
+        <v>4079.3216628357141</v>
+      </c>
+      <c r="D1372">
+        <v>3551.0359485499998</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1373" s="1">
         <v>41589.95208333333</v>
       </c>
       <c r="B1373">
         <v>527.25</v>
       </c>
-    </row>
-    <row r="1374" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1373">
+        <f t="shared" si="3"/>
+        <v>4078.5818605499999</v>
+      </c>
+      <c r="D1373">
+        <v>3551.3318605499999</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1374" s="1">
         <v>41589.952777777777</v>
       </c>
       <c r="B1374">
         <v>530.57142857142799</v>
       </c>
-    </row>
-    <row r="1375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1374">
+        <f t="shared" si="3"/>
+        <v>4082.2092573214181</v>
+      </c>
+      <c r="D1374">
+        <v>3551.6378287499901</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1375" s="1">
         <v>41589.953472222223</v>
       </c>
       <c r="B1375">
         <v>528.5</v>
       </c>
-    </row>
-    <row r="1376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1375">
+        <f t="shared" si="3"/>
+        <v>4080.4549843166601</v>
+      </c>
+      <c r="D1375">
+        <v>3551.9549843166601</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1376" s="1">
         <v>41589.95416666667</v>
       </c>
       <c r="B1376">
         <v>530.142857142857</v>
       </c>
-    </row>
-    <row r="1377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1376">
+        <f t="shared" si="3"/>
+        <v>4082.4274764095167</v>
+      </c>
+      <c r="D1376">
+        <v>3552.2846192666598</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1377" s="1">
         <v>41589.954861111109</v>
       </c>
       <c r="B1377">
         <v>529.71428571428498</v>
       </c>
-    </row>
-    <row r="1378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1377">
+        <f t="shared" si="3"/>
+        <v>4082.342495697615</v>
+      </c>
+      <c r="D1377">
+        <v>3552.6282099833302</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1378" s="1">
         <v>41589.955555555556</v>
       </c>
       <c r="B1378">
         <v>528.79999999999995</v>
       </c>
-    </row>
-    <row r="1379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1378">
+        <f t="shared" si="3"/>
+        <v>4081.7874464666602</v>
+      </c>
+      <c r="D1378">
+        <v>3552.98744646666</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1379" s="1">
         <v>41589.956250000003</v>
       </c>
       <c r="B1379">
         <v>571.625</v>
       </c>
-    </row>
-    <row r="1380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1379">
+        <f t="shared" si="3"/>
+        <v>4124.9892639333302</v>
+      </c>
+      <c r="D1379">
+        <v>3553.3642639333302</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1380" s="1">
         <v>41589.956944444442</v>
       </c>
       <c r="B1380">
         <v>566</v>
       </c>
-    </row>
-    <row r="1381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1380">
+        <f t="shared" si="3"/>
+        <v>4119.7608806333301</v>
+      </c>
+      <c r="D1380">
+        <v>3553.7608806333301</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1381" s="1">
         <v>41589.957638888889</v>
       </c>
       <c r="B1381">
         <v>531.77777777777703</v>
       </c>
-    </row>
-    <row r="1382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1381">
+        <f t="shared" si="3"/>
+        <v>4085.9576190444368</v>
+      </c>
+      <c r="D1381">
+        <v>3554.1798412666599</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1382" s="1">
         <v>41589.958333333336</v>
       </c>
       <c r="B1382">
         <v>531.4</v>
       </c>
-    </row>
-    <row r="1383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1382">
+        <f t="shared" si="3"/>
+        <v>4086.0240665166602</v>
+      </c>
+      <c r="D1382">
+        <v>3554.6240665166602</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1383" s="1">
         <v>41589.959027777775</v>
       </c>
       <c r="B1383">
         <v>558.375</v>
       </c>
-    </row>
-    <row r="1384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1383">
+        <f t="shared" si="3"/>
+        <v>4113.4719119833298</v>
+      </c>
+      <c r="D1383">
+        <v>3555.0969119833298</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1384" s="1">
         <v>41589.959722222222</v>
       </c>
       <c r="B1384">
         <v>538.5</v>
       </c>
-    </row>
-    <row r="1385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1384">
+        <f t="shared" si="3"/>
+        <v>4094.1022334333302</v>
+      </c>
+      <c r="D1384">
+        <v>3555.6022334333302</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1385" s="1">
         <v>41589.960416666669</v>
       </c>
       <c r="B1385">
         <v>529.375</v>
       </c>
-    </row>
-    <row r="1386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1385">
+        <f t="shared" si="3"/>
+        <v>4085.5194645499901</v>
+      </c>
+      <c r="D1385">
+        <v>3556.1444645499901</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1386" s="1">
         <v>41589.961111111108</v>
       </c>
       <c r="B1386">
         <v>551.42857142857099</v>
       </c>
-    </row>
-    <row r="1387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1386">
+        <f t="shared" si="3"/>
+        <v>4108.1572779452308</v>
+      </c>
+      <c r="D1386">
+        <v>3556.7287065166602</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1387" s="1">
         <v>41589.961805555555</v>
       </c>
       <c r="B1387">
         <v>557.5</v>
       </c>
-    </row>
-    <row r="1388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1387">
+        <f t="shared" si="3"/>
+        <v>4114.8608292499994</v>
+      </c>
+      <c r="D1387">
+        <v>3557.3608292499998</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1388" s="1">
         <v>41589.962500000001</v>
       </c>
       <c r="B1388">
         <v>559.142857142857</v>
       </c>
-    </row>
-    <row r="1389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1388">
+        <f t="shared" si="3"/>
+        <v>4117.1904489595172</v>
+      </c>
+      <c r="D1388">
+        <v>3558.0475918166599</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1389" s="1">
         <v>41589.963194444441</v>
       </c>
       <c r="B1389">
         <v>587.42857142857099</v>
       </c>
-    </row>
-    <row r="1390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1389">
+        <f t="shared" si="3"/>
+        <v>4146.2253498619011</v>
+      </c>
+      <c r="D1389">
+        <v>3558.79677843333</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1390" s="1">
         <v>41589.963888888888</v>
       </c>
       <c r="B1390">
         <v>590</v>
       </c>
-    </row>
-    <row r="1391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1390">
+        <f t="shared" si="3"/>
+        <v>4149.6173579000006</v>
+      </c>
+      <c r="D1390">
+        <v>3559.6173579000001</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1391" s="1">
         <v>41589.964583333334</v>
       </c>
       <c r="B1391">
         <v>559.25</v>
       </c>
-    </row>
-    <row r="1392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1391">
+        <f t="shared" si="3"/>
+        <v>4119.7696655666605</v>
+      </c>
+      <c r="D1391">
+        <v>3560.51966556666</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1392" s="1">
         <v>41589.965277777781</v>
       </c>
       <c r="B1392">
         <v>556.20000000000005</v>
       </c>
-    </row>
-    <row r="1393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1392">
+        <f t="shared" si="3"/>
+        <v>4117.7156153333299</v>
+      </c>
+      <c r="D1392">
+        <v>3561.5156153333301</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1393" s="1">
         <v>41589.96597222222</v>
       </c>
       <c r="B1393">
         <v>556.875</v>
       </c>
-    </row>
-    <row r="1394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1393">
+        <f t="shared" si="3"/>
+        <v>4119.4939443333296</v>
+      </c>
+      <c r="D1393">
+        <v>3562.6189443333301</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1394" s="1">
         <v>41589.966666666667</v>
       </c>
       <c r="B1394">
         <v>597.5</v>
       </c>
-    </row>
-    <row r="1395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1394">
+        <f t="shared" si="3"/>
+        <v>4161.3454947499995</v>
+      </c>
+      <c r="D1394">
+        <v>3563.8454947499999</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1395" s="1">
         <v>41589.967361111114</v>
       </c>
       <c r="B1395">
         <v>610.75</v>
       </c>
-    </row>
-    <row r="1396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1395">
+        <f t="shared" si="3"/>
+        <v>4175.9635400500001</v>
+      </c>
+      <c r="D1395">
+        <v>3565.2135400500001</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1396" s="1">
         <v>41589.968055555553</v>
       </c>
       <c r="B1396">
         <v>604.42857142857099</v>
       </c>
-    </row>
-    <row r="1397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1396">
+        <f t="shared" si="3"/>
+        <v>4171.1727329619007</v>
+      </c>
+      <c r="D1396">
+        <v>3566.74416153333</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1397" s="1">
         <v>41589.96875</v>
       </c>
       <c r="B1397">
         <v>578.125</v>
       </c>
-    </row>
-    <row r="1398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1397">
+        <f t="shared" si="3"/>
+        <v>4146.5866842166597</v>
+      </c>
+      <c r="D1397">
+        <v>3568.4616842166602</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1398" s="1">
         <v>41589.969444444447</v>
       </c>
       <c r="B1398">
         <v>575.42857142857099</v>
       </c>
-    </row>
-    <row r="1399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1398">
+        <f t="shared" ref="C1398:C1441" si="4">B1398+D1398</f>
+        <v>4145.8227509119006</v>
+      </c>
+      <c r="D1398">
+        <v>3570.3941794833299</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1399" s="1">
         <v>41589.970138888886</v>
       </c>
       <c r="B1399">
         <v>565.5</v>
       </c>
-    </row>
-    <row r="1400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1399">
+        <f t="shared" si="4"/>
+        <v>4138.0740464499995</v>
+      </c>
+      <c r="D1399">
+        <v>3572.57404645</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1400" s="1">
         <v>41589.970833333333</v>
       </c>
       <c r="B1400">
         <v>576.142857142857</v>
       </c>
-    </row>
-    <row r="1401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1400">
+        <f t="shared" si="4"/>
+        <v>4151.1815406428568</v>
+      </c>
+      <c r="D1400">
+        <v>3575.0386834999999</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1401" s="1">
         <v>41589.97152777778</v>
       </c>
       <c r="B1401">
         <v>525.42857142857099</v>
       </c>
-    </row>
-    <row r="1402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1401">
+        <f t="shared" si="4"/>
+        <v>4103.2598354952306</v>
+      </c>
+      <c r="D1401">
+        <v>3577.83126406666</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1402" s="1">
         <v>41589.972222222219</v>
       </c>
       <c r="B1402">
         <v>536.16666666666595</v>
       </c>
-    </row>
-    <row r="1403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1402">
+        <f t="shared" si="4"/>
+        <v>4117.1683003333255</v>
+      </c>
+      <c r="D1402">
+        <v>3581.0016336666599</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1403" s="1">
         <v>41589.972916666666</v>
       </c>
       <c r="B1403">
         <v>525.142857142857</v>
       </c>
-    </row>
-    <row r="1404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1403">
+        <f t="shared" si="4"/>
+        <v>4109.7502030761871</v>
+      </c>
+      <c r="D1403">
+        <v>3584.6073459333302</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1404" s="1">
         <v>41589.973611111112</v>
       </c>
       <c r="B1404">
         <v>522.28571428571399</v>
       </c>
-    </row>
-    <row r="1405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1404">
+        <f t="shared" si="4"/>
+        <v>4111.0005736523744</v>
+      </c>
+      <c r="D1404">
+        <v>3588.7148593666602</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1405" s="1">
         <v>41589.974305555559</v>
       </c>
       <c r="B1405">
         <v>529.33333333333303</v>
       </c>
-    </row>
-    <row r="1406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1405">
+        <f t="shared" si="4"/>
+        <v>4122.7342549166624</v>
+      </c>
+      <c r="D1405">
+        <v>3593.4009215833298</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1406" s="1">
         <v>41589.974999999999</v>
       </c>
       <c r="B1406">
         <v>524.71428571428498</v>
       </c>
-    </row>
-    <row r="1407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1406">
+        <f t="shared" si="4"/>
+        <v>4123.4684526309447</v>
+      </c>
+      <c r="D1406">
+        <v>3598.7541669166599</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1407" s="1">
         <v>41589.975694444445</v>
       </c>
       <c r="B1407">
         <v>529.85714285714198</v>
       </c>
-    </row>
-    <row r="1408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1407">
+        <f t="shared" si="4"/>
+        <v>4134.734107423802</v>
+      </c>
+      <c r="D1407">
+        <v>3604.8769645666598</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1408" s="1">
         <v>41589.976388888892</v>
       </c>
       <c r="B1408">
         <v>522.75</v>
       </c>
-    </row>
-    <row r="1409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1408">
+        <f t="shared" si="4"/>
+        <v>4134.63755293333</v>
+      </c>
+      <c r="D1408">
+        <v>3611.88755293333</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1409" s="1">
         <v>41589.977083333331</v>
       </c>
       <c r="B1409">
         <v>541.5</v>
       </c>
-    </row>
-    <row r="1410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1409">
+        <f t="shared" si="4"/>
+        <v>4161.4225063666599</v>
+      </c>
+      <c r="D1409">
+        <v>3619.9225063666599</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1410" s="1">
         <v>41589.977777777778</v>
       </c>
       <c r="B1410">
         <v>584.28571428571399</v>
       </c>
-    </row>
-    <row r="1411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1410">
+        <f t="shared" si="4"/>
+        <v>4213.4252996357136</v>
+      </c>
+      <c r="D1410">
+        <v>3629.1395853499998</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1411" s="1">
         <v>41589.978472222225</v>
       </c>
       <c r="B1411">
         <v>519.20000000000005</v>
       </c>
-    </row>
-    <row r="1412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1411">
+        <f t="shared" si="4"/>
+        <v>4158.9210313166604</v>
+      </c>
+      <c r="D1411">
+        <v>3639.7210313166602</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1412" s="1">
         <v>41589.979166666664</v>
       </c>
       <c r="B1412">
         <v>499.7</v>
       </c>
-    </row>
-    <row r="1413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1412">
+        <f t="shared" si="4"/>
+        <v>4151.5773723333305</v>
+      </c>
+      <c r="D1412">
+        <v>3651.8773723333302</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1413" s="1">
         <v>41589.979861111111</v>
       </c>
       <c r="B1413">
         <v>480</v>
       </c>
-    </row>
-    <row r="1414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1413">
+        <f t="shared" si="4"/>
+        <v>4145.8518224333302</v>
+      </c>
+      <c r="D1413">
+        <v>3665.8518224333302</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1414" s="1">
         <v>41589.980555555558</v>
       </c>
       <c r="B1414">
         <v>480.5</v>
       </c>
-    </row>
-    <row r="1415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1414">
+        <f t="shared" si="4"/>
+        <v>4162.4253651666604</v>
+      </c>
+      <c r="D1414">
+        <v>3681.92536516666</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1415" s="1">
         <v>41589.981249999997</v>
       </c>
       <c r="B1415">
         <v>483.142857142857</v>
       </c>
-    </row>
-    <row r="1416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1415">
+        <f t="shared" si="4"/>
+        <v>3720.5407233928468</v>
+      </c>
+      <c r="D1415">
+        <v>3237.3978662499899</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1416" s="1">
         <v>41589.981944444444</v>
       </c>
       <c r="B1416">
         <v>487</v>
       </c>
-    </row>
-    <row r="1417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1416">
+        <f t="shared" si="4"/>
+        <v>2418.47077515</v>
+      </c>
+      <c r="D1416">
+        <v>1931.47077515</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1417" s="1">
         <v>41589.982638888891</v>
       </c>
       <c r="B1417">
         <v>482.2</v>
       </c>
-    </row>
-    <row r="1418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1417">
+        <f t="shared" si="4"/>
+        <v>1595.3318297933301</v>
+      </c>
+      <c r="D1417">
+        <v>1113.1318297933301</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1418" s="1">
         <v>41589.98333333333</v>
       </c>
       <c r="B1418">
         <v>478.875</v>
       </c>
-    </row>
-    <row r="1419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1418">
+        <f t="shared" si="4"/>
+        <v>1110.3441458966659</v>
+      </c>
+      <c r="D1418">
+        <v>631.46914589666596</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1419" s="1">
         <v>41589.984027777777</v>
       </c>
       <c r="B1419">
         <v>499</v>
       </c>
-    </row>
-    <row r="1420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1419">
+        <f t="shared" si="4"/>
+        <v>853.959125738333</v>
+      </c>
+      <c r="D1419">
+        <v>354.959125738333</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1420" s="1">
         <v>41589.984722222223</v>
       </c>
       <c r="B1420">
         <v>548.42857142857099</v>
       </c>
-    </row>
-    <row r="1421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1420">
+        <f t="shared" si="4"/>
+        <v>746.91832287690397</v>
+      </c>
+      <c r="D1420">
+        <v>198.48975144833301</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1421" s="1">
         <v>41589.98541666667</v>
       </c>
       <c r="B1421">
         <v>486.85714285714198</v>
       </c>
-    </row>
-    <row r="1422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1421">
+        <f t="shared" si="4"/>
+        <v>597.52488852747501</v>
+      </c>
+      <c r="D1421">
+        <v>110.66774567033301</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1422" s="1">
         <v>41589.986111111109</v>
       </c>
       <c r="B1422">
         <v>483</v>
       </c>
-    </row>
-    <row r="1423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1422">
+        <f t="shared" si="4"/>
+        <v>544.60121007733335</v>
+      </c>
+      <c r="D1422">
+        <v>61.601210077333299</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1423" s="1">
         <v>41589.986805555556</v>
       </c>
       <c r="B1423">
         <v>477.57142857142799</v>
       </c>
-    </row>
-    <row r="1424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1423">
+        <f t="shared" si="4"/>
+        <v>511.82916253442801</v>
+      </c>
+      <c r="D1423">
+        <v>34.257733963</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1424" s="1">
         <v>41589.987500000003</v>
       </c>
       <c r="B1424">
         <v>485.28571428571399</v>
       </c>
-    </row>
-    <row r="1425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1424">
+        <f t="shared" si="4"/>
+        <v>504.32742497321397</v>
+      </c>
+      <c r="D1424">
+        <v>19.0417106875</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1425" s="1">
         <v>41589.988194444442</v>
       </c>
       <c r="B1425">
         <v>467.25</v>
       </c>
-    </row>
-    <row r="1426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1425">
+        <f t="shared" si="4"/>
+        <v>477.8310745943499</v>
+      </c>
+      <c r="D1425">
+        <v>10.5810745943499</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1426" s="1">
         <v>41589.988888888889</v>
       </c>
       <c r="B1426">
         <v>474</v>
       </c>
-    </row>
-    <row r="1427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1426">
+        <f t="shared" si="4"/>
+        <v>479.87874912983335</v>
+      </c>
+      <c r="D1426">
+        <v>5.8787491298333299</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1427" s="1">
         <v>41589.989583333336</v>
       </c>
       <c r="B1427">
         <v>486.6</v>
       </c>
-    </row>
-    <row r="1428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1427">
+        <f t="shared" si="4"/>
+        <v>489.86589277749999</v>
+      </c>
+      <c r="D1427">
+        <v>3.2658927774999902</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1428" s="1">
         <v>41589.990277777775</v>
       </c>
       <c r="B1428">
         <v>468.85714285714198</v>
       </c>
-    </row>
-    <row r="1429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1428">
+        <f t="shared" si="4"/>
+        <v>470.67139530210864</v>
+      </c>
+      <c r="D1428">
+        <v>1.8142524449666599</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1429" s="1">
         <v>41589.990972222222</v>
       </c>
       <c r="B1429">
         <v>444.71428571428498</v>
       </c>
-    </row>
-    <row r="1430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1429">
+        <f t="shared" si="4"/>
+        <v>445.72210283986834</v>
+      </c>
+      <c r="D1429">
+        <v>1.0078171255833299</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1430" s="1">
         <v>41589.991666666669</v>
       </c>
       <c r="B1430">
         <v>500.28571428571399</v>
       </c>
-    </row>
-    <row r="1431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1430">
+        <f t="shared" si="4"/>
+        <v>500.84554820508066</v>
+      </c>
+      <c r="D1430">
+        <v>0.55983391936666604</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1431" s="1">
         <v>41589.992361111108</v>
       </c>
       <c r="B1431">
         <v>501.28571428571399</v>
       </c>
-    </row>
-    <row r="1432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1431">
+        <f t="shared" si="4"/>
+        <v>501.59669470701397</v>
+      </c>
+      <c r="D1431">
+        <v>0.31098042129999898</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1432" s="1">
         <v>41589.993055555555</v>
       </c>
       <c r="B1432">
         <v>501.33333333333297</v>
       </c>
-    </row>
-    <row r="1433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1432">
+        <f t="shared" si="4"/>
+        <v>501.50607808764966</v>
+      </c>
+      <c r="D1432">
+        <v>0.172744754316666</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1433" s="1">
         <v>41589.993750000001</v>
       </c>
       <c r="B1433">
         <v>499.71428571428498</v>
       </c>
-    </row>
-    <row r="1434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1433">
+        <f t="shared" si="4"/>
+        <v>499.8102424724683</v>
+      </c>
+      <c r="D1433">
+        <v>9.5956758183333296E-2</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1434" s="1">
         <v>41589.994444444441</v>
       </c>
       <c r="B1434">
         <v>500.57142857142799</v>
       </c>
-    </row>
-    <row r="1435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1434">
+        <f t="shared" si="4"/>
+        <v>500.624730833878</v>
+      </c>
+      <c r="D1434">
+        <v>5.3302262449999999E-2</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1435" s="1">
         <v>41589.995138888888</v>
       </c>
       <c r="B1435">
         <v>553.71428571428498</v>
       </c>
-    </row>
-    <row r="1436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1435">
+        <f t="shared" si="4"/>
+        <v>553.74389414386826</v>
+      </c>
+      <c r="D1435">
+        <v>2.96084295833333E-2</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1436" s="1">
         <v>41589.995833333334</v>
       </c>
       <c r="B1436">
         <v>558.71428571428498</v>
       </c>
-    </row>
-    <row r="1437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1436">
+        <f t="shared" si="4"/>
+        <v>558.73073264698496</v>
+      </c>
+      <c r="D1436">
+        <v>1.6446932699999899E-2</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1437" s="1">
         <v>41589.996527777781</v>
       </c>
       <c r="B1437">
         <v>557.5</v>
       </c>
-    </row>
-    <row r="1438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1437">
+        <f t="shared" si="4"/>
+        <v>557.50913596326666</v>
+      </c>
+      <c r="D1437">
+        <v>9.1359632666666597E-3</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1438" s="1">
         <v>41589.99722222222</v>
       </c>
       <c r="B1438">
         <v>562</v>
       </c>
-    </row>
-    <row r="1439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1438">
+        <f t="shared" si="4"/>
+        <v>562.00507485586661</v>
+      </c>
+      <c r="D1438">
+        <v>5.07485586666666E-3</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1439" s="1">
         <v>41589.997916666667</v>
       </c>
       <c r="B1439">
         <v>569.142857142857</v>
       </c>
-    </row>
-    <row r="1440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1439">
+        <f t="shared" si="4"/>
+        <v>569.14567612984035</v>
+      </c>
+      <c r="D1439">
+        <v>2.81898698333333E-3</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1440" s="1">
         <v>41589.998611111114</v>
       </c>
       <c r="B1440">
         <v>571.20000000000005</v>
       </c>
-    </row>
-    <row r="1441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1440">
+        <f t="shared" si="4"/>
+        <v>571.2015658941001</v>
+      </c>
+      <c r="D1440">
+        <v>1.5658941E-3</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1441" s="1">
         <v>41589.999305555553</v>
       </c>
       <c r="B1441">
         <v>569.85714285714198</v>
       </c>
+      <c r="C1441">
+        <f t="shared" si="4"/>
+        <v>569.85801268172531</v>
+      </c>
+      <c r="D1441">
+        <v>8.6982458333333297E-4</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D1445" s="2"/>
+    </row>
+    <row r="1446" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D1446" s="2"/>
+    </row>
+    <row r="1447" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D1447" s="2"/>
+    </row>
+    <row r="1448" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D1448" s="2"/>
+    </row>
+    <row r="1449" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D1449" s="2"/>
+    </row>
+    <row r="1450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D1450" s="2"/>
+    </row>
+    <row r="1451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D1451" s="2"/>
+    </row>
+    <row r="1452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D1452" s="2"/>
+    </row>
+    <row r="1453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D1453" s="2"/>
+    </row>
+    <row r="1454" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D1454" s="2"/>
+    </row>
+    <row r="1455" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D1455" s="2"/>
+    </row>
+    <row r="1456" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D1456" s="2"/>
+    </row>
+    <row r="1457" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1457" s="2"/>
+    </row>
+    <row r="1458" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1458" s="2"/>
+    </row>
+    <row r="1459" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1459" s="2"/>
+    </row>
+    <row r="1460" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1460" s="2"/>
+    </row>
+    <row r="1461" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1461" s="2"/>
+    </row>
+    <row r="1462" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1462" s="2"/>
+    </row>
+    <row r="1463" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1463" s="2"/>
+    </row>
+    <row r="1464" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1464" s="2"/>
+    </row>
+    <row r="1465" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1465" s="2"/>
+    </row>
+    <row r="1466" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1466" s="2"/>
+    </row>
+    <row r="1467" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1467" s="2"/>
+    </row>
+    <row r="1468" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1468" s="2"/>
+    </row>
+    <row r="1469" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1469" s="2"/>
+    </row>
+    <row r="1470" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1470" s="2"/>
+    </row>
+    <row r="1471" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1471" s="2"/>
+    </row>
+    <row r="1472" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1472" s="2"/>
+    </row>
+    <row r="1473" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1473" s="2"/>
+    </row>
+    <row r="1474" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1474" s="2"/>
+    </row>
+    <row r="1475" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1475" s="2"/>
+    </row>
+    <row r="1476" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1476" s="2"/>
+    </row>
+    <row r="1477" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1477" s="2"/>
+    </row>
+    <row r="1478" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1478" s="2"/>
+    </row>
+    <row r="1479" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1479" s="2"/>
+    </row>
+    <row r="1480" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1480" s="2"/>
+    </row>
+    <row r="1481" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1481" s="2"/>
+    </row>
+    <row r="1482" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1482" s="2"/>
+    </row>
+    <row r="1483" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1483" s="2"/>
+    </row>
+    <row r="1484" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1484" s="2"/>
+    </row>
+    <row r="1485" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1485" s="2"/>
+    </row>
+    <row r="1486" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1486" s="2"/>
+    </row>
+    <row r="1487" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1487" s="2"/>
+    </row>
+    <row r="1488" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1488" s="2"/>
+    </row>
+    <row r="1489" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1489" s="2"/>
+    </row>
+    <row r="1490" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1490" s="2"/>
+    </row>
+    <row r="1491" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1491" s="2"/>
+    </row>
+    <row r="1492" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1492" s="2"/>
+    </row>
+    <row r="1493" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1493" s="2"/>
+    </row>
+    <row r="1494" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1494" s="2"/>
+    </row>
+    <row r="1495" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1495" s="2"/>
+    </row>
+    <row r="1496" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1496" s="2"/>
+    </row>
+    <row r="1497" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1497" s="2"/>
+    </row>
+    <row r="1498" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1498" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30776,10 +32590,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FBABEB-A5DB-4543-9257-702C80BCF0CB}">
-  <dimension ref="A1:C289"/>
+  <dimension ref="A1:D301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32567,7 +34381,7 @@
         <v>492.33333333333297</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>41589.774305555555</v>
       </c>
@@ -32575,7 +34389,7 @@
         <v>489.32352941176401</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>41589.777777777781</v>
       </c>
@@ -32583,7 +34397,7 @@
         <v>744.25</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>41589.78125</v>
       </c>
@@ -32591,7 +34405,7 @@
         <v>564.23333333333301</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>41589.784722222219</v>
       </c>
@@ -32599,7 +34413,7 @@
         <v>635.06060606060601</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>41589.788194444445</v>
       </c>
@@ -32607,10 +34421,11 @@
         <v>649.94117647058795</v>
       </c>
       <c r="C229">
+        <f>B229+D229</f>
         <v>649.94117647058795</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>41589.791666666664</v>
       </c>
@@ -32618,10 +34433,14 @@
         <v>627.04545454545405</v>
       </c>
       <c r="C230">
-        <v>3872.4476535821141</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ref="C230:C289" si="0">B230+D230</f>
+        <v>4125.710594815444</v>
+      </c>
+      <c r="D230">
+        <v>3498.6651402699899</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>41589.795138888891</v>
       </c>
@@ -32629,10 +34448,14 @@
         <v>627.875</v>
       </c>
       <c r="C231">
-        <v>3875.78467604666</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4128.6926052833296</v>
+      </c>
+      <c r="D231">
+        <v>3500.8176052833301</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>41589.798611111109</v>
       </c>
@@ -32640,10 +34463,14 @@
         <v>878.46666666666601</v>
       </c>
       <c r="C232">
-        <v>4128.7251328699958</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4381.3172095366663</v>
+      </c>
+      <c r="D232">
+        <v>3502.85054287</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>41589.802083333336</v>
       </c>
@@ -32651,10 +34478,14 @@
         <v>2628.3636363636301</v>
       </c>
       <c r="C233">
-        <v>5880.8276172136202</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>6133.1381442102902</v>
+      </c>
+      <c r="D233">
+        <v>3504.7745078466601</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>41589.805555555555</v>
       </c>
@@ -32662,10 +34493,14 @@
         <v>1337.7333333333299</v>
       </c>
       <c r="C234">
-        <v>4592.2730808599899</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4844.3322390166595</v>
+      </c>
+      <c r="D234">
+        <v>3506.59890568333</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>41589.809027777781</v>
       </c>
@@ -32673,10 +34508,14 @@
         <v>1396.84375</v>
       </c>
       <c r="C235">
-        <v>4653.3414433766602</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4905.1758989366599</v>
+      </c>
+      <c r="D235">
+        <v>3508.3321489366599</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>41589.8125</v>
       </c>
@@ -32684,10 +34523,14 @@
         <v>1036.85294117647</v>
       </c>
       <c r="C236">
-        <v>4295.2042924289499</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4546.8347308397997</v>
+      </c>
+      <c r="D236">
+        <v>3509.9817896633299</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>41589.815972222219</v>
       </c>
@@ -32695,10 +34538,14 @@
         <v>513.89189189189096</v>
       </c>
       <c r="C237">
-        <v>3774.0044076932109</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4025.446523928551</v>
+      </c>
+      <c r="D237">
+        <v>3511.5546320366602</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>41589.819444444445</v>
       </c>
@@ -32706,10 +34553,14 @@
         <v>460.29032258064501</v>
       </c>
       <c r="C238">
-        <v>3722.0737115308048</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>3973.3471499839748</v>
+      </c>
+      <c r="D238">
+        <v>3513.0568274033299</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>41589.822916666664</v>
       </c>
@@ -32717,10 +34568,14 @@
         <v>509.25</v>
       </c>
       <c r="C239">
-        <v>3772.6214841125802</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4023.7439562166601</v>
+      </c>
+      <c r="D239">
+        <v>3514.4939562166601</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>41589.826388888891</v>
       </c>
@@ -32728,10 +34583,14 @@
         <v>496.76470588235202</v>
       </c>
       <c r="C240">
-        <v>3761.6484320916525</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4012.6358047190124</v>
+      </c>
+      <c r="D240">
+        <v>3515.8710988366602</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>41589.829861111109</v>
       </c>
@@ -32739,10 +34598,14 @@
         <v>522.1875</v>
       </c>
       <c r="C241">
-        <v>3788.49281247098</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4039.3803960333298</v>
+      </c>
+      <c r="D241">
+        <v>3517.1928960333298</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>41589.833333333336</v>
       </c>
@@ -32750,10 +34613,14 @@
         <v>491.13333333333298</v>
       </c>
       <c r="C242">
-        <v>3758.7954042633328</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4009.596935279993</v>
+      </c>
+      <c r="D242">
+        <v>3518.4636019466602</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>41589.836805555555</v>
       </c>
@@ -32761,10 +34628,14 @@
         <v>513.06060606060601</v>
       </c>
       <c r="C243">
-        <v>3782.0372867272658</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4032.747736613936</v>
+      </c>
+      <c r="D243">
+        <v>3519.68713055333</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>41589.840277777781</v>
       </c>
@@ -32772,10 +34643,14 @@
         <v>546.72727272727195</v>
       </c>
       <c r="C244">
-        <v>3816.964475890602</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4067.5943688906023</v>
+      </c>
+      <c r="D244">
+        <v>3520.8670961633302</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>41589.84375</v>
       </c>
@@ -32783,10 +34658,14 @@
         <v>569.03333333333296</v>
       </c>
       <c r="C245">
-        <v>3840.4811443399926</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4091.0401824233227</v>
+      </c>
+      <c r="D245">
+        <v>3522.0068490899898</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>41589.847222222219</v>
       </c>
@@ -32794,10 +34673,14 @@
         <v>585.944444444444</v>
       </c>
       <c r="C246">
-        <v>3858.556779011104</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4109.0539522444342</v>
+      </c>
+      <c r="D246">
+        <v>3523.1095077999898</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>41589.850694444445</v>
       </c>
@@ -32805,10 +34688,14 @@
         <v>678.91176470588198</v>
       </c>
       <c r="C247">
-        <v>3952.6460674492118</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4203.089752135872</v>
+      </c>
+      <c r="D247">
+        <v>3524.17798742999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>41589.854166666664</v>
       </c>
@@ -32816,10 +34703,14 @@
         <v>695.20833333333303</v>
       </c>
       <c r="C248">
-        <v>3970.0253123733332</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4220.4233584699932</v>
+      </c>
+      <c r="D248">
+        <v>3525.2150251366602</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>41589.857638888891</v>
       </c>
@@ -32827,10 +34718,14 @@
         <v>713.125</v>
       </c>
       <c r="C249">
-        <v>3988.9883932733301</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4239.3482040833296</v>
+      </c>
+      <c r="D249">
+        <v>3526.2232040833301</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>41589.861111111109</v>
       </c>
@@ -32838,10 +34733,14 @@
         <v>717.58620689655095</v>
       </c>
       <c r="C250">
-        <v>3994.4625769932109</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4244.7911814432109</v>
+      </c>
+      <c r="D250">
+        <v>3527.2049745466602</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>41589.864583333336</v>
       </c>
@@ -32849,10 +34748,14 @@
         <v>707.66666666666595</v>
       </c>
       <c r="C251">
-        <v>3985.5252211399961</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4235.829340856656</v>
+      </c>
+      <c r="D251">
+        <v>3528.16267418999</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>41589.868055555555</v>
       </c>
@@ -32860,10 +34763,14 @@
         <v>648.27272727272702</v>
       </c>
       <c r="C252">
-        <v>3927.0851619027271</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4177.3712740593874</v>
+      </c>
+      <c r="D252">
+        <v>3529.0985467866599</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>41589.871527777781</v>
       </c>
@@ -32871,10 +34778,14 @@
         <v>572.67857142857099</v>
       </c>
       <c r="C253">
-        <v>3852.4189346452313</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4102.693331711901</v>
+      </c>
+      <c r="D253">
+        <v>3530.0147602833299</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>41589.875</v>
       </c>
@@ -32882,10 +34793,14 @@
         <v>562.20000000000005</v>
       </c>
       <c r="C254">
-        <v>3842.84457666666</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4093.1134242133303</v>
+      </c>
+      <c r="D254">
+        <v>3530.91342421333</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>41589.878472222219</v>
       </c>
@@ -32893,10 +34808,14 @@
         <v>498.93023255813898</v>
       </c>
       <c r="C255">
-        <v>3780.457446114799</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4030.7268395147989</v>
+      </c>
+      <c r="D255">
+        <v>3531.7966069566601</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>41589.881944444445</v>
       </c>
@@ -32904,10 +34823,14 @@
         <v>490.55813953488303</v>
       </c>
       <c r="C256">
-        <v>3772.9484711515433</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4023.2244929615431</v>
+      </c>
+      <c r="D256">
+        <v>3532.66635342666</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>41589.885416666664</v>
       </c>
@@ -32915,10 +34838,14 @@
         <v>487.87179487179401</v>
       </c>
       <c r="C257">
-        <v>3771.107719168454</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4021.3964973184538</v>
+      </c>
+      <c r="D257">
+        <v>3533.5247024466598</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>41589.888888888891</v>
       </c>
@@ -32926,10 +34853,14 @@
         <v>629.51612903225805</v>
       </c>
       <c r="C258">
-        <v>3913.5820659355882</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4163.8898348055882</v>
+      </c>
+      <c r="D258">
+        <v>3534.3737057733301</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>41589.892361111109</v>
       </c>
@@ -32937,10 +34868,14 @@
         <v>583.51612903225805</v>
       </c>
       <c r="C259">
-        <v>3868.3984117655882</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4118.7315768255885</v>
+      </c>
+      <c r="D259">
+        <v>3535.21544779333</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>41589.895833333336</v>
       </c>
@@ -32948,10 +34883,14 @@
         <v>599.28571428571399</v>
       </c>
       <c r="C260">
-        <v>3884.972573699044</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4135.3377816357142</v>
+      </c>
+      <c r="D260">
+        <v>3536.05206735</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>41589.899305555555</v>
       </c>
@@ -32959,10 +34898,14 @@
         <v>590.21621621621603</v>
       </c>
       <c r="C261">
-        <v>3876.6977816828858</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4127.101998136216</v>
+      </c>
+      <c r="D261">
+        <v>3536.8857819200002</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>41589.902777777781</v>
       </c>
@@ -32970,10 +34913,14 @@
         <v>582.9</v>
       </c>
       <c r="C262">
-        <v>3870.1683185133302</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4120.6189148399899</v>
+      </c>
+      <c r="D262">
+        <v>3537.7189148399898</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>41589.90625</v>
       </c>
@@ -32981,10 +34928,14 @@
         <v>557.75</v>
       </c>
       <c r="C263">
-        <v>3845.7990738266599</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4096.3039272333299</v>
+      </c>
+      <c r="D263">
+        <v>3538.5539272333299</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>41589.909722222219</v>
       </c>
@@ -32992,10 +34943,14 @@
         <v>553.59375</v>
       </c>
       <c r="C264">
-        <v>3842.4195958733299</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4092.9872056833301</v>
+      </c>
+      <c r="D264">
+        <v>3539.3934556833301</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>41589.913194444445</v>
       </c>
@@ -33003,10 +34958,14 @@
         <v>952.322580645161</v>
       </c>
       <c r="C265">
-        <v>4241.9233120918216</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4492.5629390918211</v>
+      </c>
+      <c r="D265">
+        <v>3540.2403584466601</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>41589.916666666664</v>
       </c>
@@ -33014,10 +34973,14 @@
         <v>2083.26470588235</v>
       </c>
       <c r="C266">
-        <v>5373.6406423890094</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>5624.36248030568</v>
+      </c>
+      <c r="D266">
+        <v>3541.0977744233301</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>41589.920138888891</v>
       </c>
@@ -33025,10 +34988,14 @@
         <v>500.28205128205099</v>
       </c>
       <c r="C267">
-        <v>3791.4358592653807</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4042.2512533787108</v>
+      </c>
+      <c r="D267">
+        <v>3541.96920209666</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>41589.923611111109</v>
       </c>
@@ -33036,10 +35003,14 @@
         <v>498.27272727272702</v>
       </c>
       <c r="C268">
-        <v>3790.2095986027271</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4041.1313389527172</v>
+      </c>
+      <c r="D268">
+        <v>3542.8586116799902</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>41589.927083333336</v>
       </c>
@@ -33047,10 +35018,14 @@
         <v>495.51515151515099</v>
       </c>
       <c r="C269">
-        <v>3788.2430289784811</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4039.285767871811</v>
+      </c>
+      <c r="D269">
+        <v>3543.77061635666</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>41589.930555555555</v>
       </c>
@@ -33058,10 +35033,14 @@
         <v>583.04999999999995</v>
       </c>
       <c r="C270">
-        <v>3876.5798637600001</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4127.76075086333</v>
+      </c>
+      <c r="D270">
+        <v>3544.7107508633298</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>41589.934027777781</v>
       </c>
@@ -33069,10 +35048,14 @@
         <v>595.22222222222194</v>
       </c>
       <c r="C271">
-        <v>3889.5684595622215</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4140.9081819155517</v>
+      </c>
+      <c r="D271">
+        <v>3545.68595969333</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>41589.9375</v>
       </c>
@@ -33080,10 +35063,14 @@
         <v>573.25</v>
       </c>
       <c r="C272">
-        <v>3868.43089677333</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4119.95548941999</v>
+      </c>
+      <c r="D272">
+        <v>3546.70548941999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>41589.940972222219</v>
       </c>
@@ -33091,10 +35078,14 @@
         <v>590.30303030303003</v>
       </c>
       <c r="C273">
-        <v>3886.3414527196901</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4138.0856254130194</v>
+      </c>
+      <c r="D273">
+        <v>3547.7825951099899</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>41589.944444444445</v>
       </c>
@@ -33102,10 +35093,14 @@
         <v>599.06451612903197</v>
       </c>
       <c r="C274">
-        <v>3895.9375208170022</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4148.0023998890219</v>
+      </c>
+      <c r="D274">
+        <v>3548.9378837599902</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>41589.947916666664</v>
       </c>
@@ -33113,120 +35108,255 @@
         <v>620.27586206896501</v>
       </c>
       <c r="C275">
-        <v>620.27586206896501</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>4170.4818507822947</v>
+      </c>
+      <c r="D275">
+        <v>3550.20598871333</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>41589.951388888891</v>
       </c>
       <c r="B276">
         <v>529.09090909090901</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C276">
+        <f>B276+D276</f>
+        <v>4080.7399573775692</v>
+      </c>
+      <c r="D276">
+        <v>3551.6490482866602</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>41589.954861111109</v>
       </c>
       <c r="B277">
         <v>542.605263157894</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C277">
+        <f t="shared" si="0"/>
+        <v>4095.9893916145543</v>
+      </c>
+      <c r="D277">
+        <v>3553.3841284566602</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>41589.958333333336</v>
       </c>
       <c r="B278">
         <v>541.35135135135101</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C278">
+        <f t="shared" si="0"/>
+        <v>4096.9906279513407</v>
+      </c>
+      <c r="D278">
+        <v>3555.6392765999899</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>41589.961805555555</v>
       </c>
       <c r="B279">
         <v>571.30303030303003</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C279">
+        <f t="shared" si="0"/>
+        <v>4130.1714748963605</v>
+      </c>
+      <c r="D279">
+        <v>3558.86844459333</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>41589.965277777781</v>
       </c>
       <c r="B280">
         <v>584.0625</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C280">
+        <f t="shared" si="0"/>
+        <v>4148.0500511999999</v>
+      </c>
+      <c r="D280">
+        <v>3563.9875511999999</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>41589.96875</v>
       </c>
       <c r="B281">
         <v>564.54054054053995</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C281">
+        <f t="shared" si="0"/>
+        <v>4137.4005120838701</v>
+      </c>
+      <c r="D281">
+        <v>3572.8599715433302</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>41589.972222222219</v>
       </c>
       <c r="B282">
         <v>527.21212121212102</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C282">
+        <f t="shared" si="0"/>
+        <v>4116.5079067054512</v>
+      </c>
+      <c r="D282">
+        <v>3589.2957854933302</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>41589.975694444445</v>
       </c>
       <c r="B283">
         <v>542.51612903225805</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C283">
+        <f t="shared" si="0"/>
+        <v>4163.6256571389185</v>
+      </c>
+      <c r="D283">
+        <v>3621.10952810666</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>41589.979166666664</v>
       </c>
       <c r="B284">
         <v>487.675675675675</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C284">
+        <f t="shared" si="0"/>
+        <v>3721.3803159423351</v>
+      </c>
+      <c r="D284">
+        <v>3233.7046402666601</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>41589.982638888891</v>
       </c>
       <c r="B285">
         <v>499.457142857142</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C285">
+        <f t="shared" si="0"/>
+        <v>981.20066256654104</v>
+      </c>
+      <c r="D285">
+        <v>481.74351970939898</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>41589.986111111109</v>
       </c>
       <c r="B286">
         <v>478.827586206896</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C286">
+        <f t="shared" si="0"/>
+        <v>505.09968189729932</v>
+      </c>
+      <c r="D286">
+        <v>26.272095690403301</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>41589.989583333336</v>
       </c>
       <c r="B287">
         <v>479.969696969697</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C287">
+        <f t="shared" si="0"/>
+        <v>481.36145230744035</v>
+      </c>
+      <c r="D287">
+        <v>1.39175533774333</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>41589.993055555555</v>
       </c>
       <c r="B288">
         <v>523.44117647058795</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C288">
+        <f t="shared" si="0"/>
+        <v>523.51478829803466</v>
+      </c>
+      <c r="D288">
+        <v>7.3611827446666597E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>41589.996527777781</v>
       </c>
       <c r="B289">
         <v>566.43333333333305</v>
       </c>
+      <c r="C289">
+        <f t="shared" si="0"/>
+        <v>566.43722643829301</v>
+      </c>
+      <c r="D289">
+        <v>3.8931049599999902E-3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D291" s="2"/>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D292" s="2"/>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D293" s="2"/>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D294" s="2"/>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D295" s="2"/>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D296" s="2"/>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D297" s="2"/>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D298" s="2"/>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D299" s="2"/>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D300" s="2"/>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D301" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
